--- a/MMB_Estimation/OUTPUT/IRFs/US_DNGS14_20074_RT_EW_MHforecast.xlsx
+++ b/MMB_Estimation/OUTPUT/IRFs/US_DNGS14_20074_RT_EW_MHforecast.xlsx
@@ -523,7402 +523,7402 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-5.7213106568491767E-2</v>
+        <v>-5.6056708100232007E-2</v>
       </c>
       <c r="B2">
-        <v>-1.3818625080680436E-2</v>
+        <v>-1.4594051950576652E-2</v>
       </c>
       <c r="C2">
-        <v>0.32632655460301613</v>
+        <v>0.33250849249249476</v>
       </c>
       <c r="D2">
-        <v>1.2568658007282574E-2</v>
+        <v>1.1450759018443651E-2</v>
       </c>
       <c r="E2">
-        <v>3.6549582597236174E-3</v>
+        <v>3.4068767760298347E-3</v>
       </c>
       <c r="F2">
-        <v>0.42358972615394747</v>
+        <v>0.4518947398751777</v>
       </c>
       <c r="G2">
-        <v>0.15189524572939631</v>
+        <v>0.15203545744869734</v>
       </c>
       <c r="H2">
-        <v>8.096284845478241E-2</v>
+        <v>8.5419699971374913E-2</v>
       </c>
       <c r="I2">
-        <v>0.53752155156746562</v>
+        <v>0.52002710002721286</v>
       </c>
       <c r="J2">
-        <v>6.0733617423782693E-3</v>
+        <v>5.8804149740086589E-3</v>
       </c>
       <c r="K2">
-        <v>4.0674433313909741E-3</v>
+        <v>4.2410283489305875E-3</v>
       </c>
       <c r="L2">
-        <v>0.24658651675855736</v>
+        <v>0.24851352005028393</v>
       </c>
       <c r="M2">
-        <v>4.6511007559454365E-2</v>
+        <v>4.7081318528064041E-2</v>
       </c>
       <c r="N2">
-        <v>0.27097660501658549</v>
+        <v>0.27113340403313524</v>
       </c>
       <c r="O2">
-        <v>-0.20173860858601467</v>
+        <v>-0.19074366314869515</v>
       </c>
       <c r="P2">
-        <v>3.1429950784404914E-2</v>
+        <v>3.0817993065275065E-2</v>
       </c>
       <c r="Q2">
-        <v>5.2014437776758626E-2</v>
+        <v>5.7441713512925319E-2</v>
       </c>
       <c r="R2">
-        <v>5.8752874509355957E-2</v>
+        <v>4.9358404575337363E-2</v>
       </c>
       <c r="S2">
-        <v>-7.9234198075996964E-3</v>
+        <v>-7.4968028793046329E-3</v>
       </c>
       <c r="T2">
-        <v>-3.1128591034195185E-3</v>
+        <v>-3.007738911580537E-3</v>
       </c>
       <c r="U2">
-        <v>-2.9691517144464274E-2</v>
+        <v>-2.7070726808667751E-2</v>
       </c>
       <c r="V2">
-        <v>0.14842546395248402</v>
+        <v>0.14863356113800719</v>
       </c>
       <c r="W2">
-        <v>-2.0088380448970211E-2</v>
+        <v>-2.0919172623524131E-2</v>
       </c>
       <c r="X2">
-        <v>-0.49012018087833475</v>
+        <v>-0.45766175552739607</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-5.790152504757784E-2</v>
+        <v>-5.7092170888064321E-2</v>
       </c>
       <c r="B3">
-        <v>-2.2500173559118597E-2</v>
+        <v>-2.3120317199926618E-2</v>
       </c>
       <c r="C3">
-        <v>2.2579570942900307E-2</v>
+        <v>2.8055198389163129E-2</v>
       </c>
       <c r="D3">
-        <v>1.3317181595967176E-2</v>
+        <v>1.196978544627203E-2</v>
       </c>
       <c r="E3">
-        <v>6.3156966167927653E-3</v>
+        <v>5.7313824206096566E-3</v>
       </c>
       <c r="F3">
-        <v>-6.1768281432582395E-2</v>
+        <v>-6.4266114803314192E-2</v>
       </c>
       <c r="G3">
-        <v>0.21144947565899219</v>
+        <v>0.21239564496965799</v>
       </c>
       <c r="H3">
-        <v>0.14132080565665728</v>
+        <v>0.14643056636010837</v>
       </c>
       <c r="I3">
-        <v>0.22719996381597862</v>
+        <v>0.21280989149217816</v>
       </c>
       <c r="J3">
-        <v>8.3256932945139361E-3</v>
+        <v>7.8437314642461828E-3</v>
       </c>
       <c r="K3">
-        <v>6.672759452196475E-3</v>
+        <v>6.7520069520509854E-3</v>
       </c>
       <c r="L3">
-        <v>0.13373413439125167</v>
+        <v>0.13367501503186691</v>
       </c>
       <c r="M3">
-        <v>5.5928862819159431E-2</v>
+        <v>5.6428407094393743E-2</v>
       </c>
       <c r="N3">
-        <v>0.20067426294480128</v>
+        <v>0.19576703375202972</v>
       </c>
       <c r="O3">
-        <v>-0.19421461423958611</v>
+        <v>-0.1799119932001671</v>
       </c>
       <c r="P3">
-        <v>5.5259585272891876E-2</v>
+        <v>5.4400409131246275E-2</v>
       </c>
       <c r="Q3">
-        <v>8.8555284770104326E-2</v>
+        <v>9.5871880855706554E-2</v>
       </c>
       <c r="R3">
-        <v>9.8345576524737632E-3</v>
+        <v>-2.0992444415759439E-3</v>
       </c>
       <c r="S3">
-        <v>-1.4519093628181823E-2</v>
+        <v>-1.3569736546203878E-2</v>
       </c>
       <c r="T3">
-        <v>-5.5645057546109822E-3</v>
+        <v>-5.2811529395744858E-3</v>
       </c>
       <c r="U3">
-        <v>-2.9616467359835252E-2</v>
+        <v>-2.6678349676032675E-2</v>
       </c>
       <c r="V3">
-        <v>7.5253343024754615E-2</v>
+        <v>7.843649135861748E-2</v>
       </c>
       <c r="W3">
-        <v>-3.4092087383306158E-2</v>
+        <v>-3.4841729449875451E-2</v>
       </c>
       <c r="X3">
-        <v>-0.13634120120536286</v>
+        <v>-0.12593331361225663</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-5.194019442763631E-2</v>
+        <v>-5.1495376150263346E-2</v>
       </c>
       <c r="B4">
-        <v>-2.7527473045666939E-2</v>
+        <v>-2.7591629124391132E-2</v>
       </c>
       <c r="C4">
-        <v>-2.0126538764549173E-2</v>
+        <v>-1.4253341420382192E-2</v>
       </c>
       <c r="D4">
-        <v>1.2643289088542398E-2</v>
+        <v>1.1225684538076153E-2</v>
       </c>
       <c r="E4">
-        <v>8.1740079803740429E-3</v>
+        <v>7.2456920859564214E-3</v>
       </c>
       <c r="F4">
-        <v>-2.9675833456983991E-2</v>
+        <v>-3.1629149725348804E-2</v>
       </c>
       <c r="G4">
-        <v>0.23827325038553721</v>
+        <v>0.23947213415181742</v>
       </c>
       <c r="H4">
-        <v>0.18478276443652275</v>
+        <v>0.18845894464398449</v>
       </c>
       <c r="I4">
-        <v>9.0733985220255109E-2</v>
+        <v>7.8499931589320365E-2</v>
       </c>
       <c r="J4">
-        <v>7.3298450735930221E-3</v>
+        <v>6.5677592388017824E-3</v>
       </c>
       <c r="K4">
-        <v>7.795817297991281E-3</v>
+        <v>7.6098233370473093E-3</v>
       </c>
       <c r="L4">
-        <v>7.0040947549948829E-2</v>
+        <v>6.8234257978042778E-2</v>
       </c>
       <c r="M4">
-        <v>5.0015187694054664E-2</v>
+        <v>5.0120590691240495E-2</v>
       </c>
       <c r="N4">
-        <v>0.12374365881622129</v>
+        <v>0.11559420258955447</v>
       </c>
       <c r="O4">
-        <v>-0.12966384319750818</v>
+        <v>-0.11422107732978475</v>
       </c>
       <c r="P4">
-        <v>7.1364719319252812E-2</v>
+        <v>7.0526784126569653E-2</v>
       </c>
       <c r="Q4">
-        <v>0.11148333776570207</v>
+        <v>0.11850295063126995</v>
       </c>
       <c r="R4">
-        <v>-2.7828491811110245E-2</v>
+        <v>-3.811691173185467E-2</v>
       </c>
       <c r="S4">
-        <v>-1.929355163180535E-2</v>
+        <v>-1.7906598142472877E-2</v>
       </c>
       <c r="T4">
-        <v>-7.5239837914131691E-3</v>
+        <v>-7.0440044455335176E-3</v>
       </c>
       <c r="U4">
-        <v>-2.6458083762786799E-2</v>
+        <v>-2.346062810006308E-2</v>
       </c>
       <c r="V4">
-        <v>3.5179520686357213E-2</v>
+        <v>3.8694697883068438E-2</v>
       </c>
       <c r="W4">
-        <v>-4.2725852778037643E-2</v>
+        <v>-4.289134313124985E-2</v>
       </c>
       <c r="X4">
-        <v>-4.1965762565916442E-3</v>
+        <v>-2.4707561696402536E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-4.6071394857921666E-2</v>
+        <v>-4.577719109616063E-2</v>
       </c>
       <c r="B5">
-        <v>-3.0004274790611074E-2</v>
+        <v>-2.9415606566279687E-2</v>
       </c>
       <c r="C5">
-        <v>-3.3599315108787664E-2</v>
+        <v>-2.9083753075937951E-2</v>
       </c>
       <c r="D5">
-        <v>1.2232693429986119E-2</v>
+        <v>1.0751943843433821E-2</v>
       </c>
       <c r="E5">
-        <v>9.4081615444856492E-3</v>
+        <v>8.1731647436274046E-3</v>
       </c>
       <c r="F5">
-        <v>-1.7009970288996867E-2</v>
+        <v>-1.8149624368698578E-2</v>
       </c>
       <c r="G5">
-        <v>0.25226791886830302</v>
+        <v>0.25326100774593391</v>
       </c>
       <c r="H5">
-        <v>0.21480506670659771</v>
+        <v>0.21609664962421116</v>
       </c>
       <c r="I5">
-        <v>2.228378574619938E-2</v>
+        <v>1.3205369809876742E-2</v>
       </c>
       <c r="J5">
-        <v>4.243026541502104E-3</v>
+        <v>3.1995277493024068E-3</v>
       </c>
       <c r="K5">
-        <v>7.5546162562587504E-3</v>
+        <v>7.0144186961684464E-3</v>
       </c>
       <c r="L5">
-        <v>2.7671362020280532E-2</v>
+        <v>2.4613866244599915E-2</v>
       </c>
       <c r="M5">
-        <v>4.0010258504026286E-2</v>
+        <v>3.9693185151999238E-2</v>
       </c>
       <c r="N5">
-        <v>6.6135340248573149E-2</v>
+        <v>5.7251880306183757E-2</v>
       </c>
       <c r="O5">
-        <v>-6.6090809488537419E-2</v>
+        <v>-5.2233847931332823E-2</v>
       </c>
       <c r="P5">
-        <v>8.1083800785593185E-2</v>
+        <v>8.0402684059249191E-2</v>
       </c>
       <c r="Q5">
-        <v>0.12334297551361237</v>
+        <v>0.12890493260343935</v>
       </c>
       <c r="R5">
-        <v>-5.2108682522972405E-2</v>
+        <v>-5.9105841431693833E-2</v>
       </c>
       <c r="S5">
-        <v>-2.2394469630815594E-2</v>
+        <v>-2.0692627324588934E-2</v>
       </c>
       <c r="T5">
-        <v>-9.0943009778992057E-3</v>
+        <v>-8.4280984086187241E-3</v>
       </c>
       <c r="U5">
-        <v>-2.2288806594013444E-2</v>
+        <v>-1.9410267477854886E-2</v>
       </c>
       <c r="V5">
-        <v>1.5325262985353083E-2</v>
+        <v>1.8427053211597353E-2</v>
       </c>
       <c r="W5">
-        <v>-4.7003999373015359E-2</v>
+        <v>-4.6394903757055586E-2</v>
       </c>
       <c r="X5">
-        <v>4.3055160723195707E-2</v>
+        <v>4.43111950292433E-2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-4.1204259278100341E-2</v>
+        <v>-4.0934533904359464E-2</v>
       </c>
       <c r="B6">
-        <v>-3.0739163675986836E-2</v>
+        <v>-2.9560444916919216E-2</v>
       </c>
       <c r="C6">
-        <v>-3.5280190177400139E-2</v>
+        <v>-3.2428019149198552E-2</v>
       </c>
       <c r="D6">
-        <v>1.2100956253592976E-2</v>
+        <v>1.05584741369467E-2</v>
       </c>
       <c r="E6">
-        <v>1.0170081877792114E-2</v>
+        <v>8.6866513117319893E-3</v>
       </c>
       <c r="F6">
-        <v>-1.2173995039242436E-2</v>
+        <v>-1.2613118748013208E-2</v>
       </c>
       <c r="G6">
-        <v>0.26027094055902111</v>
+        <v>0.2608361096466118</v>
       </c>
       <c r="H6">
-        <v>0.2344158978254719</v>
+        <v>0.23307822241103504</v>
       </c>
       <c r="I6">
-        <v>-1.5672594397271644E-2</v>
+        <v>-2.106336110272795E-2</v>
       </c>
       <c r="J6">
-        <v>-6.5322634968278948E-5</v>
+        <v>-1.3836728450681119E-3</v>
       </c>
       <c r="K6">
-        <v>6.1462707107637904E-3</v>
+        <v>5.226921345065934E-3</v>
       </c>
       <c r="L6">
-        <v>-2.2167178862013692E-3</v>
+        <v>-5.7901708128247362E-3</v>
       </c>
       <c r="M6">
-        <v>3.0147164573797403E-2</v>
+        <v>2.9558396034920848E-2</v>
       </c>
       <c r="N6">
-        <v>2.5792296422561867E-2</v>
+        <v>1.8049736317404436E-2</v>
       </c>
       <c r="O6">
-        <v>-1.6545472514202575E-2</v>
+        <v>-5.9743644858381876E-3</v>
       </c>
       <c r="P6">
-        <v>8.5905542802493073E-2</v>
+        <v>8.5435267851647484E-2</v>
       </c>
       <c r="Q6">
-        <v>0.12674545936980719</v>
+        <v>0.13040081346033464</v>
       </c>
       <c r="R6">
-        <v>-6.4862681078738396E-2</v>
+        <v>-6.819581333026295E-2</v>
       </c>
       <c r="S6">
-        <v>-2.4118421099394771E-2</v>
+        <v>-2.2217280193353409E-2</v>
       </c>
       <c r="T6">
-        <v>-1.0336748016260611E-2</v>
+        <v>-9.508498194562778E-3</v>
       </c>
       <c r="U6">
-        <v>-1.7873094238697873E-2</v>
+        <v>-1.5229480311119502E-2</v>
       </c>
       <c r="V6">
-        <v>4.8620994775949722E-3</v>
+        <v>7.4792740190151525E-3</v>
       </c>
       <c r="W6">
-        <v>-4.7967894984103365E-2</v>
+        <v>-4.6601434494493263E-2</v>
       </c>
       <c r="X6">
-        <v>5.9270449729414088E-2</v>
+        <v>5.8579080863835946E-2</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-3.7146143701430434E-2</v>
+        <v>-3.6864283420853919E-2</v>
       </c>
       <c r="B7">
-        <v>-3.031758286501951E-2</v>
+        <v>-2.8682895596207233E-2</v>
       </c>
       <c r="C7">
-        <v>-3.28670943791598E-2</v>
+        <v>-3.1470122691811618E-2</v>
       </c>
       <c r="D7">
-        <v>1.2078728470348965E-2</v>
+        <v>1.0488905952574026E-2</v>
       </c>
       <c r="E7">
-        <v>1.0583479260329653E-2</v>
+        <v>8.9155722322656495E-3</v>
       </c>
       <c r="F7">
-        <v>-1.0306362518857526E-2</v>
+        <v>-1.0240872628522061E-2</v>
       </c>
       <c r="G7">
-        <v>0.26482674892385166</v>
+        <v>0.2649055619697479</v>
       </c>
       <c r="H7">
-        <v>0.24616072819710055</v>
+        <v>0.24235425396060642</v>
       </c>
       <c r="I7">
-        <v>-3.7587942624160875E-2</v>
+        <v>-3.9393928706028689E-2</v>
       </c>
       <c r="J7">
-        <v>-5.0143318855704333E-3</v>
+        <v>-6.5790432535280437E-3</v>
       </c>
       <c r="K7">
-        <v>3.8049718921377984E-3</v>
+        <v>2.5279883294782716E-3</v>
       </c>
       <c r="L7">
-        <v>-2.3695141539266773E-2</v>
+        <v>-2.7194628508737918E-2</v>
       </c>
       <c r="M7">
-        <v>2.1836961827543799E-2</v>
+        <v>2.113747199305838E-2</v>
       </c>
       <c r="N7">
-        <v>-1.1936423218279479E-3</v>
+        <v>-6.8785951668319063E-3</v>
       </c>
       <c r="O7">
-        <v>1.8248823719330787E-2</v>
+        <v>2.4816795645930891E-2</v>
       </c>
       <c r="P7">
-        <v>8.7127187644251203E-2</v>
+        <v>8.6883504337289044E-2</v>
       </c>
       <c r="Q7">
-        <v>0.12405818149032852</v>
+        <v>0.12580978694421632</v>
       </c>
       <c r="R7">
-        <v>-6.8830787428307838E-2</v>
+        <v>-6.8792892226997096E-2</v>
       </c>
       <c r="S7">
-        <v>-2.4761125928013383E-2</v>
+        <v>-2.2757593283469931E-2</v>
       </c>
       <c r="T7">
-        <v>-1.1288086339933168E-2</v>
+        <v>-1.0327440981191068E-2</v>
       </c>
       <c r="U7">
-        <v>-1.3533562717089831E-2</v>
+        <v>-1.119641855750197E-2</v>
       </c>
       <c r="V7">
-        <v>-7.761866797810768E-4</v>
+        <v>1.3680318245481145E-3</v>
       </c>
       <c r="W7">
-        <v>-4.6555641703919681E-2</v>
+        <v>-4.4568073001033159E-2</v>
       </c>
       <c r="X7">
-        <v>6.3449872599409388E-2</v>
+        <v>6.1123511392384151E-2</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-3.3638490943382671E-2</v>
+        <v>-3.3355640879811077E-2</v>
       </c>
       <c r="B8">
-        <v>-2.9158507043837822E-2</v>
+        <v>-2.722180932203562E-2</v>
       </c>
       <c r="C8">
-        <v>-2.9410972536096258E-2</v>
+        <v>-2.9145788136424794E-2</v>
       </c>
       <c r="D8">
-        <v>1.2060147123997389E-2</v>
+        <v>1.0444202500053103E-2</v>
       </c>
       <c r="E8">
-        <v>1.074605927326755E-2</v>
+        <v>8.9545643806299736E-3</v>
       </c>
       <c r="F8">
-        <v>-9.485565691420339E-3</v>
+        <v>-9.0887389204578322E-3</v>
       </c>
       <c r="G8">
-        <v>0.26705980503174676</v>
+        <v>0.26668127742611059</v>
       </c>
       <c r="H8">
-        <v>0.25211385344402981</v>
+        <v>0.24620211669456263</v>
       </c>
       <c r="I8">
-        <v>-4.9858911897864178E-2</v>
+        <v>-4.8574718737854863E-2</v>
       </c>
       <c r="J8">
-        <v>-1.0205841931759441E-2</v>
+        <v>-1.1967145065240844E-2</v>
       </c>
       <c r="K8">
-        <v>7.7341310777234717E-4</v>
+        <v>-8.0875914244716435E-4</v>
       </c>
       <c r="L8">
-        <v>-3.8889253478920582E-2</v>
+        <v>-4.1933084432714159E-2</v>
       </c>
       <c r="M8">
-        <v>1.5408996335351199E-2</v>
+        <v>1.4701054642792699E-2</v>
       </c>
       <c r="N8">
-        <v>-1.819856848262047E-2</v>
+        <v>-2.1613170583477042E-2</v>
       </c>
       <c r="O8">
-        <v>4.0762666153372207E-2</v>
+        <v>4.335281730359665E-2</v>
       </c>
       <c r="P8">
-        <v>8.5800115523730236E-2</v>
+        <v>8.5784325397553429E-2</v>
       </c>
       <c r="Q8">
-        <v>0.11727454216923183</v>
+        <v>0.11738069237680282</v>
       </c>
       <c r="R8">
-        <v>-6.6610084628218713E-2</v>
+        <v>-6.3816806768661152E-2</v>
       </c>
       <c r="S8">
-        <v>-2.4578170611033512E-2</v>
+        <v>-2.2549473946886722E-2</v>
       </c>
       <c r="T8">
-        <v>-1.1972174972325833E-2</v>
+        <v>-1.0909910377748362E-2</v>
       </c>
       <c r="U8">
-        <v>-9.4331895349343275E-3</v>
+        <v>-7.4420141359727177E-3</v>
       </c>
       <c r="V8">
-        <v>-3.6133207966257963E-3</v>
+        <v>-1.9314361456346013E-3</v>
       </c>
       <c r="W8">
-        <v>-4.355117637431194E-2</v>
+        <v>-4.113216630367704E-2</v>
       </c>
       <c r="X8">
-        <v>6.2486105673507986E-2</v>
+        <v>5.8861758632836138E-2</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3.0512474307170745E-2</v>
+        <v>-3.0257904469864174E-2</v>
       </c>
       <c r="B9">
-        <v>-2.7557744735530187E-2</v>
+        <v>-2.5464996770536853E-2</v>
       </c>
       <c r="C9">
-        <v>-2.5985781615946446E-2</v>
+        <v>-2.6550236694738182E-2</v>
       </c>
       <c r="D9">
-        <v>1.2001727166150555E-2</v>
+        <v>1.0381646930011076E-2</v>
       </c>
       <c r="E9">
-        <v>1.0733133466025002E-2</v>
+        <v>8.8714177155420799E-3</v>
       </c>
       <c r="F9">
-        <v>-8.9958425124940788E-3</v>
+        <v>-8.3967265595285608E-3</v>
       </c>
       <c r="G9">
-        <v>0.26760692929515134</v>
+        <v>0.26683767745062237</v>
       </c>
       <c r="H9">
-        <v>0.25392328186765667</v>
+        <v>0.24634394821780908</v>
       </c>
       <c r="I9">
-        <v>-5.5854816645268257E-2</v>
+        <v>-5.2141239348958451E-2</v>
       </c>
       <c r="J9">
-        <v>-1.5352862851273352E-2</v>
+        <v>-1.7247184922471834E-2</v>
       </c>
       <c r="K9">
-        <v>-2.7157378457920434E-3</v>
+        <v>-4.532592196044659E-3</v>
       </c>
       <c r="L9">
-        <v>-4.9119724730865122E-2</v>
+        <v>-5.1502919564482955E-2</v>
       </c>
       <c r="M9">
-        <v>1.0771749004234055E-2</v>
+        <v>1.009357721443074E-2</v>
       </c>
       <c r="N9">
-        <v>-2.7926915831506305E-2</v>
+        <v>-2.92673626730688E-2</v>
       </c>
       <c r="O9">
-        <v>5.3903182716281028E-2</v>
+        <v>5.2996608374105143E-2</v>
       </c>
       <c r="P9">
-        <v>8.2751368556327032E-2</v>
+        <v>8.2960346770809476E-2</v>
       </c>
       <c r="Q9">
-        <v>0.10798582900525955</v>
+        <v>0.10682223711030277</v>
       </c>
       <c r="R9">
-        <v>-6.0355924019757881E-2</v>
+        <v>-5.5537740160572703E-2</v>
       </c>
       <c r="S9">
-        <v>-2.3780083583886169E-2</v>
+        <v>-2.1785813752995195E-2</v>
       </c>
       <c r="T9">
-        <v>-1.2407408837246781E-2</v>
+        <v>-1.1273273970298741E-2</v>
       </c>
       <c r="U9">
-        <v>-5.6671351247586932E-3</v>
+        <v>-4.0377499789112795E-3</v>
       </c>
       <c r="V9">
-        <v>-4.6966308120093281E-3</v>
+        <v>-3.465918327370413E-3</v>
       </c>
       <c r="W9">
-        <v>-3.957592035816071E-2</v>
+        <v>-3.6924558787944338E-2</v>
       </c>
       <c r="X9">
-        <v>5.9106648609941415E-2</v>
+        <v>5.4558235538402326E-2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2.7672713490056955E-2</v>
+        <v>-2.7478395727312029E-2</v>
       </c>
       <c r="B10">
-        <v>-2.5720664514693459E-2</v>
+        <v>-2.3596526956215606E-2</v>
       </c>
       <c r="C10">
-        <v>-2.2894979544654581E-2</v>
+        <v>-2.4041373389515022E-2</v>
       </c>
       <c r="D10">
-        <v>1.1893458207224761E-2</v>
+        <v>1.0289014196027003E-2</v>
       </c>
       <c r="E10">
-        <v>1.0601499114625268E-2</v>
+        <v>8.7136985145861833E-3</v>
       </c>
       <c r="F10">
-        <v>-8.5920382025271858E-3</v>
+        <v>-7.8808039876627108E-3</v>
       </c>
       <c r="G10">
-        <v>0.26691515945871913</v>
+        <v>0.26583066770101571</v>
       </c>
       <c r="H10">
-        <v>0.25286949432946532</v>
+        <v>0.24405710117374207</v>
       </c>
       <c r="I10">
-        <v>-5.7645340738952444E-2</v>
+        <v>-5.2184865856466291E-2</v>
       </c>
       <c r="J10">
-        <v>-2.0242384158609239E-2</v>
+        <v>-2.2200772176915153E-2</v>
       </c>
       <c r="K10">
-        <v>-6.4510978540395225E-3</v>
+        <v>-8.4241611026785682E-3</v>
       </c>
       <c r="L10">
-        <v>-5.5349874467319649E-2</v>
+        <v>-5.6995997001996465E-2</v>
       </c>
       <c r="M10">
-        <v>7.6740244465614005E-3</v>
+        <v>7.0174712828103645E-3</v>
       </c>
       <c r="N10">
-        <v>-3.249078253687876E-2</v>
+        <v>-3.2147882365790997E-2</v>
       </c>
       <c r="O10">
-        <v>6.0226585660715592E-2</v>
+        <v>5.6522626900491681E-2</v>
       </c>
       <c r="P10">
-        <v>7.8619296599688138E-2</v>
+        <v>7.9048125279751719E-2</v>
       </c>
       <c r="Q10">
-        <v>9.7406672187992482E-2</v>
+        <v>9.5376080418131962E-2</v>
       </c>
       <c r="R10">
-        <v>-5.1741805310987932E-2</v>
+        <v>-4.561948042272751E-2</v>
       </c>
       <c r="S10">
-        <v>-2.2537058784705355E-2</v>
+        <v>-2.0621820165591897E-2</v>
       </c>
       <c r="T10">
-        <v>-1.2611116033996339E-2</v>
+        <v>-1.1432837824695924E-2</v>
       </c>
       <c r="U10">
-        <v>-2.2933622272401921E-3</v>
+        <v>-1.0238371518540377E-3</v>
       </c>
       <c r="V10">
-        <v>-4.6582371822923019E-3</v>
+        <v>-3.8609188631405101E-3</v>
       </c>
       <c r="W10">
-        <v>-3.5101600439227942E-2</v>
+        <v>-3.2399844151466468E-2</v>
       </c>
       <c r="X10">
-        <v>5.4544707826109318E-2</v>
+        <v>4.9436623273230812E-2</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-2.5066348915632197E-2</v>
+        <v>-2.4960046891225315E-2</v>
       </c>
       <c r="B11">
-        <v>-2.3786797316539099E-2</v>
+        <v>-2.1729984172377169E-2</v>
       </c>
       <c r="C11">
-        <v>-2.0171336178162802E-2</v>
+        <v>-2.1705913569601186E-2</v>
       </c>
       <c r="D11">
-        <v>1.1739528273530642E-2</v>
+        <v>1.016726727257802E-2</v>
       </c>
       <c r="E11">
-        <v>1.0393089113261533E-2</v>
+        <v>8.5140295569976019E-3</v>
       </c>
       <c r="F11">
-        <v>-8.2031486293533407E-3</v>
+        <v>-7.4412583357455347E-3</v>
       </c>
       <c r="G11">
-        <v>0.26533521505439861</v>
+        <v>0.26400438631134771</v>
       </c>
       <c r="H11">
-        <v>0.24992681017622409</v>
+        <v>0.24027068280389741</v>
       </c>
       <c r="I11">
-        <v>-5.6631051815070221E-2</v>
+        <v>-5.0049217105463444E-2</v>
       </c>
       <c r="J11">
-        <v>-2.4716856935853571E-2</v>
+        <v>-2.6671872400364591E-2</v>
       </c>
       <c r="K11">
-        <v>-1.0248685265784596E-2</v>
+        <v>-1.2299038370868039E-2</v>
       </c>
       <c r="L11">
-        <v>-5.8357581406607184E-2</v>
+        <v>-5.927651585540146E-2</v>
       </c>
       <c r="M11">
-        <v>5.8170445092833312E-3</v>
+        <v>5.1484935733819015E-3</v>
       </c>
       <c r="N11">
-        <v>-3.3508293413346157E-2</v>
+        <v>-3.1932104100443497E-2</v>
       </c>
       <c r="O11">
-        <v>6.1777380211631608E-2</v>
+        <v>5.6029772000334953E-2</v>
       </c>
       <c r="P11">
-        <v>7.3887330806829965E-2</v>
+        <v>7.4528832615737686E-2</v>
       </c>
       <c r="Q11">
-        <v>8.642500406664122E-2</v>
+        <v>8.3902854258071979E-2</v>
       </c>
       <c r="R11">
-        <v>-4.2008083902788762E-2</v>
+        <v>-3.5223394129364372E-2</v>
       </c>
       <c r="S11">
-        <v>-2.0985521598918533E-2</v>
+        <v>-1.9181459044224181E-2</v>
       </c>
       <c r="T11">
-        <v>-1.2601834561620784E-2</v>
+        <v>-1.1404691131389552E-2</v>
       </c>
       <c r="U11">
-        <v>6.5591847745738452E-4</v>
+        <v>1.5807674749243861E-3</v>
       </c>
       <c r="V11">
-        <v>-3.9211401000107671E-3</v>
+        <v>-3.5307469020415256E-3</v>
       </c>
       <c r="W11">
-        <v>-3.0472010665037796E-2</v>
+        <v>-2.7870917010220951E-2</v>
       </c>
       <c r="X11">
-        <v>4.9445925744121766E-2</v>
+        <v>4.4099687137718273E-2</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-2.2662654461756304E-2</v>
+        <v>-2.2665319653329852E-2</v>
       </c>
       <c r="B12">
-        <v>-2.1848249421244859E-2</v>
+        <v>-1.9931729192683583E-2</v>
       </c>
       <c r="C12">
-        <v>-1.7769465456941913E-2</v>
+        <v>-1.9543728369888248E-2</v>
       </c>
       <c r="D12">
-        <v>1.1548731293270276E-2</v>
+        <v>1.0021875796061992E-2</v>
       </c>
       <c r="E12">
-        <v>1.0138183013540525E-2</v>
+        <v>8.2941840151923626E-3</v>
       </c>
       <c r="F12">
-        <v>-7.817594569054509E-3</v>
+        <v>-7.0463651158411619E-3</v>
       </c>
       <c r="G12">
-        <v>0.26315121574034744</v>
+        <v>0.26162888852527372</v>
       </c>
       <c r="H12">
-        <v>0.24582121285659359</v>
+        <v>0.23564635511138618</v>
       </c>
       <c r="I12">
-        <v>-5.3803108287313051E-2</v>
+        <v>-4.663259864390773E-2</v>
       </c>
       <c r="J12">
-        <v>-2.8663999978922883E-2</v>
+        <v>-3.0554504662837545E-2</v>
       </c>
       <c r="K12">
-        <v>-1.3954477457522207E-2</v>
+        <v>-1.6008041712188968E-2</v>
       </c>
       <c r="L12">
-        <v>-5.8801527365940132E-2</v>
+        <v>-5.9057208308506158E-2</v>
       </c>
       <c r="M12">
-        <v>4.9063615785647219E-3</v>
+        <v>4.1837441313436596E-3</v>
       </c>
       <c r="N12">
-        <v>-3.2196254398996871E-2</v>
+        <v>-2.9818228326334177E-2</v>
       </c>
       <c r="O12">
-        <v>6.0119412785307177E-2</v>
+        <v>5.3037413792433069E-2</v>
       </c>
       <c r="P12">
-        <v>6.8912962506308295E-2</v>
+        <v>6.9756496276223906E-2</v>
       </c>
       <c r="Q12">
-        <v>7.5659708227985956E-2</v>
+        <v>7.2965532618194842E-2</v>
       </c>
       <c r="R12">
-        <v>-3.2036001035112727E-2</v>
+        <v>-2.5119230609660061E-2</v>
       </c>
       <c r="S12">
-        <v>-1.9234245964911079E-2</v>
+        <v>-1.756326608187353E-2</v>
       </c>
       <c r="T12">
-        <v>-1.2400179800839961E-2</v>
+        <v>-1.1206829678031518E-2</v>
       </c>
       <c r="U12">
-        <v>3.1685698973762388E-3</v>
+        <v>3.7735643315887166E-3</v>
       </c>
       <c r="V12">
-        <v>-2.782695579138128E-3</v>
+        <v>-2.7646554650168197E-3</v>
       </c>
       <c r="W12">
-        <v>-2.5926955007255614E-2</v>
+        <v>-2.3541624119157813E-2</v>
       </c>
       <c r="X12">
-        <v>4.4188909111022356E-2</v>
+        <v>3.8868004255383809E-2</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-2.0441992741358828E-2</v>
+        <v>-2.0567225111922265E-2</v>
       </c>
       <c r="B13">
-        <v>-1.9963409039224667E-2</v>
+        <v>-1.8237069596265358E-2</v>
       </c>
       <c r="C13">
-        <v>-1.5633531510557575E-2</v>
+        <v>-1.753516628683888E-2</v>
       </c>
       <c r="D13">
-        <v>1.1330333425903838E-2</v>
+        <v>9.85903896082789E-3</v>
       </c>
       <c r="E13">
-        <v>9.8581146584553192E-3</v>
+        <v>8.0681955999895357E-3</v>
       </c>
       <c r="F13">
-        <v>-7.4408036007039824E-3</v>
+        <v>-6.6874945512317091E-3</v>
       </c>
       <c r="G13">
-        <v>0.26059188298332042</v>
+        <v>0.25891612889416032</v>
       </c>
       <c r="H13">
-        <v>0.24108165342237708</v>
+        <v>0.2306439198374084</v>
       </c>
       <c r="I13">
-        <v>-4.9871860716487859E-2</v>
+        <v>-4.25419173080306E-2</v>
       </c>
       <c r="J13">
-        <v>-3.2009908388202168E-2</v>
+        <v>-3.3783928635302718E-2</v>
       </c>
       <c r="K13">
-        <v>-1.7444570139817372E-2</v>
+        <v>-1.9435543861251351E-2</v>
       </c>
       <c r="L13">
-        <v>-5.7248188755337992E-2</v>
+        <v>-5.6935153403852343E-2</v>
       </c>
       <c r="M13">
-        <v>4.6764212685124207E-3</v>
+        <v>3.8607854988165625E-3</v>
       </c>
       <c r="N13">
-        <v>-2.9451943851252382E-2</v>
+        <v>-2.6645339367103515E-2</v>
       </c>
       <c r="O13">
-        <v>5.6416100963016858E-2</v>
+        <v>4.8613342324971824E-2</v>
       </c>
       <c r="P13">
-        <v>6.3952196993816157E-2</v>
+        <v>6.4982804193525867E-2</v>
       </c>
       <c r="Q13">
-        <v>6.5516784879651402E-2</v>
+        <v>6.2902927665271044E-2</v>
       </c>
       <c r="R13">
-        <v>-2.2422660088810442E-2</v>
+        <v>-1.5783715184017083E-2</v>
       </c>
       <c r="S13">
-        <v>-1.7369496151512509E-2</v>
+        <v>-1.584516948832505E-2</v>
       </c>
       <c r="T13">
-        <v>-1.2028833489565516E-2</v>
+        <v>-1.0859250568695864E-2</v>
       </c>
       <c r="U13">
-        <v>5.2485251582565784E-3</v>
+        <v>5.5651157870256129E-3</v>
       </c>
       <c r="V13">
-        <v>-1.454392315044295E-3</v>
+        <v>-1.7677817398478839E-3</v>
       </c>
       <c r="W13">
-        <v>-2.1624874818314099E-2</v>
+        <v>-1.9534884488610647E-2</v>
       </c>
       <c r="X13">
-        <v>3.9008920987592455E-2</v>
+        <v>3.3915996148092598E-2</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-1.8390232978870991E-2</v>
+        <v>-1.8644719333164809E-2</v>
       </c>
       <c r="B14">
-        <v>-1.8167078022912841E-2</v>
+        <v>-1.6661411233050431E-2</v>
       </c>
       <c r="C14">
-        <v>-1.3717209927859297E-2</v>
+        <v>-1.5662408042627557E-2</v>
       </c>
       <c r="D14">
-        <v>1.1092528280499447E-2</v>
+        <v>9.6842596226530409E-3</v>
       </c>
       <c r="E14">
-        <v>9.5674859211323238E-3</v>
+        <v>7.8446813929346181E-3</v>
       </c>
       <c r="F14">
-        <v>-7.0806001538620267E-3</v>
+        <v>-6.362576928042602E-3</v>
       </c>
       <c r="G14">
-        <v>0.25783718417022428</v>
+        <v>0.25602946386969067</v>
       </c>
       <c r="H14">
-        <v>0.23608375757013456</v>
+        <v>0.22557331493790503</v>
       </c>
       <c r="I14">
-        <v>-4.5344076305667391E-2</v>
+        <v>-3.8183897707191661E-2</v>
       </c>
       <c r="J14">
-        <v>-3.4713387148450403E-2</v>
+        <v>-3.6329463892376013E-2</v>
       </c>
       <c r="K14">
-        <v>-2.0623779924550556E-2</v>
+        <v>-2.2496603709578143E-2</v>
       </c>
       <c r="L14">
-        <v>-5.4184791020954637E-2</v>
+        <v>-5.341156979030711E-2</v>
       </c>
       <c r="M14">
-        <v>4.9011164394754392E-3</v>
+        <v>3.9632875749338048E-3</v>
       </c>
       <c r="N14">
-        <v>-2.5922735528504992E-2</v>
+        <v>-2.2987126083264572E-2</v>
       </c>
       <c r="O14">
-        <v>5.1513859916031524E-2</v>
+        <v>4.3488762778739566E-2</v>
       </c>
       <c r="P14">
-        <v>5.9180217198783192E-2</v>
+        <v>6.0378472542490645E-2</v>
       </c>
       <c r="Q14">
-        <v>5.6239521213278465E-2</v>
+        <v>5.3890807774896021E-2</v>
       </c>
       <c r="R14">
-        <v>-1.3547856740008579E-2</v>
+        <v>-7.4816211408449806E-3</v>
       </c>
       <c r="S14">
-        <v>-1.5459202545554884E-2</v>
+        <v>-1.4088379157245557E-2</v>
       </c>
       <c r="T14">
-        <v>-1.1512036427612005E-2</v>
+        <v>-1.0383488954404791E-2</v>
       </c>
       <c r="U14">
-        <v>6.9123335750792547E-3</v>
+        <v>6.9760691787535351E-3</v>
       </c>
       <c r="V14">
-        <v>-8.4796118356766925E-5</v>
+        <v>-6.8444176250355025E-4</v>
       </c>
       <c r="W14">
-        <v>-1.7662579638873632E-2</v>
+        <v>-1.5915555213017914E-2</v>
       </c>
       <c r="X14">
-        <v>3.4053213235944901E-2</v>
+        <v>2.9334119684251907E-2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-1.6496008647618021E-2</v>
+        <v>-1.6880409649322109E-2</v>
       </c>
       <c r="B15">
-        <v>-1.6477894246510694E-2</v>
+        <v>-1.5207866810490914E-2</v>
       </c>
       <c r="C15">
-        <v>-1.1986750145190128E-2</v>
+        <v>-1.3914009247857295E-2</v>
       </c>
       <c r="D15">
-        <v>1.0842014028673796E-2</v>
+        <v>9.5019459816788922E-3</v>
       </c>
       <c r="E15">
-        <v>9.275932455072855E-3</v>
+        <v>7.6285495700301742E-3</v>
       </c>
       <c r="F15">
-        <v>-6.7428940902941603E-3</v>
+        <v>-6.0705118352444845E-3</v>
       </c>
       <c r="G15">
-        <v>0.25502429277496397</v>
+        <v>0.25309125467303478</v>
       </c>
       <c r="H15">
-        <v>0.23108596134429327</v>
+        <v>0.22063504955324187</v>
       </c>
       <c r="I15">
-        <v>-4.0576063372197324E-2</v>
+        <v>-3.3825225019634246E-2</v>
       </c>
       <c r="J15">
-        <v>-3.6760778166801567E-2</v>
+        <v>-3.8188214675020184E-2</v>
       </c>
       <c r="K15">
-        <v>-2.3423293346439999E-2</v>
+        <v>-2.513348743852455E-2</v>
       </c>
       <c r="L15">
-        <v>-5.0027488101532458E-2</v>
+        <v>-4.8905110762500967E-2</v>
       </c>
       <c r="M15">
-        <v>5.3965684437131678E-3</v>
+        <v>4.3200349314839095E-3</v>
       </c>
       <c r="N15">
-        <v>-2.2063791230776619E-2</v>
+        <v>-1.922388129882981E-2</v>
       </c>
       <c r="O15">
-        <v>4.601510086760241E-2</v>
+        <v>3.815045722327455E-2</v>
       </c>
       <c r="P15">
-        <v>5.4708856580185206E-2</v>
+        <v>5.60513981206925E-2</v>
       </c>
       <c r="Q15">
-        <v>4.795091237580329E-2</v>
+        <v>4.5990650045965885E-2</v>
       </c>
       <c r="R15">
-        <v>-5.6300019586196237E-3</v>
+        <v>-3.294331690454858E-4</v>
       </c>
       <c r="S15">
-        <v>-1.3556319032325126E-2</v>
+        <v>-1.2340497669562644E-2</v>
       </c>
       <c r="T15">
-        <v>-1.0874849663313535E-2</v>
+        <v>-9.8019057467269872E-3</v>
       </c>
       <c r="U15">
-        <v>8.1860263041965142E-3</v>
+        <v>8.0344367787504208E-3</v>
       </c>
       <c r="V15">
-        <v>1.22495780337184E-3</v>
+        <v>3.8640810997665732E-4</v>
       </c>
       <c r="W15">
-        <v>-1.4091585485078273E-2</v>
+        <v>-1.2708275556533526E-2</v>
       </c>
       <c r="X15">
-        <v>2.9410666011922215E-2</v>
+        <v>2.516174461368393E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-1.4749394806020888E-2</v>
+        <v>-1.5259407695809095E-2</v>
       </c>
       <c r="B16">
-        <v>-1.4903708815960259E-2</v>
+        <v>-1.3872373245577756E-2</v>
       </c>
       <c r="C16">
-        <v>-1.041888677213787E-2</v>
+        <v>-1.2284049101802589E-2</v>
       </c>
       <c r="D16">
-        <v>1.0584021454810078E-2</v>
+        <v>9.3154259427986E-3</v>
       </c>
       <c r="E16">
-        <v>8.9895025041561993E-3</v>
+        <v>7.422235451555406E-3</v>
       </c>
       <c r="F16">
-        <v>-6.4309675590021875E-3</v>
+        <v>-5.8096281963558333E-3</v>
       </c>
       <c r="G16">
-        <v>0.25225361903859383</v>
+        <v>0.25018973950261447</v>
       </c>
       <c r="H16">
-        <v>0.22625868660793891</v>
+        <v>0.21595112544996653</v>
       </c>
       <c r="I16">
-        <v>-3.5812784199652059E-2</v>
+        <v>-2.9634513811516366E-2</v>
       </c>
       <c r="J16">
-        <v>-3.8161094074104396E-2</v>
+        <v>-3.9379450982472246E-2</v>
       </c>
       <c r="K16">
-        <v>-2.5797789318226849E-2</v>
+        <v>-2.7311960161759172E-2</v>
       </c>
       <c r="L16">
-        <v>-4.5128012638909643E-2</v>
+        <v>-4.3762319901231521E-2</v>
       </c>
       <c r="M16">
-        <v>6.0195040928756605E-3</v>
+        <v>4.8006877543788065E-3</v>
       </c>
       <c r="N16">
-        <v>-1.8184837079413985E-2</v>
+        <v>-1.5597071840403735E-2</v>
       </c>
       <c r="O16">
-        <v>4.0338024117867022E-2</v>
+        <v>3.2911086730756975E-2</v>
       </c>
       <c r="P16">
-        <v>5.0601306290782189E-2</v>
+        <v>5.2061859009778999E-2</v>
       </c>
       <c r="Q16">
-        <v>4.068813387158432E-2</v>
+        <v>3.918725884840836E-2</v>
       </c>
       <c r="R16">
-        <v>1.228904701353617E-3</v>
+        <v>5.6562727838602661E-3</v>
       </c>
       <c r="S16">
-        <v>-1.1701523603511399E-2</v>
+        <v>-1.0638011652290173E-2</v>
       </c>
       <c r="T16">
-        <v>-1.0142359032528248E-2</v>
+        <v>-9.1369199148908613E-3</v>
       </c>
       <c r="U16">
-        <v>9.1023067706360594E-3</v>
+        <v>8.7731660854075896E-3</v>
       </c>
       <c r="V16">
-        <v>2.4096657095074026E-3</v>
+        <v>1.379875033811695E-3</v>
       </c>
       <c r="W16">
-        <v>-1.0931145148494359E-2</v>
+        <v>-9.9109413788229898E-3</v>
       </c>
       <c r="X16">
-        <v>2.5130250397501608E-2</v>
+        <v>2.1406709124172592E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-1.3141287648540834E-2</v>
+        <v>-1.3768734111469248E-2</v>
       </c>
       <c r="B17">
-        <v>-1.3445428510209467E-2</v>
+        <v>-1.264706716710109E-2</v>
       </c>
       <c r="C17">
-        <v>-8.997797019038245E-3</v>
+        <v>-1.0770089989726664E-2</v>
       </c>
       <c r="D17">
-        <v>1.0322502823947755E-2</v>
+        <v>9.1271050969548989E-3</v>
       </c>
       <c r="E17">
-        <v>8.7117129089755441E-3</v>
+        <v>7.2265815969985211E-3</v>
       </c>
       <c r="F17">
-        <v>-6.1458728929171258E-3</v>
+        <v>-5.577530169831816E-3</v>
       </c>
       <c r="G17">
-        <v>0.24959480750532809</v>
+        <v>0.24738533786210265</v>
       </c>
       <c r="H17">
-        <v>0.22170743408111537</v>
+        <v>0.21158832409392955</v>
       </c>
       <c r="I17">
-        <v>-3.1217355362721633E-2</v>
+        <v>-2.5712269508866601E-2</v>
       </c>
       <c r="J17">
-        <v>-3.8941463475052895E-2</v>
+        <v>-3.9939577163619761E-2</v>
       </c>
       <c r="K17">
-        <v>-2.7722332646564318E-2</v>
+        <v>-2.9017596317649778E-2</v>
       </c>
       <c r="L17">
-        <v>-3.9779839646147175E-2</v>
+        <v>-3.8266626177330593E-2</v>
       </c>
       <c r="M17">
-        <v>6.6632491360414381E-3</v>
+        <v>5.3101391560066904E-3</v>
       </c>
       <c r="N17">
-        <v>-1.4487389418166519E-2</v>
+        <v>-1.2250181150491082E-2</v>
       </c>
       <c r="O17">
-        <v>3.476397388772412E-2</v>
+        <v>2.7961400585433119E-2</v>
       </c>
       <c r="P17">
-        <v>4.688437418721958E-2</v>
+        <v>4.8435041443509276E-2</v>
       </c>
       <c r="Q17">
-        <v>3.4429677037426831E-2</v>
+        <v>3.3416956897880976E-2</v>
       </c>
       <c r="R17">
-        <v>7.0081556175242143E-3</v>
+        <v>1.0523050152602565E-2</v>
       </c>
       <c r="S17">
-        <v>-9.9254029373987418E-3</v>
+        <v>-9.0082987110193212E-3</v>
       </c>
       <c r="T17">
-        <v>-9.3389312842651062E-3</v>
+        <v>-8.4102986856593002E-3</v>
       </c>
       <c r="U17">
-        <v>9.6981052750155783E-3</v>
+        <v>9.228048056652928E-3</v>
       </c>
       <c r="V17">
-        <v>3.4311327407094971E-3</v>
+        <v>2.2564860344663931E-3</v>
       </c>
       <c r="W17">
-        <v>-8.1783333586848972E-3</v>
+        <v>-7.5045895288946519E-3</v>
       </c>
       <c r="X17">
-        <v>2.1233588948444293E-2</v>
+        <v>1.8057781472103056E-2</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-1.1663128811944423E-2</v>
+        <v>-1.2396982528282859E-2</v>
       </c>
       <c r="B18">
-        <v>-1.2099715394421118E-2</v>
+        <v>-1.1522452135760142E-2</v>
       </c>
       <c r="C18">
-        <v>-7.7124344260470767E-3</v>
+        <v>-9.371330146119853E-3</v>
       </c>
       <c r="D18">
-        <v>1.0060360409638758E-2</v>
+        <v>8.93865604874685E-3</v>
       </c>
       <c r="E18">
-        <v>8.4443429716267726E-3</v>
+        <v>7.0414531882395529E-3</v>
       </c>
       <c r="F18">
-        <v>-5.8870594762945316E-3</v>
+        <v>-5.3713345544314289E-3</v>
       </c>
       <c r="G18">
-        <v>0.24709244702703526</v>
+        <v>0.24471631774615721</v>
       </c>
       <c r="H18">
-        <v>0.21749074667658075</v>
+        <v>0.20757548938993037</v>
       </c>
       <c r="I18">
-        <v>-2.6893363782475532E-2</v>
+        <v>-2.2112369509415749E-2</v>
       </c>
       <c r="J18">
-        <v>-3.9142940960387618E-2</v>
+        <v>-3.9917674813733796E-2</v>
       </c>
       <c r="K18">
-        <v>-2.9189241916410369E-2</v>
+        <v>-3.0252264823142645E-2</v>
       </c>
       <c r="L18">
-        <v>-3.422413340067787E-2</v>
+        <v>-3.264638984770462E-2</v>
       </c>
       <c r="M18">
-        <v>7.2526125590290924E-3</v>
+        <v>5.7825178192886942E-3</v>
       </c>
       <c r="N18">
-        <v>-1.1093892379266945E-2</v>
+        <v>-9.2589019443811028E-3</v>
       </c>
       <c r="O18">
-        <v>2.9474146517999178E-2</v>
+        <v>2.3408318908430037E-2</v>
       </c>
       <c r="P18">
-        <v>4.3558563265012396E-2</v>
+        <v>4.5171182512224586E-2</v>
       </c>
       <c r="Q18">
-        <v>2.9116120801069512E-2</v>
+        <v>2.8588123558929861E-2</v>
       </c>
       <c r="R18">
-        <v>1.1741574287164047E-2</v>
+        <v>1.4356785000858154E-2</v>
       </c>
       <c r="S18">
-        <v>-8.25023441022954E-3</v>
+        <v>-7.4712579543170267E-3</v>
       </c>
       <c r="T18">
-        <v>-8.487582189271814E-3</v>
+        <v>-7.6425646388769584E-3</v>
       </c>
       <c r="U18">
-        <v>1.0012519207722281E-2</v>
+        <v>9.4359839278308801E-3</v>
       </c>
       <c r="V18">
-        <v>4.2711403864148512E-3</v>
+        <v>2.995462874265659E-3</v>
       </c>
       <c r="W18">
-        <v>-5.8156529372774823E-3</v>
+        <v>-5.4604497834128806E-3</v>
       </c>
       <c r="X18">
-        <v>1.7723817348631599E-2</v>
+        <v>1.5092810871358152E-2</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-1.0306794832554589E-2</v>
+        <v>-1.1134102113498559E-2</v>
       </c>
       <c r="B19">
-        <v>-1.0860843681032684E-2</v>
+        <v>-1.0488736671192126E-2</v>
       </c>
       <c r="C19">
-        <v>-6.5545350415607828E-3</v>
+        <v>-8.0872827943797194E-3</v>
       </c>
       <c r="D19">
-        <v>9.7996659681514053E-3</v>
+        <v>8.7511952490393861E-3</v>
       </c>
       <c r="E19">
-        <v>8.1880201473190084E-3</v>
+        <v>6.866159347578055E-3</v>
       </c>
       <c r="F19">
-        <v>-5.6529446580431131E-3</v>
+        <v>-5.1879529333986986E-3</v>
       </c>
       <c r="G19">
-        <v>0.24477128696038708</v>
+        <v>0.24220375329208285</v>
       </c>
       <c r="H19">
-        <v>0.21363396184603647</v>
+        <v>0.20391616796087883</v>
       </c>
       <c r="I19">
-        <v>-2.2901648271778541E-2</v>
+        <v>-1.8857387256683258E-2</v>
       </c>
       <c r="J19">
-        <v>-3.8816731729329756E-2</v>
+        <v>-3.9371614480920927E-2</v>
       </c>
       <c r="K19">
-        <v>-3.020506673846457E-2</v>
+        <v>-3.1030881305218791E-2</v>
       </c>
       <c r="L19">
-        <v>-2.8655497063474145E-2</v>
+        <v>-2.7082190460137764E-2</v>
       </c>
       <c r="M19">
-        <v>7.7384683477497163E-3</v>
+        <v>6.1754302001498724E-3</v>
       </c>
       <c r="N19">
-        <v>-8.070176146757202E-3</v>
+        <v>-6.653175186332282E-3</v>
       </c>
       <c r="O19">
-        <v>2.4577585842223915E-2</v>
+        <v>1.9302309613345996E-2</v>
       </c>
       <c r="P19">
-        <v>4.0606218348653078E-2</v>
+        <v>4.2253625244820819E-2</v>
       </c>
       <c r="Q19">
-        <v>2.4665613566853706E-2</v>
+        <v>2.459571806463574E-2</v>
       </c>
       <c r="R19">
-        <v>1.5497575651204909E-2</v>
+        <v>1.7263578630486713E-2</v>
       </c>
       <c r="S19">
-        <v>-6.6914539080817903E-3</v>
+        <v>-6.0406477755749486E-3</v>
       </c>
       <c r="T19">
-        <v>-7.6094838983633561E-3</v>
+        <v>-6.8525431771969585E-3</v>
       </c>
       <c r="U19">
-        <v>1.0085135502079678E-2</v>
+        <v>9.4336034680102751E-3</v>
       </c>
       <c r="V19">
-        <v>4.9258970143029046E-3</v>
+        <v>3.5894813857078539E-3</v>
       </c>
       <c r="W19">
-        <v>-3.8166349640369468E-3</v>
+        <v>-3.7448317574389012E-3</v>
       </c>
       <c r="X19">
-        <v>1.4591880462551443E-2</v>
+        <v>1.248404486927162E-2</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-9.0645606051484862E-3</v>
+        <v>-9.9712324628382192E-3</v>
       </c>
       <c r="B20">
-        <v>-9.7219424333618853E-3</v>
+        <v>-9.5366114113518922E-3</v>
       </c>
       <c r="C20">
-        <v>-5.5172521861811541E-3</v>
+        <v>-6.9169606691584775E-3</v>
       </c>
       <c r="D20">
-        <v>9.5418532131117395E-3</v>
+        <v>8.5654326862401563E-3</v>
       </c>
       <c r="E20">
-        <v>7.9426436334522066E-3</v>
+        <v>6.6997342447627341E-3</v>
       </c>
       <c r="F20">
-        <v>-5.4413584279393579E-3</v>
+        <v>-5.0243156425371829E-3</v>
       </c>
       <c r="G20">
-        <v>0.24264083833907041</v>
+        <v>0.23985574891622727</v>
       </c>
       <c r="H20">
-        <v>0.21013958148859624</v>
+        <v>0.20059771396582354</v>
       </c>
       <c r="I20">
-        <v>-1.9272802380413623E-2</v>
+        <v>-1.5949417580124838E-2</v>
       </c>
       <c r="J20">
-        <v>-3.8020861738476075E-2</v>
+        <v>-3.8364722612961991E-2</v>
       </c>
       <c r="K20">
-        <v>-3.0787760227305672E-2</v>
+        <v>-3.1378476253682112E-2</v>
       </c>
       <c r="L20">
-        <v>-2.3227478365323129E-2</v>
+        <v>-2.1713436302506908E-2</v>
       </c>
       <c r="M20">
-        <v>8.0925288432673881E-3</v>
+        <v>6.4647580495975441E-3</v>
       </c>
       <c r="N20">
-        <v>-5.4425126285959635E-3</v>
+        <v>-4.4330624202601173E-3</v>
       </c>
       <c r="O20">
-        <v>2.0132237530730235E-2</v>
+        <v>1.5656803007680478E-2</v>
       </c>
       <c r="P20">
-        <v>3.7997982686599707E-2</v>
+        <v>3.9655080709828844E-2</v>
       </c>
       <c r="Q20">
-        <v>2.098509709007601E-2</v>
+        <v>2.1331200425050888E-2</v>
       </c>
       <c r="R20">
-        <v>1.8364635107221194E-2</v>
+        <v>1.9357395765270072E-2</v>
       </c>
       <c r="S20">
-        <v>-5.2588770076738012E-3</v>
+        <v>-4.7251945946036539E-3</v>
       </c>
       <c r="T20">
-        <v>-6.7236168655540052E-3</v>
+        <v>-6.0570516907466794E-3</v>
       </c>
       <c r="U20">
-        <v>9.95471253700142E-3</v>
+        <v>9.2562081477919004E-3</v>
       </c>
       <c r="V20">
-        <v>5.401685548977353E-3</v>
+        <v>4.0406119897392033E-3</v>
       </c>
       <c r="W20">
-        <v>-2.1498642828943204E-3</v>
+        <v>-2.3224011066298234E-3</v>
       </c>
       <c r="X20">
-        <v>1.1820974657393957E-2</v>
+        <v>1.0201523772055346E-2</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-7.9290908862725828E-3</v>
+        <v>-8.9005611470121364E-3</v>
       </c>
       <c r="B21">
-        <v>-8.6757970675299667E-3</v>
+        <v>-8.6576542648046061E-3</v>
       </c>
       <c r="C21">
-        <v>-4.5942882604107504E-3</v>
+        <v>-5.858450594660428E-3</v>
       </c>
       <c r="D21">
-        <v>9.2878784779397705E-3</v>
+        <v>8.3817919536823653E-3</v>
       </c>
       <c r="E21">
-        <v>7.7076839963350352E-3</v>
+        <v>6.5411184699812617E-3</v>
       </c>
       <c r="F21">
-        <v>-5.2498636962686751E-3</v>
+        <v>-4.8775215132727872E-3</v>
       </c>
       <c r="G21">
-        <v>0.24069931345696777</v>
+        <v>0.23767095250508499</v>
       </c>
       <c r="H21">
-        <v>0.2069949744251729</v>
+        <v>0.19759773907928782</v>
       </c>
       <c r="I21">
-        <v>-1.6016393260130268E-2</v>
+        <v>-1.3377627916020722E-2</v>
       </c>
       <c r="J21">
-        <v>-3.6817303741109253E-2</v>
+        <v>-3.6962979040420008E-2</v>
       </c>
       <c r="K21">
-        <v>-3.0964097526790635E-2</v>
+        <v>-3.1327598714148502E-2</v>
       </c>
       <c r="L21">
-        <v>-1.8057779202660273E-2</v>
+        <v>-1.6644339166980476E-2</v>
       </c>
       <c r="M21">
-        <v>8.3025908928784364E-3</v>
+        <v>6.6401525566899561E-3</v>
       </c>
       <c r="N21">
-        <v>-3.2103782007384396E-3</v>
+        <v>-2.5800086176193528E-3</v>
       </c>
       <c r="O21">
-        <v>1.6160579930799113E-2</v>
+        <v>1.2461768264661475E-2</v>
       </c>
       <c r="P21">
-        <v>3.5697799596567936E-2</v>
+        <v>3.734238008928608E-2</v>
       </c>
       <c r="Q21">
-        <v>1.7978192351481681E-2</v>
+        <v>1.8689015615055732E-2</v>
       </c>
       <c r="R21">
-        <v>2.0440947323372871E-2</v>
+        <v>2.0751947259372849E-2</v>
       </c>
       <c r="S21">
-        <v>-3.9577246159165913E-3</v>
+        <v>-3.5295205627717723E-3</v>
       </c>
       <c r="T21">
-        <v>-5.8465579605819773E-3</v>
+        <v>-5.2707188521877455E-3</v>
       </c>
       <c r="U21">
-        <v>9.6581864569822429E-3</v>
+        <v>8.9370018157619406E-3</v>
       </c>
       <c r="V21">
-        <v>5.7114855200435244E-3</v>
+        <v>4.3572071504767874E-3</v>
       </c>
       <c r="W21">
-        <v>-7.8179964282387715E-4</v>
+        <v>-1.1582869124379279E-3</v>
       </c>
       <c r="X21">
-        <v>9.3896413548745228E-3</v>
+        <v>8.2151666571024882E-3</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-6.8934376444622636E-3</v>
+        <v>-7.9151919823210737E-3</v>
       </c>
       <c r="B22">
-        <v>-7.7153393994418007E-3</v>
+        <v>-7.844495450161082E-3</v>
       </c>
       <c r="C22">
-        <v>-3.7793899438591794E-3</v>
+        <v>-4.9087588969287813E-3</v>
       </c>
       <c r="D22">
-        <v>9.0383503801645393E-3</v>
+        <v>8.2005030307705576E-3</v>
       </c>
       <c r="E22">
-        <v>7.4823896463822592E-3</v>
+        <v>6.3892706878563429E-3</v>
       </c>
       <c r="F22">
-        <v>-5.0759743329353846E-3</v>
+        <v>-4.7449245561341407E-3</v>
       </c>
       <c r="G22">
-        <v>0.23893691140706608</v>
+        <v>0.23564141239681061</v>
       </c>
       <c r="H22">
-        <v>0.20417800901134622</v>
+        <v>0.19488859571727993</v>
       </c>
       <c r="I22">
-        <v>-1.3127687642409125E-2</v>
+        <v>-1.1123447685068446E-2</v>
       </c>
       <c r="J22">
-        <v>-3.5269552072109578E-2</v>
+        <v>-3.5232710655990131E-2</v>
       </c>
       <c r="K22">
-        <v>-3.076736642199096E-2</v>
+        <v>-3.0916055885595161E-2</v>
       </c>
       <c r="L22">
-        <v>-1.3233128589007381E-2</v>
+        <v>-1.1949289373762093E-2</v>
       </c>
       <c r="M22">
-        <v>8.3683921760475677E-3</v>
+        <v>6.7012584024229533E-3</v>
       </c>
       <c r="N22">
-        <v>-1.3558588215289991E-3</v>
+        <v>-1.0646993051700144E-3</v>
       </c>
       <c r="O22">
-        <v>1.2661083659972983E-2</v>
+        <v>9.6930627487202738E-3</v>
       </c>
       <c r="P22">
-        <v>3.3666683903146977E-2</v>
+        <v>3.5279979661284863E-2</v>
       </c>
       <c r="Q22">
-        <v>1.555052907558041E-2</v>
+        <v>1.6570571572107784E-2</v>
       </c>
       <c r="R22">
-        <v>2.1827265458996381E-2</v>
+        <v>2.1555616811180681E-2</v>
       </c>
       <c r="S22">
-        <v>-2.7894914423027828E-3</v>
+        <v>-2.4549261980236423E-3</v>
       </c>
       <c r="T22">
-        <v>-4.992388636892553E-3</v>
+        <v>-4.5059158623011993E-3</v>
       </c>
       <c r="U22">
-        <v>9.2299607053660804E-3</v>
+        <v>8.5065670524692803E-3</v>
       </c>
       <c r="V22">
-        <v>5.8723871073864675E-3</v>
+        <v>4.5515463804731695E-3</v>
       </c>
       <c r="W22">
-        <v>3.2130862936141646E-4</v>
+        <v>-2.1936156712538236E-4</v>
       </c>
       <c r="X22">
-        <v>7.273887502328602E-3</v>
+        <v>6.4959797835399766E-3</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-5.9510337322594697E-3</v>
+        <v>-7.0090205131191829E-3</v>
       </c>
       <c r="B23">
-        <v>-6.8339225758031752E-3</v>
+        <v>-7.0908335704171627E-3</v>
       </c>
       <c r="C23">
-        <v>-3.0660956021919539E-3</v>
+        <v>-4.0638306412729792E-3</v>
       </c>
       <c r="D23">
-        <v>8.7936316368177891E-3</v>
+        <v>8.0216717635584484E-3</v>
       </c>
       <c r="E23">
-        <v>7.2659245414525842E-3</v>
+        <v>6.2432315323853209E-3</v>
       </c>
       <c r="F23">
-        <v>-4.9172954527660906E-3</v>
+        <v>-4.6241742708970973E-3</v>
       </c>
       <c r="G23">
-        <v>0.23733849195619072</v>
+        <v>0.23375485079184968</v>
       </c>
       <c r="H23">
-        <v>0.20166110302043197</v>
+        <v>0.19244042280444884</v>
       </c>
       <c r="I23">
-        <v>-1.0592508079516283E-2</v>
+        <v>-9.1640732332212739E-3</v>
       </c>
       <c r="J23">
-        <v>-3.3440625681366853E-2</v>
+        <v>-3.3238740084151834E-2</v>
       </c>
       <c r="K23">
-        <v>-3.0235338764719399E-2</v>
+        <v>-3.0184976658064584E-2</v>
       </c>
       <c r="L23">
-        <v>-8.8137926101694575E-3</v>
+        <v>-7.6776652145534611E-3</v>
       </c>
       <c r="M23">
-        <v>8.2981205677339354E-3</v>
+        <v>6.6546369563733497E-3</v>
       </c>
       <c r="N23">
-        <v>1.4953299643072349E-4</v>
+        <v>1.475689256249822E-4</v>
       </c>
       <c r="O23">
-        <v>9.6165076162711971E-3</v>
+        <v>7.318757792167876E-3</v>
       </c>
       <c r="P23">
-        <v>3.1865472692194974E-2</v>
+        <v>3.3432455836611141E-2</v>
       </c>
       <c r="Q23">
-        <v>1.3613160280818493E-2</v>
+        <v>1.4886434503681168E-2</v>
       </c>
       <c r="R23">
-        <v>2.2622109867416751E-2</v>
+        <v>2.1868527368997269E-2</v>
       </c>
       <c r="S23">
-        <v>-1.752686053343E-3</v>
+        <v>-1.500054857291768E-3</v>
       </c>
       <c r="T23">
-        <v>-4.1727033861835849E-3</v>
+        <v>-3.7727789528839584E-3</v>
       </c>
       <c r="U23">
-        <v>8.7014358266220837E-3</v>
+        <v>7.992545261427085E-3</v>
       </c>
       <c r="V23">
-        <v>5.9036451247647115E-3</v>
+        <v>4.6380833447066307E-3</v>
       </c>
       <c r="W23">
-        <v>1.192162880333747E-3</v>
+        <v>5.2505009311166085E-4</v>
       </c>
       <c r="X23">
-        <v>5.4486144120604596E-3</v>
+        <v>5.0166912317349552E-3</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-5.0956800229031707E-3</v>
+        <v>-6.1766168795952831E-3</v>
       </c>
       <c r="B24">
-        <v>-6.0254515579882817E-3</v>
+        <v>-6.3913648362447211E-3</v>
       </c>
       <c r="C24">
-        <v>-2.4476495822930433E-3</v>
+        <v>-3.318671194062056E-3</v>
       </c>
       <c r="D24">
-        <v>8.5539170034356626E-3</v>
+        <v>7.845330309342681E-3</v>
       </c>
       <c r="E24">
-        <v>7.0574560573770651E-3</v>
+        <v>6.10215558678915E-3</v>
       </c>
       <c r="F24">
-        <v>-4.7716071845599339E-3</v>
+        <v>-4.5132246426693333E-3</v>
       </c>
       <c r="G24">
-        <v>0.23588569982036273</v>
+        <v>0.2319964331963271</v>
       </c>
       <c r="H24">
-        <v>0.19941407985232842</v>
+        <v>0.1902231554738501</v>
       </c>
       <c r="I24">
-        <v>-8.3907035368571137E-3</v>
+        <v>-7.4747870130995051E-3</v>
       </c>
       <c r="J24">
-        <v>-3.1391469543601502E-2</v>
+        <v>-3.1042944054165598E-2</v>
       </c>
       <c r="K24">
-        <v>-2.940851953115442E-2</v>
+        <v>-2.9177179569182463E-2</v>
       </c>
       <c r="L24">
-        <v>-4.8377075832154448E-3</v>
+        <v>-3.8581119478779042E-3</v>
       </c>
       <c r="M24">
-        <v>8.1055600796320348E-3</v>
+        <v>6.5113229735116428E-3</v>
       </c>
       <c r="N24">
-        <v>1.340008848372598E-3</v>
+        <v>1.0933109148790533E-3</v>
       </c>
       <c r="O24">
-        <v>6.9998265249312519E-3</v>
+        <v>5.303328916929871E-3</v>
       </c>
       <c r="P24">
-        <v>3.0256745734424717E-2</v>
+        <v>3.1766198518896546E-2</v>
       </c>
       <c r="Q24">
-        <v>1.2084574028506712E-2</v>
+        <v>1.3557291342853252E-2</v>
       </c>
       <c r="R24">
-        <v>2.2918710364184802E-2</v>
+        <v>2.1781074419872332E-2</v>
       </c>
       <c r="S24">
-        <v>-8.4346409367386244E-4</v>
+        <v>-6.6145924453316117E-4</v>
       </c>
       <c r="T24">
-        <v>-3.3966978307349294E-3</v>
+        <v>-3.079302506032919E-3</v>
       </c>
       <c r="U24">
-        <v>8.1007378151102261E-3</v>
+        <v>7.419481079463424E-3</v>
       </c>
       <c r="V24">
-        <v>5.8252457547354197E-3</v>
+        <v>4.6321673638662821E-3</v>
       </c>
       <c r="W24">
-        <v>1.8616382126257491E-3</v>
+        <v>1.1028438254427769E-3</v>
       </c>
       <c r="X24">
-        <v>3.8885635414368513E-3</v>
+        <v>3.7520237252897238E-3</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-4.3215264619800298E-3</v>
+        <v>-5.4131175365080102E-3</v>
       </c>
       <c r="B25">
-        <v>-5.2844202544652941E-3</v>
+        <v>-5.7416669792618056E-3</v>
       </c>
       <c r="C25">
-        <v>-1.9170207648945281E-3</v>
+        <v>-2.6675203626077299E-3</v>
       </c>
       <c r="D25">
-        <v>8.3192914058283218E-3</v>
+        <v>7.6714725127856633E-3</v>
       </c>
       <c r="E25">
-        <v>6.8562074888129931E-3</v>
+        <v>5.9653227089203247E-3</v>
       </c>
       <c r="F25">
-        <v>-4.6369087517821317E-3</v>
+        <v>-4.4103234987075222E-3</v>
       </c>
       <c r="G25">
-        <v>0.23455861016144697</v>
+        <v>0.23035011303643813</v>
       </c>
       <c r="H25">
-        <v>0.19740613639123783</v>
+        <v>0.18820779903245</v>
       </c>
       <c r="I25">
-        <v>-6.4986048616234582E-3</v>
+        <v>-6.0304540146448888E-3</v>
       </c>
       <c r="J25">
-        <v>-2.9179718587063252E-2</v>
+        <v>-2.870317448254792E-2</v>
       </c>
       <c r="K25">
-        <v>-2.8328662321607911E-2</v>
+        <v>-2.7935821359626745E-2</v>
       </c>
       <c r="L25">
-        <v>-1.3242327034934664E-3</v>
+        <v>-5.0232625142585213E-4</v>
       </c>
       <c r="M25">
-        <v>7.8078223529218782E-3</v>
+        <v>6.2849333352008215E-3</v>
       </c>
       <c r="N25">
-        <v>2.2521309394738509E-3</v>
+        <v>1.8085508903709923E-3</v>
       </c>
       <c r="O25">
-        <v>4.7784070624032893E-3</v>
+        <v>3.6103579904837929E-3</v>
       </c>
       <c r="P25">
-        <v>2.8806084300669221E-2</v>
+        <v>3.0250481402492022E-2</v>
       </c>
       <c r="Q25">
-        <v>1.0891702136501369E-2</v>
+        <v>1.2514088509780488E-2</v>
       </c>
       <c r="R25">
-        <v>2.2803193479413397E-2</v>
+        <v>2.1373435297225712E-2</v>
       </c>
       <c r="S25">
-        <v>-5.6171008923744381E-5</v>
+        <v>6.5914744761359496E-5</v>
       </c>
       <c r="T25">
-        <v>-2.6713166697915902E-3</v>
+        <v>-2.4314837005829778E-3</v>
       </c>
       <c r="U25">
-        <v>7.4526063264395148E-3</v>
+        <v>6.8087956370060532E-3</v>
       </c>
       <c r="V25">
-        <v>5.6568800593175261E-3</v>
+        <v>4.5491349810326655E-3</v>
       </c>
       <c r="W25">
-        <v>2.3583376354709973E-3</v>
+        <v>1.5390558192360983E-3</v>
       </c>
       <c r="X25">
-        <v>2.5689310288526945E-3</v>
+        <v>2.6787505014972098E-3</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-3.6230488922750492E-3</v>
+        <v>-4.714127406289903E-3</v>
       </c>
       <c r="B26">
-        <v>-4.6058916086646473E-3</v>
+        <v>-5.1380649283422845E-3</v>
       </c>
       <c r="C26">
-        <v>-1.4669808513404492E-3</v>
+        <v>-2.1040460279914074E-3</v>
       </c>
       <c r="D26">
-        <v>8.0897720751642588E-3</v>
+        <v>7.5000776659903245E-3</v>
       </c>
       <c r="E26">
-        <v>6.6614860440796786E-3</v>
+        <v>5.8321365716927937E-3</v>
       </c>
       <c r="F26">
-        <v>-4.5114355942259543E-3</v>
+        <v>-4.3139906142276264E-3</v>
       </c>
       <c r="G26">
-        <v>0.23333696748544108</v>
+        <v>0.22879962554456151</v>
       </c>
       <c r="H26">
-        <v>0.19560715842506834</v>
+        <v>0.18636718898663235</v>
       </c>
       <c r="I26">
-        <v>-4.8907446006364319E-3</v>
+        <v>-4.8064563542355469E-3</v>
       </c>
       <c r="J26">
-        <v>-2.685878502712602E-2</v>
+        <v>-2.6272495431776878E-2</v>
       </c>
       <c r="K26">
-        <v>-2.7037534913014083E-2</v>
+        <v>-2.6503300211904571E-2</v>
       </c>
       <c r="L26">
-        <v>1.7224737150292047E-3</v>
+        <v>2.3916178049316382E-3</v>
       </c>
       <c r="M26">
-        <v>7.4235951071193185E-3</v>
+        <v>5.9902426107534025E-3</v>
       </c>
       <c r="N26">
-        <v>2.9225306197255829E-3</v>
+        <v>2.3274140549282155E-3</v>
       </c>
       <c r="O26">
-        <v>2.916904274588128E-3</v>
+        <v>2.2042139210121368E-3</v>
       </c>
       <c r="P26">
-        <v>2.7482814528523303E-2</v>
+        <v>2.8858059125022838E-2</v>
       </c>
       <c r="Q26">
-        <v>9.9702316399201685E-3</v>
+        <v>1.1697645225120483E-2</v>
       </c>
       <c r="R26">
-        <v>2.2353646068308586E-2</v>
+        <v>2.0715703313711333E-2</v>
       </c>
       <c r="S26">
-        <v>6.1619318213423924E-4</v>
+        <v>6.8831506883112168E-4</v>
       </c>
       <c r="T26">
-        <v>-2.0014435795951968E-3</v>
+        <v>-1.8335019255867196E-3</v>
       </c>
       <c r="U26">
-        <v>6.7784080896943211E-3</v>
+        <v>6.1788577597150732E-3</v>
       </c>
       <c r="V26">
-        <v>5.4172365817670709E-3</v>
+        <v>4.4036870182208847E-3</v>
       </c>
       <c r="W26">
-        <v>2.7083779568319866E-3</v>
+        <v>1.8559344216256767E-3</v>
       </c>
       <c r="X26">
-        <v>1.4657591916372725E-3</v>
+        <v>1.7756305372166889E-3</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-2.9950238660803041E-3</v>
+        <v>-4.0756336427326392E-3</v>
       </c>
       <c r="B27">
-        <v>-3.9854458921906311E-3</v>
+        <v>-4.5774952484384833E-3</v>
       </c>
       <c r="C27">
-        <v>-1.0902116729263334E-3</v>
+        <v>-1.6215362717592902E-3</v>
       </c>
       <c r="D27">
-        <v>7.8653380736368739E-3</v>
+        <v>7.3311255372161266E-3</v>
       </c>
       <c r="E27">
-        <v>6.4726943588639951E-3</v>
+        <v>5.7021158110981901E-3</v>
       </c>
       <c r="F27">
-        <v>-4.3936588727117032E-3</v>
+        <v>-4.2229902908137414E-3</v>
       </c>
       <c r="G27">
-        <v>0.23220108680246199</v>
+        <v>0.2273291975055747</v>
       </c>
       <c r="H27">
-        <v>0.19398856333844186</v>
+        <v>0.18467639878246148</v>
       </c>
       <c r="I27">
-        <v>-3.5410489803637812E-3</v>
+        <v>-3.7792509522332515E-3</v>
       </c>
       <c r="J27">
-        <v>-2.447722885054171E-2</v>
+        <v>-2.3798690661777172E-2</v>
       </c>
       <c r="K27">
-        <v>-2.5575915295824814E-2</v>
+        <v>-2.4920387132766519E-2</v>
       </c>
       <c r="L27">
-        <v>4.310444325899776E-3</v>
+        <v>4.836365603270114E-3</v>
       </c>
       <c r="M27">
-        <v>6.9718326718575252E-3</v>
+        <v>5.6421436663262915E-3</v>
       </c>
       <c r="N27">
-        <v>3.3864236407417092E-3</v>
+        <v>2.681333348280818E-3</v>
       </c>
       <c r="O27">
-        <v>1.3792338923666048E-3</v>
+        <v>1.051044045047488E-3</v>
       </c>
       <c r="P27">
-        <v>2.6260359279176138E-2</v>
+        <v>2.7565414615693458E-2</v>
       </c>
       <c r="Q27">
-        <v>9.2644484955064499E-3</v>
+        <v>1.1057954140615991E-2</v>
       </c>
       <c r="R27">
-        <v>2.1639781790078749E-2</v>
+        <v>1.9868400563976322E-2</v>
       </c>
       <c r="S27">
-        <v>1.1815772112901968E-3</v>
+        <v>1.2128322110277637E-3</v>
       </c>
       <c r="T27">
-        <v>-1.3901175605326443E-3</v>
+        <v>-1.2879188333499002E-3</v>
       </c>
       <c r="U27">
-        <v>6.0962452865099825E-3</v>
+        <v>5.5451268564163944E-3</v>
       </c>
       <c r="V27">
-        <v>5.1235410974357354E-3</v>
+        <v>4.2094831738868788E-3</v>
       </c>
       <c r="W27">
-        <v>2.935330566207428E-3</v>
+        <v>2.0730988756124447E-3</v>
       </c>
       <c r="X27">
-        <v>5.5618036964921735E-4</v>
+        <v>1.0232848961071296E-3</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-2.4325034681988988E-3</v>
+        <v>-3.4939315959213436E-3</v>
       </c>
       <c r="B28">
-        <v>-3.4191142860002799E-3</v>
+        <v>-4.0573794184127279E-3</v>
       </c>
       <c r="C28">
-        <v>-7.7942106162531832E-4</v>
+        <v>-1.2130774681300093E-3</v>
       </c>
       <c r="D28">
-        <v>7.6459501145964559E-3</v>
+        <v>7.1646050091366299E-3</v>
       </c>
       <c r="E28">
-        <v>6.2893313537091267E-3</v>
+        <v>5.5748813896579008E-3</v>
       </c>
       <c r="F28">
-        <v>-4.2822740475112475E-3</v>
+        <v>-4.1363021367736936E-3</v>
       </c>
       <c r="G28">
-        <v>0.23113247989171493</v>
+        <v>0.22592403090663643</v>
       </c>
       <c r="H28">
-        <v>0.19252380517406106</v>
+        <v>0.18311291149636041</v>
       </c>
       <c r="I28">
-        <v>-2.4236544558295936E-3</v>
+        <v>-2.9266793911403091E-3</v>
       </c>
       <c r="J28">
-        <v>-2.2078371644202122E-2</v>
+        <v>-2.1323999019914962E-2</v>
       </c>
       <c r="K28">
-        <v>-2.3982796900295256E-2</v>
+        <v>-2.3225559284814946E-2</v>
       </c>
       <c r="L28">
-        <v>6.4572445677331114E-3</v>
+        <v>6.8527667868322787E-3</v>
       </c>
       <c r="M28">
-        <v>6.4708146147416379E-3</v>
+        <v>5.2549189533906962E-3</v>
       </c>
       <c r="N28">
-        <v>3.676697936670914E-3</v>
+        <v>2.8986707656536693E-3</v>
       </c>
       <c r="O28">
-        <v>1.2988504309296989E-4</v>
+        <v>1.193095533666666E-4</v>
       </c>
       <c r="P28">
-        <v>2.5116301478658398E-2</v>
+        <v>2.6352756197390938E-2</v>
       </c>
       <c r="Q28">
-        <v>8.7267825684425038E-3</v>
+        <v>1.0553317485541428E-2</v>
       </c>
       <c r="R28">
-        <v>2.0723010787891738E-2</v>
+        <v>1.8883200746075336E-2</v>
       </c>
       <c r="S28">
-        <v>1.6485420148222296E-3</v>
+        <v>1.6471019834513431E-3</v>
       </c>
       <c r="T28">
-        <v>-8.3876278667482929E-4</v>
+        <v>-7.9588754235491294E-4</v>
       </c>
       <c r="U28">
-        <v>5.4211331134195184E-3</v>
+        <v>4.9203456718705492E-3</v>
       </c>
       <c r="V28">
-        <v>4.791285019319913E-3</v>
+        <v>3.9789000676454106E-3</v>
       </c>
       <c r="W28">
-        <v>3.0602629904610268E-3</v>
+        <v>2.2077420132581064E-3</v>
       </c>
       <c r="X28">
-        <v>-1.8143564130035372E-4</v>
+        <v>4.0405194342334406E-4</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-1.9307917363575733E-3</v>
+        <v>-2.9655629848614E-3</v>
       </c>
       <c r="B29">
-        <v>-2.9033088835181964E-3</v>
+        <v>-3.5755113478604227E-3</v>
       </c>
       <c r="C29">
-        <v>-5.2745426997180545E-4</v>
+        <v>-8.7171158968818538E-4</v>
       </c>
       <c r="D29">
-        <v>7.4315630967660695E-3</v>
+        <v>7.0005181812858187E-3</v>
       </c>
       <c r="E29">
-        <v>6.1109865828741228E-3</v>
+        <v>5.4501425160111954E-3</v>
       </c>
       <c r="F29">
-        <v>-4.1761832111256725E-3</v>
+        <v>-4.0530923550355898E-3</v>
       </c>
       <c r="G29">
-        <v>0.23011426219006426</v>
+        <v>0.22457060989026509</v>
       </c>
       <c r="H29">
-        <v>0.19118864234004182</v>
+        <v>0.18165663786311656</v>
       </c>
       <c r="I29">
-        <v>-1.5134591132993647E-3</v>
+        <v>-2.2281185604589148E-3</v>
       </c>
       <c r="J29">
-        <v>-1.9700115560617126E-2</v>
+        <v>-1.8885038089579993E-2</v>
       </c>
       <c r="K29">
-        <v>-2.2294781032976108E-2</v>
+        <v>-2.1454510044087993E-2</v>
       </c>
       <c r="L29">
-        <v>8.1876482607086132E-3</v>
+        <v>8.4677142674622324E-3</v>
       </c>
       <c r="M29">
-        <v>5.9375036081277255E-3</v>
+        <v>4.8417573226410392E-3</v>
       </c>
       <c r="N29">
-        <v>3.8234059060375802E-3</v>
+        <v>3.0046105719584906E-3</v>
       </c>
       <c r="O29">
-        <v>-8.6523246120495667E-4</v>
+        <v>-6.1997347712124985E-4</v>
       </c>
       <c r="P29">
-        <v>2.4032242870909881E-2</v>
+        <v>2.5203843300657423E-2</v>
       </c>
       <c r="Q29">
-        <v>8.3171759922848754E-3</v>
+        <v>1.0149419073058084E-2</v>
       </c>
       <c r="R29">
-        <v>1.9656769103313487E-2</v>
+        <v>1.7803749487202675E-2</v>
       </c>
       <c r="S29">
-        <v>2.0259776647342242E-3</v>
+        <v>1.9990562110254804E-3</v>
       </c>
       <c r="T29">
-        <v>-3.4742152192324127E-4</v>
+        <v>-3.573619670678184E-4</v>
       </c>
       <c r="U29">
-        <v>4.7652249777011546E-3</v>
+        <v>4.3147651252493707E-3</v>
       </c>
       <c r="V29">
-        <v>4.4340953403012584E-3</v>
+        <v>3.722910065610006E-3</v>
       </c>
       <c r="W29">
-        <v>3.1018433392768774E-3</v>
+        <v>2.274849340171213E-3</v>
       </c>
       <c r="X29">
-        <v>-7.6739664582103906E-4</v>
+        <v>-9.8157075328622696E-5</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-1.4854237596004793E-3</v>
+        <v>-2.4872657868734724E-3</v>
       </c>
       <c r="B30">
-        <v>-2.4347559883182157E-3</v>
+        <v>-3.1299614465745825E-3</v>
       </c>
       <c r="C30">
-        <v>-3.2739323423436328E-4</v>
+        <v>-5.9056980756415757E-4</v>
       </c>
       <c r="D30">
-        <v>7.2221333199662396E-3</v>
+        <v>6.8388813744951421E-3</v>
       </c>
       <c r="E30">
-        <v>5.9373309634609406E-3</v>
+        <v>5.3276825764565243E-3</v>
       </c>
       <c r="F30">
-        <v>-4.0744743669851591E-3</v>
+        <v>-3.9726868628659293E-3</v>
       </c>
       <c r="G30">
-        <v>0.22913138812080858</v>
+        <v>0.22325687223427723</v>
       </c>
       <c r="H30">
-        <v>0.18996124148911431</v>
+        <v>0.18028983813276334</v>
       </c>
       <c r="I30">
-        <v>-7.8648770744560448E-4</v>
+        <v>-1.6645317629874195E-3</v>
       </c>
       <c r="J30">
-        <v>-1.7374931606005228E-2</v>
+        <v>-1.6512880072754033E-2</v>
       </c>
       <c r="K30">
-        <v>-2.0545634606651042E-2</v>
+        <v>-1.9639811924381238E-2</v>
       </c>
       <c r="L30">
-        <v>9.531626604346255E-3</v>
+        <v>9.7123049314671792E-3</v>
       </c>
       <c r="M30">
-        <v>5.3871410374033424E-3</v>
+        <v>4.4144608706290535E-3</v>
       </c>
       <c r="N30">
-        <v>3.8535368677479198E-3</v>
+        <v>3.021224415661666E-3</v>
       </c>
       <c r="O30">
-        <v>-1.6382655245047451E-3</v>
+        <v>-1.1931773899684548E-3</v>
       </c>
       <c r="P30">
-        <v>2.2993525241137291E-2</v>
+        <v>2.410570204835415E-2</v>
       </c>
       <c r="Q30">
-        <v>8.0023611934840755E-3</v>
+        <v>9.8183977005160353E-3</v>
       </c>
       <c r="R30">
-        <v>1.8487006407587825E-2</v>
+        <v>1.6666509557124769E-2</v>
       </c>
       <c r="S30">
-        <v>2.3228680341793595E-3</v>
+        <v>2.2767159187464334E-3</v>
       </c>
       <c r="T30">
-        <v>8.5018009884807455E-5</v>
+        <v>2.8700546484056971E-5</v>
       </c>
       <c r="U30">
-        <v>4.1380676567682739E-3</v>
+        <v>3.736387028332502E-3</v>
       </c>
       <c r="V30">
-        <v>4.0637085197885447E-3</v>
+        <v>3.4510475467945858E-3</v>
       </c>
       <c r="W30">
-        <v>3.0764816422694796E-3</v>
+        <v>2.2874176917476465E-3</v>
       </c>
       <c r="X30">
-        <v>-1.2206437838908624E-3</v>
+        <v>-4.9799122088942853E-4</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-1.0921480565113661E-3</v>
+        <v>-2.0559349747132356E-3</v>
       </c>
       <c r="B31">
-        <v>-2.0104365873105934E-3</v>
+        <v>-2.718997589130235E-3</v>
       </c>
       <c r="C31">
-        <v>-1.7263967275937819E-4</v>
+        <v>-3.6298192900170571E-4</v>
       </c>
       <c r="D31">
-        <v>7.0176219465134526E-3</v>
+        <v>6.6797241283645305E-3</v>
       </c>
       <c r="E31">
-        <v>5.7681058440606225E-3</v>
+        <v>5.2073459281644805E-3</v>
       </c>
       <c r="F31">
-        <v>-3.9763997641829585E-3</v>
+        <v>-3.8945469130342372E-3</v>
       </c>
       <c r="G31">
-        <v>0.22817075519071039</v>
+        <v>0.22197227918036735</v>
       </c>
       <c r="H31">
-        <v>0.1888221708337284</v>
+        <v>0.1789969871819167</v>
       </c>
       <c r="I31">
-        <v>-2.2012592678011256E-4</v>
+        <v>-1.2184596095561843E-3</v>
       </c>
       <c r="J31">
-        <v>-1.5129984343417391E-2</v>
+        <v>-1.4233247614497938E-2</v>
       </c>
       <c r="K31">
-        <v>-1.8765991840909546E-2</v>
+        <v>-1.7810710107724791E-2</v>
       </c>
       <c r="L31">
-        <v>1.0522628539091028E-2</v>
+        <v>1.062029093511785E-2</v>
       </c>
       <c r="M31">
-        <v>4.8330270999921154E-3</v>
+        <v>3.9832956196045061E-3</v>
       </c>
       <c r="N31">
-        <v>3.7909788739269867E-3</v>
+        <v>2.9676393886179354E-3</v>
       </c>
       <c r="O31">
-        <v>-2.2191191475113836E-3</v>
+        <v>-1.6241170242858077E-3</v>
       </c>
       <c r="P31">
-        <v>2.1988866600393786E-2</v>
+        <v>2.3048277309741776E-2</v>
       </c>
       <c r="Q31">
-        <v>7.75510803495294E-3</v>
+        <v>9.5379626456598646E-3</v>
       </c>
       <c r="R31">
-        <v>1.7252761583611886E-2</v>
+        <v>1.550158614140032E-2</v>
       </c>
       <c r="S31">
-        <v>2.5480980907179873E-3</v>
+        <v>2.4880222703268372E-3</v>
       </c>
       <c r="T31">
-        <v>4.6060484757726172E-4</v>
+        <v>3.6414820240140869E-4</v>
       </c>
       <c r="U31">
-        <v>3.5468722100603367E-3</v>
+        <v>3.1912135627122362E-3</v>
       </c>
       <c r="V31">
-        <v>3.6900186180848227E-3</v>
+        <v>3.1714368084410642E-3</v>
       </c>
       <c r="W31">
-        <v>2.9984906116851118E-3</v>
+        <v>2.2566638955277404E-3</v>
       </c>
       <c r="X31">
-        <v>-1.5587343527370123E-3</v>
+        <v>-8.0877758539257838E-4</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-7.4691243140412311E-4</v>
+        <v>-1.6685929766644834E-3</v>
       </c>
       <c r="B32">
-        <v>-1.6275358328452505E-3</v>
+        <v>-2.3410221186456271E-3</v>
       </c>
       <c r="C32">
-        <v>-5.6980519425375853E-5</v>
+        <v>-1.8256272681198686E-4</v>
       </c>
       <c r="D32">
-        <v>6.8179959247407496E-3</v>
+        <v>6.5230870011512279E-3</v>
       </c>
       <c r="E32">
-        <v>5.6031116968997541E-3</v>
+        <v>5.0890259982820435E-3</v>
       </c>
       <c r="F32">
-        <v>-3.8813546278551048E-3</v>
+        <v>-3.8182474648563382E-3</v>
       </c>
       <c r="G32">
-        <v>0.22722121025528796</v>
+        <v>0.22070781093993203</v>
       </c>
       <c r="H32">
-        <v>0.18775432102152445</v>
+        <v>0.17776460937754598</v>
       </c>
       <c r="I32">
-        <v>2.0673731063824974E-4</v>
+        <v>-8.739759712927058E-4</v>
       </c>
       <c r="J32">
-        <v>-1.2987363301701249E-2</v>
+        <v>-1.2066801033539369E-2</v>
       </c>
       <c r="K32">
-        <v>-1.6983179578373475E-2</v>
+        <v>-1.599302604661753E-2</v>
       </c>
       <c r="L32">
-        <v>1.1196129413185707E-2</v>
+        <v>1.1226791961618039E-2</v>
       </c>
       <c r="M32">
-        <v>4.2864404199485229E-3</v>
+        <v>3.5569483083012403E-3</v>
       </c>
       <c r="N32">
-        <v>3.656604415497311E-3</v>
+        <v>2.8602623861940027E-3</v>
       </c>
       <c r="O32">
-        <v>-2.6353106197719578E-3</v>
+        <v>-1.9341664575757023E-3</v>
       </c>
       <c r="P32">
-        <v>2.1009952506161333E-2</v>
+        <v>2.2024055834457872E-2</v>
       </c>
       <c r="Q32">
-        <v>7.553479745750602E-3</v>
+        <v>9.2905746210163488E-3</v>
       </c>
       <c r="R32">
-        <v>1.5986778119471245E-2</v>
+        <v>1.4333506269540049E-2</v>
       </c>
       <c r="S32">
-        <v>2.7102991699685663E-3</v>
+        <v>2.6407009685389137E-3</v>
       </c>
       <c r="T32">
-        <v>7.8212387509979386E-4</v>
+        <v>6.5145868711279141E-4</v>
       </c>
       <c r="U32">
-        <v>2.9967894503798442E-3</v>
+        <v>2.6834950098000806E-3</v>
       </c>
       <c r="V32">
-        <v>3.321176463097375E-3</v>
+        <v>2.8908618425102796E-3</v>
       </c>
       <c r="W32">
-        <v>2.8802543685888526E-3</v>
+        <v>2.1922186176567067E-3</v>
       </c>
       <c r="X32">
-        <v>-1.7978435158574335E-3</v>
+        <v>-1.0426232282382893E-3</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-4.4585319540479951E-4</v>
+        <v>-1.3223685896579962E-3</v>
       </c>
       <c r="B33">
-        <v>-1.2834020124010692E-3</v>
+        <v>-1.9945233626550742E-3</v>
       </c>
       <c r="C33">
-        <v>2.5364167121844083E-5</v>
+        <v>-4.327707951725276E-5</v>
       </c>
       <c r="D33">
-        <v>6.6232272993205221E-3</v>
+        <v>6.3690187573310093E-3</v>
       </c>
       <c r="E33">
-        <v>5.442197235717483E-3</v>
+        <v>4.9726548698935695E-3</v>
       </c>
       <c r="F33">
-        <v>-3.7888570869243354E-3</v>
+        <v>-3.7434582949221573E-3</v>
       </c>
       <c r="G33">
-        <v>0.22627348516238222</v>
+        <v>0.21945590964440717</v>
       </c>
       <c r="H33">
-        <v>0.1867427805299425</v>
+        <v>0.17658110057784634</v>
       </c>
       <c r="I33">
-        <v>5.1363269044579773E-4</v>
+        <v>-6.166247429142713E-4</v>
       </c>
       <c r="J33">
-        <v>-1.0964394701401536E-2</v>
+        <v>-1.0029492090489436E-2</v>
       </c>
       <c r="K33">
-        <v>-1.52211470863024E-2</v>
+        <v>-1.4209152384357387E-2</v>
       </c>
       <c r="L33">
-        <v>1.15884244138027E-2</v>
+        <v>1.1567240361004268E-2</v>
       </c>
       <c r="M33">
-        <v>3.7566599932463696E-3</v>
+        <v>3.1425590270684088E-3</v>
       </c>
       <c r="N33">
-        <v>3.4684334903483105E-3</v>
+        <v>2.7130299412150287E-3</v>
       </c>
       <c r="O33">
-        <v>-2.9119268383603902E-3</v>
+        <v>-2.1424078042952374E-3</v>
       </c>
       <c r="P33">
-        <v>2.005101247894614E-2</v>
+        <v>2.1027685441694487E-2</v>
       </c>
       <c r="Q33">
-        <v>7.3801229580710004E-3</v>
+        <v>9.0627037363639421E-3</v>
       </c>
       <c r="R33">
-        <v>1.4716127274583379E-2</v>
+        <v>1.3181939043690737E-2</v>
       </c>
       <c r="S33">
-        <v>2.8177279311798475E-3</v>
+        <v>2.7421561866692343E-3</v>
       </c>
       <c r="T33">
-        <v>1.0529125397658046E-3</v>
+        <v>8.9358008755061134E-4</v>
       </c>
       <c r="U33">
-        <v>2.4911813685395412E-3</v>
+        <v>2.2159694081154997E-3</v>
       </c>
       <c r="V33">
-        <v>2.963721905823169E-3</v>
+        <v>2.6148630043481306E-3</v>
       </c>
       <c r="W33">
-        <v>2.7323978090172396E-3</v>
+        <v>2.102303550112798E-3</v>
       </c>
       <c r="X33">
-        <v>-1.9527800905047021E-3</v>
+        <v>-1.2105030563598401E-3</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-1.85287420412239E-4</v>
+        <v>-1.0144830222623671E-3</v>
       </c>
       <c r="B34">
-        <v>-9.7551463035783215E-4</v>
+        <v>-1.6780398154937874E-3</v>
       </c>
       <c r="C34">
-        <v>7.9709659746796113E-5</v>
+        <v>6.0513727076570515E-5</v>
       </c>
       <c r="D34">
-        <v>6.4332915938374313E-3</v>
+        <v>6.2175733530890117E-3</v>
       </c>
       <c r="E34">
-        <v>5.2852494248258886E-3</v>
+        <v>4.8581943717465178E-3</v>
       </c>
       <c r="F34">
-        <v>-3.6985297339331424E-3</v>
+        <v>-3.6699276890671305E-3</v>
       </c>
       <c r="G34">
-        <v>0.22532008359630629</v>
+        <v>0.21821038683408972</v>
       </c>
       <c r="H34">
-        <v>0.18577468440753808</v>
+        <v>0.1754365483344951</v>
       </c>
       <c r="I34">
-        <v>7.1847999945207075E-4</v>
+        <v>-4.3334688355704451E-4</v>
       </c>
       <c r="J34">
-        <v>-9.0740104228945739E-3</v>
+        <v>-8.1329629237566203E-3</v>
       </c>
       <c r="K34">
-        <v>-1.3500482606818576E-2</v>
+        <v>-1.2478122224945404E-2</v>
       </c>
       <c r="L34">
-        <v>1.1735643194250023E-2</v>
+        <v>1.1676532699033326E-2</v>
       </c>
       <c r="M34">
-        <v>3.2510593062364812E-3</v>
+        <v>2.7458058122682111E-3</v>
       </c>
       <c r="N34">
-        <v>3.2418414638915038E-3</v>
+        <v>2.5376637597647983E-3</v>
       </c>
       <c r="O34">
-        <v>-3.0716504605432515E-3</v>
+        <v>-2.2657932398590687E-3</v>
       </c>
       <c r="P34">
-        <v>1.9108403154146858E-2</v>
+        <v>2.0055607625262001E-2</v>
       </c>
       <c r="Q34">
-        <v>7.221606955918336E-3</v>
+        <v>8.8441682127273422E-3</v>
       </c>
       <c r="R34">
-        <v>1.3462818218721306E-2</v>
+        <v>1.2062351370856875E-2</v>
       </c>
       <c r="S34">
-        <v>2.8781749821327196E-3</v>
+        <v>2.7993903979902208E-3</v>
       </c>
       <c r="T34">
-        <v>1.2766972642197505E-3</v>
+        <v>1.0937897974375194E-3</v>
       </c>
       <c r="U34">
-        <v>2.0318820886593425E-3</v>
+        <v>1.7900896055869739E-3</v>
       </c>
       <c r="V34">
-        <v>2.6227354721797269E-3</v>
+        <v>2.3478493635260291E-3</v>
       </c>
       <c r="W34">
-        <v>2.5639520773226288E-3</v>
+        <v>1.9938918638821943E-3</v>
       </c>
       <c r="X34">
-        <v>-2.037013622741557E-3</v>
+        <v>-1.3223362618442103E-3</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3.829224240337048E-5</v>
+        <v>-7.4224176290274633E-4</v>
       </c>
       <c r="B35">
-        <v>-7.0146072730370435E-4</v>
+        <v>-1.3901350523787841E-3</v>
       </c>
       <c r="C35">
-        <v>1.108896471616605E-4</v>
+        <v>1.3402203605369971E-4</v>
       </c>
       <c r="D35">
-        <v>6.2481657589987805E-3</v>
+        <v>6.0688069958597978E-3</v>
       </c>
       <c r="E35">
-        <v>5.132184614987878E-3</v>
+        <v>4.7456285924458545E-3</v>
       </c>
       <c r="F35">
-        <v>-3.6100830081101654E-3</v>
+        <v>-3.5974684817957655E-3</v>
       </c>
       <c r="G35">
-        <v>0.22435513635154436</v>
+        <v>0.21696630871393743</v>
       </c>
       <c r="H35">
-        <v>0.184839049341088</v>
+        <v>0.17432255705644956</v>
       </c>
       <c r="I35">
-        <v>8.3759158513585508E-4</v>
+        <v>-3.1240316889983904E-4</v>
       </c>
       <c r="J35">
-        <v>-7.3251543561350108E-3</v>
+        <v>-6.3849720588870758E-3</v>
       </c>
       <c r="K35">
-        <v>-1.1838500414024677E-2</v>
+        <v>-1.0815737538646175E-2</v>
       </c>
       <c r="L35">
-        <v>1.1672962485124838E-2</v>
+        <v>1.1588362888831116E-2</v>
       </c>
       <c r="M35">
-        <v>2.7752486151599864E-3</v>
+        <v>2.3710226613709575E-3</v>
       </c>
       <c r="N35">
-        <v>2.9897893135011344E-3</v>
+        <v>2.3439197851238842E-3</v>
       </c>
       <c r="O35">
-        <v>-3.1348314566009838E-3</v>
+        <v>-2.3193091781897497E-3</v>
       </c>
       <c r="P35">
-        <v>1.8180213148399238E-2</v>
+        <v>1.9105715019495498E-2</v>
       </c>
       <c r="Q35">
-        <v>7.0678201063230084E-3</v>
+        <v>8.6275526348070074E-3</v>
       </c>
       <c r="R35">
-        <v>1.2244382116130992E-2</v>
+        <v>1.098659885766444E-2</v>
       </c>
       <c r="S35">
-        <v>2.8988994146297298E-3</v>
+        <v>2.8189467332458179E-3</v>
       </c>
       <c r="T35">
-        <v>1.4574501403596951E-3</v>
+        <v>1.2555716123089874E-3</v>
       </c>
       <c r="U35">
-        <v>1.6194437486034552E-3</v>
+        <v>1.4062346295969556E-3</v>
       </c>
       <c r="V35">
-        <v>2.3019991188693023E-3</v>
+        <v>2.0932184699890247E-3</v>
       </c>
       <c r="W35">
-        <v>2.3825134516166635E-3</v>
+        <v>1.8728528160599181E-3</v>
       </c>
       <c r="X35">
-        <v>-2.0627110677421401E-3</v>
+        <v>-1.3870540876311165E-3</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.2822071560901769E-4</v>
+        <v>-5.0303103957441561E-4</v>
       </c>
       <c r="B36">
-        <v>-4.5891830964239766E-4</v>
+        <v>-1.1293814944500825E-3</v>
       </c>
       <c r="C36">
-        <v>1.2325193346784946E-4</v>
+        <v>1.8201772013287876E-4</v>
       </c>
       <c r="D36">
-        <v>6.0678260287423402E-3</v>
+        <v>5.9227754531763427E-3</v>
       </c>
       <c r="E36">
-        <v>4.982940889547649E-3</v>
+        <v>4.6349576889394535E-3</v>
       </c>
       <c r="F36">
-        <v>-3.5233004367193343E-3</v>
+        <v>-3.5259461805298665E-3</v>
       </c>
       <c r="G36">
-        <v>0.22337423841497728</v>
+        <v>0.2157198692505386</v>
       </c>
       <c r="H36">
-        <v>0.18392660387139084</v>
+        <v>0.17323208202496501</v>
       </c>
       <c r="I36">
-        <v>8.8570096777129681E-4</v>
+        <v>-2.4329559731912134E-4</v>
       </c>
       <c r="J36">
-        <v>-5.7232093186678767E-3</v>
+        <v>-4.7898324159284375E-3</v>
       </c>
       <c r="K36">
-        <v>-1.024938368071493E-2</v>
+        <v>-9.2347431886328959E-3</v>
       </c>
       <c r="L36">
-        <v>1.1433994151896831E-2</v>
+        <v>1.1334713757941445E-2</v>
       </c>
       <c r="M36">
-        <v>2.33324662051837E-3</v>
+        <v>2.0213368310072967E-3</v>
       </c>
       <c r="N36">
-        <v>2.7230611500199675E-3</v>
+        <v>2.1398237397452793E-3</v>
       </c>
       <c r="O36">
-        <v>-3.1195881678132142E-3</v>
+        <v>-2.3161364987317702E-3</v>
       </c>
       <c r="P36">
-        <v>1.726589938301748E-2</v>
+        <v>1.8177040657919474E-2</v>
       </c>
       <c r="Q36">
-        <v>6.911426577153934E-3</v>
+        <v>8.4077015590219469E-3</v>
       </c>
       <c r="R36">
-        <v>1.1074422416232466E-2</v>
+        <v>9.9634543929398595E-3</v>
       </c>
       <c r="S36">
-        <v>2.8865857330238054E-3</v>
+        <v>2.8068707418153404E-3</v>
       </c>
       <c r="T36">
-        <v>1.5992657428032242E-3</v>
+        <v>1.3825106105029145E-3</v>
       </c>
       <c r="U36">
-        <v>1.2533641918537342E-3</v>
+        <v>1.0639034622443092E-3</v>
       </c>
       <c r="V36">
-        <v>2.004158499001818E-3</v>
+        <v>1.853477549488236E-3</v>
       </c>
       <c r="W36">
-        <v>2.1943941253006471E-3</v>
+        <v>1.7440818445330975E-3</v>
       </c>
       <c r="X36">
-        <v>-2.0407819267754812E-3</v>
+        <v>-1.4126614439800621E-3</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3.876621702330052E-4</v>
+        <v>-2.9431774363263561E-4</v>
       </c>
       <c r="B37">
-        <v>-2.4564567557150419E-4</v>
+        <v>-8.9435128219676394E-4</v>
       </c>
       <c r="C37">
-        <v>1.2066466844207202E-4</v>
+        <v>2.0882360813536988E-4</v>
       </c>
       <c r="D37">
-        <v>5.8922459099781666E-3</v>
+        <v>5.7795317118103338E-3</v>
       </c>
       <c r="E37">
-        <v>4.8374716074375268E-3</v>
+        <v>4.5261928376118653E-3</v>
       </c>
       <c r="F37">
-        <v>-3.4380256744566129E-3</v>
+        <v>-3.455268911543752E-3</v>
       </c>
       <c r="G37">
-        <v>0.22237427805549892</v>
+        <v>0.21446825864119246</v>
       </c>
       <c r="H37">
-        <v>0.18302961966131726</v>
+        <v>0.17215927428175223</v>
       </c>
       <c r="I37">
-        <v>8.7601037821594119E-4</v>
+        <v>-2.1668893036496962E-4</v>
       </c>
       <c r="J37">
-        <v>-4.270430564049521E-3</v>
+        <v>-3.3488489831274395E-3</v>
       </c>
       <c r="K37">
-        <v>-8.7443700104228306E-3</v>
+        <v>-7.7450346905003249E-3</v>
       </c>
       <c r="L37">
-        <v>1.1050327095514678E-2</v>
+        <v>1.0945485600428231E-2</v>
       </c>
       <c r="M37">
-        <v>1.9276671604344653E-3</v>
+        <v>1.6988148477691085E-3</v>
       </c>
       <c r="N37">
-        <v>2.4504990869167464E-3</v>
+        <v>1.9318894719751554E-3</v>
       </c>
       <c r="O37">
-        <v>-3.0419271227836164E-3</v>
+        <v>-2.2678037874733427E-3</v>
       </c>
       <c r="P37">
-        <v>1.6365960567294113E-2</v>
+        <v>1.7269482582990443E-2</v>
       </c>
       <c r="Q37">
-        <v>6.7473832193991612E-3</v>
+        <v>8.1812826779518229E-3</v>
       </c>
       <c r="R37">
-        <v>9.9631271543739741E-3</v>
+        <v>8.9990784417733061E-3</v>
       </c>
       <c r="S37">
-        <v>2.8473198977194691E-3</v>
+        <v>2.7686886701656071E-3</v>
       </c>
       <c r="T37">
-        <v>1.7062573372232936E-3</v>
+        <v>1.4782049796948809E-3</v>
       </c>
       <c r="U37">
-        <v>9.3229456490750984E-4</v>
+        <v>7.61890227341813E-4</v>
       </c>
       <c r="V37">
-        <v>1.7308812675662644E-3</v>
+        <v>1.6303618966249139E-3</v>
       </c>
       <c r="W37">
-        <v>2.0047641041389674E-3</v>
+        <v>1.6116176136306321E-3</v>
       </c>
       <c r="X37">
-        <v>-1.9809308855192054E-3</v>
+        <v>-1.4062944540573724E-3</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5.1961074737838508E-4</v>
+        <v>-1.1365181778713104E-4</v>
       </c>
       <c r="B38">
-        <v>-5.9475444305956415E-5</v>
+        <v>-6.8361269688696979E-4</v>
       </c>
       <c r="C38">
-        <v>1.0653108435154657E-4</v>
+        <v>2.1832029160992328E-4</v>
       </c>
       <c r="D38">
-        <v>5.7213944437635167E-3</v>
+        <v>5.639124034805312E-3</v>
       </c>
       <c r="E38">
-        <v>4.6957400716314268E-3</v>
+        <v>4.4193521730737702E-3</v>
       </c>
       <c r="F38">
-        <v>-3.35415122667726E-3</v>
+        <v>-3.3853789400073884E-3</v>
       </c>
       <c r="G38">
-        <v>0.22135326552678203</v>
+        <v>0.21320953265803089</v>
       </c>
       <c r="H38">
-        <v>0.18214174769132288</v>
+        <v>0.17109933723280596</v>
       </c>
       <c r="I38">
-        <v>8.202526791589726E-4</v>
+        <v>-2.2433305062079332E-4</v>
       </c>
       <c r="J38">
-        <v>-2.9663744987131757E-3</v>
+        <v>-2.0607462872663479E-3</v>
       </c>
       <c r="K38">
-        <v>-7.3319680201375803E-3</v>
+        <v>-6.3538893569864436E-3</v>
       </c>
       <c r="L38">
-        <v>1.0551202531907222E-2</v>
+        <v>1.0448241964721751E-2</v>
       </c>
       <c r="M38">
-        <v>1.5599101594203635E-3</v>
+        <v>1.4046095140688181E-3</v>
       </c>
       <c r="N38">
-        <v>2.1792291487334747E-3</v>
+        <v>1.7253185973554906E-3</v>
       </c>
       <c r="O38">
-        <v>-2.9158743225833339E-3</v>
+        <v>-2.1843323618311069E-3</v>
       </c>
       <c r="P38">
-        <v>1.5481650493506915E-2</v>
+        <v>1.6383564903403317E-2</v>
       </c>
       <c r="Q38">
-        <v>6.5725144340709196E-3</v>
+        <v>7.94641302203738E-3</v>
       </c>
       <c r="R38">
-        <v>8.917741399969259E-3</v>
+        <v>8.0974357098856746E-3</v>
       </c>
       <c r="S38">
-        <v>2.786581448492198E-3</v>
+        <v>2.709399606183634E-3</v>
       </c>
       <c r="T38">
-        <v>1.7824713553187266E-3</v>
+        <v>1.5461936469583744E-3</v>
       </c>
       <c r="U38">
-        <v>6.542258775011911E-4</v>
+        <v>4.9844050905037548E-4</v>
       </c>
       <c r="V38">
-        <v>1.4830076162639649E-3</v>
+        <v>1.4249475728849489E-3</v>
       </c>
       <c r="W38">
-        <v>1.8177838835538029E-3</v>
+        <v>1.4787474244220299E-3</v>
       </c>
       <c r="X38">
-        <v>-1.8917170097412228E-3</v>
+        <v>-1.3742754996202626E-3</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6.2689080032907185E-4</v>
+        <v>4.132975405084568E-5</v>
       </c>
       <c r="B39">
-        <v>1.0168781822250672E-4</v>
+        <v>-4.9573076937665028E-4</v>
       </c>
       <c r="C39">
-        <v>8.3810855910138038E-5</v>
+        <v>2.139583868392414E-4</v>
       </c>
       <c r="D39">
-        <v>5.5552348109317862E-3</v>
+        <v>5.5015944267638971E-3</v>
       </c>
       <c r="E39">
-        <v>4.5577152200741988E-3</v>
+        <v>4.3144575671998971E-3</v>
       </c>
       <c r="F39">
-        <v>-3.2716087155515439E-3</v>
+        <v>-3.3162455401463571E-3</v>
       </c>
       <c r="G39">
-        <v>0.22031016689975313</v>
+        <v>0.21194248676988811</v>
       </c>
       <c r="H39">
-        <v>0.18125786186193529</v>
+        <v>0.17004839509383918</v>
       </c>
       <c r="I39">
-        <v>7.2876421344292286E-4</v>
+        <v>-2.5898643568458916E-4</v>
       </c>
       <c r="J39">
-        <v>-1.8083135670989847E-3</v>
+        <v>-9.2207797349769347E-4</v>
       </c>
       <c r="K39">
-        <v>-6.0181948400657159E-3</v>
+        <v>-5.0662119258508293E-3</v>
       </c>
       <c r="L39">
-        <v>9.963303480790664E-3</v>
+        <v>9.8680546181115856E-3</v>
       </c>
       <c r="M39">
-        <v>1.230348996077435E-3</v>
+        <v>1.1391024428714289E-3</v>
       </c>
       <c r="N39">
-        <v>1.9148744068682166E-3</v>
+        <v>1.5241812593103532E-3</v>
       </c>
       <c r="O39">
-        <v>-2.7536129898426687E-3</v>
+        <v>-2.0743728378748326E-3</v>
       </c>
       <c r="P39">
-        <v>1.4614731549074556E-2</v>
+        <v>1.5520234652701964E-2</v>
       </c>
       <c r="Q39">
-        <v>6.3851416042133291E-3</v>
+        <v>7.7023415324897473E-3</v>
       </c>
       <c r="R39">
-        <v>7.9429995030683154E-3</v>
+        <v>7.2606629537665043E-3</v>
       </c>
       <c r="S39">
-        <v>2.7092489200151171E-3</v>
+        <v>2.633479071470067E-3</v>
       </c>
       <c r="T39">
-        <v>1.8318187357677651E-3</v>
+        <v>1.5898983784135374E-3</v>
       </c>
       <c r="U39">
-        <v>4.1665433797222207E-4</v>
+        <v>2.713890649431873E-4</v>
       </c>
       <c r="V39">
-        <v>1.2606905126286705E-3</v>
+        <v>1.237756530770159E-3</v>
       </c>
       <c r="W39">
-        <v>1.6367278326538948E-3</v>
+        <v>1.3481022638821109E-3</v>
       </c>
       <c r="X39">
-        <v>-1.7806184870663433E-3</v>
+        <v>-1.3221668471791613E-3</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.1215706314387006E-4</v>
+        <v>1.7289807852171712E-4</v>
       </c>
       <c r="B40">
-        <v>2.3986736148429166E-4</v>
+        <v>-3.2927091604841035E-4</v>
       </c>
       <c r="C40">
-        <v>5.5046385527335318E-5</v>
+        <v>1.9877655557156893E-4</v>
       </c>
       <c r="D40">
-        <v>5.3937233088567904E-3</v>
+        <v>5.3669774927908118E-3</v>
       </c>
       <c r="E40">
-        <v>4.4233682222503123E-3</v>
+        <v>4.2115321140871725E-3</v>
       </c>
       <c r="F40">
-        <v>-3.1903605390005696E-3</v>
+        <v>-3.247859018058455E-3</v>
       </c>
       <c r="G40">
-        <v>0.21924474687735307</v>
+        <v>0.21066653769532467</v>
       </c>
       <c r="H40">
-        <v>0.18037391152973989</v>
+        <v>0.16900337288990028</v>
       </c>
       <c r="I40">
-        <v>6.1056582158691697E-4</v>
+        <v>-3.1434090441071356E-4</v>
       </c>
       <c r="J40">
-        <v>-7.9163034829776713E-4</v>
+        <v>7.2387280612445129E-5</v>
       </c>
       <c r="K40">
-        <v>-4.8068258098215022E-3</v>
+        <v>-3.8847871131987986E-3</v>
       </c>
       <c r="L40">
-        <v>9.3106406985298262E-3</v>
+        <v>9.2274312931708742E-3</v>
       </c>
       <c r="M40">
-        <v>9.3850879122281405E-4</v>
+        <v>9.0203840972056886E-4</v>
       </c>
       <c r="N40">
-        <v>1.6617532258551559E-3</v>
+        <v>1.3315786157045892E-3</v>
       </c>
       <c r="O40">
-        <v>-2.5656242659535256E-3</v>
+        <v>-1.9453334784188911E-3</v>
       </c>
       <c r="P40">
-        <v>1.37672672496163E-2</v>
+        <v>1.4680692619152226E-2</v>
       </c>
       <c r="Q40">
-        <v>6.1847629948279526E-3</v>
+        <v>7.4491815411075841E-3</v>
       </c>
       <c r="R40">
-        <v>7.0415177578267985E-3</v>
+        <v>6.4893925393575327E-3</v>
       </c>
       <c r="S40">
-        <v>2.6196160129727808E-3</v>
+        <v>2.5448918751393218E-3</v>
       </c>
       <c r="T40">
-        <v>1.8580215644519171E-3</v>
+        <v>1.6125789094358868E-3</v>
       </c>
       <c r="U40">
-        <v>2.1672585563070612E-4</v>
+        <v>7.8279599069286068E-5</v>
       </c>
       <c r="V40">
-        <v>1.0635241047569632E-3</v>
+        <v>1.0688530455712796E-3</v>
       </c>
       <c r="W40">
-        <v>1.4640983623326331E-3</v>
+        <v>1.2217425943294171E-3</v>
       </c>
       <c r="X40">
-        <v>-1.654101820829923E-3</v>
+        <v>-1.2548235045294043E-3</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7.7789507649161926E-4</v>
+        <v>2.8322719558372558E-4</v>
       </c>
       <c r="B41">
-        <v>3.5701224623507777E-4</v>
+        <v>-1.8280463228558094E-4</v>
       </c>
       <c r="C41">
-        <v>2.2392521645264729E-5</v>
+        <v>1.7542381075977609E-4</v>
       </c>
       <c r="D41">
-        <v>5.2368086940723924E-3</v>
+        <v>5.2352996607099049E-3</v>
       </c>
       <c r="E41">
-        <v>4.2926698620158188E-3</v>
+        <v>4.1105982021148119E-3</v>
       </c>
       <c r="F41">
-        <v>-3.1103927736341186E-3</v>
+        <v>-3.1802257161351846E-3</v>
       </c>
       <c r="G41">
-        <v>0.21815742313428599</v>
+        <v>0.20938161407561007</v>
       </c>
       <c r="H41">
-        <v>0.17948678385566463</v>
+        <v>0.16796188750127131</v>
       </c>
       <c r="I41">
-        <v>4.7344972820251296E-4</v>
+        <v>-3.8494777787639021E-4</v>
       </c>
       <c r="J41">
-        <v>8.981426396847958E-5</v>
+        <v>9.293076376547647E-4</v>
       </c>
       <c r="K41">
-        <v>-3.6996489807750166E-3</v>
+        <v>-2.8105327736357515E-3</v>
       </c>
       <c r="L41">
-        <v>8.6145187630376485E-3</v>
+        <v>8.5463114454066794E-3</v>
       </c>
       <c r="M41">
-        <v>6.8323195904729239E-4</v>
+        <v>6.9264915991010712E-4</v>
       </c>
       <c r="N41">
-        <v>1.423061635792422E-3</v>
+        <v>1.1497880791553454E-3</v>
       </c>
       <c r="O41">
-        <v>-2.3608283031382182E-3</v>
+        <v>-1.8035007400198154E-3</v>
       </c>
       <c r="P41">
-        <v>1.2941451504017376E-2</v>
+        <v>1.3866255561043062E-2</v>
       </c>
       <c r="Q41">
-        <v>5.9717797237175407E-3</v>
+        <v>7.1876870910890745E-3</v>
       </c>
       <c r="R41">
-        <v>6.2141487116790239E-3</v>
+        <v>5.7830360372680186E-3</v>
       </c>
       <c r="S41">
-        <v>2.521416235926166E-3</v>
+        <v>2.4471122704422654E-3</v>
       </c>
       <c r="T41">
-        <v>1.8645733657898234E-3</v>
+        <v>1.6172996286793412E-3</v>
       </c>
       <c r="U41">
-        <v>5.1360535038402766E-5</v>
+        <v>-8.3532450837010708E-5</v>
       </c>
       <c r="V41">
-        <v>8.906595016631158E-4</v>
+        <v>9.1793090062223723E-4</v>
       </c>
       <c r="W41">
-        <v>1.3017310420049277E-3</v>
+        <v>1.1012358117910529E-3</v>
       </c>
       <c r="X41">
-        <v>-1.517694319391194E-3</v>
+        <v>-1.1764456063772678E-3</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8.2642212490946498E-4</v>
+        <v>3.7438909680039093E-4</v>
       </c>
       <c r="B42">
-        <v>4.5499427928707981E-4</v>
+        <v>-5.4916448970626797E-5</v>
       </c>
       <c r="C42">
-        <v>-1.2351572700408653E-5</v>
+        <v>1.4618484401196762E-4</v>
       </c>
       <c r="D42">
-        <v>5.0844318645633102E-3</v>
+        <v>5.106578727118804E-3</v>
       </c>
       <c r="E42">
-        <v>4.1655885917433189E-3</v>
+        <v>4.0116760701776211E-3</v>
       </c>
       <c r="F42">
-        <v>-3.0317091803304663E-3</v>
+        <v>-3.1133638526201464E-3</v>
       </c>
       <c r="G42">
-        <v>0.21704913370613799</v>
+        <v>0.20808805722082296</v>
       </c>
       <c r="H42">
-        <v>0.17859417640420228</v>
+        <v>0.16692214914510328</v>
       </c>
       <c r="I42">
-        <v>3.2407031190317959E-4</v>
+        <v>-4.6614564124882423E-4</v>
       </c>
       <c r="J42">
-        <v>8.4334234330007973E-4</v>
+        <v>1.6564404668719516E-3</v>
       </c>
       <c r="K42">
-        <v>-2.6967182713144577E-3</v>
+        <v>-1.8427484804898547E-3</v>
       </c>
       <c r="L42">
-        <v>7.893567524618339E-3</v>
+        <v>7.8421168215569298E-3</v>
       </c>
       <c r="M42">
-        <v>4.6282879240999719E-4</v>
+        <v>5.0976533159373893E-4</v>
       </c>
       <c r="N42">
-        <v>1.2010395899078041E-3</v>
+        <v>9.8039253317304897E-4</v>
       </c>
       <c r="O42">
-        <v>-2.1467238224250895E-3</v>
+        <v>-1.6541524526105553E-3</v>
       </c>
       <c r="P42">
-        <v>1.2139471625769893E-2</v>
+        <v>1.3078246788085137E-2</v>
       </c>
       <c r="Q42">
-        <v>5.7472633539639162E-3</v>
+        <v>6.9190675278255247E-3</v>
       </c>
       <c r="R42">
-        <v>5.4602987300843564E-3</v>
+        <v>5.1400317760403255E-3</v>
       </c>
       <c r="S42">
-        <v>2.4178539824821765E-3</v>
+        <v>2.3431496774295674E-3</v>
       </c>
       <c r="T42">
-        <v>1.8547113814839644E-3</v>
+        <v>1.6069063525494831E-3</v>
       </c>
       <c r="U42">
-        <v>-8.2641701119934297E-5</v>
+        <v>-2.1679296156848032E-4</v>
       </c>
       <c r="V42">
-        <v>7.409076999100872E-4</v>
+        <v>7.8439118500666543E-4</v>
       </c>
       <c r="W42">
-        <v>1.15089088303999E-3</v>
+        <v>9.8772614714860078E-4</v>
       </c>
       <c r="X42">
-        <v>-1.3760586985834822E-3</v>
+        <v>-1.0906303599196201E-3</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8.5988886636800821E-4</v>
+        <v>4.4834927058284434E-4</v>
       </c>
       <c r="B43">
-        <v>5.3560445753753072E-4</v>
+        <v>5.5788485821198614E-5</v>
       </c>
       <c r="C43">
-        <v>-4.770948147891918E-5</v>
+        <v>1.130073054323282E-4</v>
       </c>
       <c r="D43">
-        <v>4.9365258429414638E-3</v>
+        <v>4.9808236836169978E-3</v>
       </c>
       <c r="E43">
-        <v>4.0420891511740997E-3</v>
+        <v>3.9147827602612796E-3</v>
       </c>
       <c r="F43">
-        <v>-2.9543261815594413E-3</v>
+        <v>-3.0473000717707605E-3</v>
       </c>
       <c r="G43">
-        <v>0.21592121817162857</v>
+        <v>0.2067865323292872</v>
       </c>
       <c r="H43">
-        <v>0.17769448013133404</v>
+        <v>0.16588287264797544</v>
       </c>
       <c r="I43">
-        <v>1.6803700923651022E-4</v>
+        <v>-5.5398995085751985E-4</v>
       </c>
       <c r="J43">
-        <v>1.4771518692517915E-3</v>
+        <v>2.2623467209445421E-3</v>
       </c>
       <c r="K43">
-        <v>-1.7966002584219876E-3</v>
+        <v>-9.7935536369778034E-4</v>
       </c>
       <c r="L43">
-        <v>7.1638256437965842E-3</v>
+        <v>7.1298451421271175E-3</v>
       </c>
       <c r="M43">
-        <v>2.7521194384849679E-4</v>
+        <v>3.5191591823351788E-4</v>
       </c>
       <c r="N43">
-        <v>9.9712134456653168E-4</v>
+        <v>8.2439480312769173E-4</v>
       </c>
       <c r="O43">
-        <v>-1.929524622866885E-3</v>
+        <v>-1.5016640041128301E-3</v>
       </c>
       <c r="P43">
-        <v>1.1363401710667187E-2</v>
+        <v>1.2317911894214398E-2</v>
       </c>
       <c r="Q43">
-        <v>5.512760763348501E-3</v>
+        <v>6.644835316450718E-3</v>
       </c>
       <c r="R43">
-        <v>4.778210662605864E-3</v>
+        <v>4.5580599088399214E-3</v>
       </c>
       <c r="S43">
-        <v>2.3116402519276491E-3</v>
+        <v>2.2355784486420595E-3</v>
       </c>
       <c r="T43">
-        <v>1.8313992074987517E-3</v>
+        <v>1.584011777798437E-3</v>
       </c>
       <c r="U43">
-        <v>-1.8851301153288702E-4</v>
+        <v>-3.2427673526938235E-4</v>
       </c>
       <c r="V43">
-        <v>6.12829839649498E-4</v>
+        <v>6.6741085981244608E-4</v>
       </c>
       <c r="W43">
-        <v>1.0123600443696645E-3</v>
+        <v>8.8199765491531852E-4</v>
       </c>
       <c r="X43">
-        <v>-1.2330686309618422E-3</v>
+        <v>-1.0004233916163839E-3</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8.8028176801713265E-4</v>
+        <v>5.0696302602061798E-4</v>
       </c>
       <c r="B44">
-        <v>6.0054936801567926E-4</v>
+        <v>1.50676700358457E-4</v>
       </c>
       <c r="C44">
-        <v>-8.2494418590206564E-5</v>
+        <v>7.7530142338892353E-5</v>
       </c>
       <c r="D44">
-        <v>4.7930160152407364E-3</v>
+        <v>4.8580347786860772E-3</v>
       </c>
       <c r="E44">
-        <v>3.9221316546431684E-3</v>
+        <v>3.8199313922247478E-3</v>
       </c>
       <c r="F44">
-        <v>-2.8782686911765776E-3</v>
+        <v>-2.9820665991121694E-3</v>
       </c>
       <c r="G44">
-        <v>0.21477531278337025</v>
+        <v>0.20547795017229625</v>
       </c>
       <c r="H44">
-        <v>0.17678667269064041</v>
+        <v>0.16484319786700607</v>
       </c>
       <c r="I44">
-        <v>1.0007799403854989E-5</v>
+        <v>-6.4518477964880573E-4</v>
       </c>
       <c r="J44">
-        <v>2.0000423832033931E-3</v>
+        <v>2.7561278516173436E-3</v>
       </c>
       <c r="K44">
-        <v>-9.9661062115563581E-4</v>
+        <v>-2.1712396106958299E-4</v>
       </c>
       <c r="L44">
-        <v>6.4388644187582944E-3</v>
+        <v>6.4221966296986593E-3</v>
       </c>
       <c r="M44">
-        <v>1.1801448061610209E-4</v>
+        <v>2.1741525080692776E-4</v>
       </c>
       <c r="N44">
-        <v>8.1207049971387946E-4</v>
+        <v>6.8231863992451486E-4</v>
       </c>
       <c r="O44">
-        <v>-1.714291816631186E-3</v>
+        <v>-1.3496078162739851E-3</v>
       </c>
       <c r="P44">
-        <v>1.0615122833773194E-2</v>
+        <v>1.1586356403619144E-2</v>
       </c>
       <c r="Q44">
-        <v>5.2701321455628225E-3</v>
+        <v>6.3666825651053369E-3</v>
       </c>
       <c r="R44">
-        <v>4.1652136004816098E-3</v>
+        <v>4.0342282099428287E-3</v>
       </c>
       <c r="S44">
-        <v>2.205031456182116E-3</v>
+        <v>2.1265703583412789E-3</v>
       </c>
       <c r="T44">
-        <v>1.797318231429923E-3</v>
+        <v>1.5509882776503067E-3</v>
       </c>
       <c r="U44">
-        <v>-2.6944557743402431E-4</v>
+        <v>-4.0872833625417318E-4</v>
       </c>
       <c r="V44">
-        <v>5.0481526949175404E-4</v>
+        <v>5.6600245748302772E-4</v>
       </c>
       <c r="W44">
-        <v>8.8651724677202282E-4</v>
+        <v>7.8453083290057303E-4</v>
       </c>
       <c r="X44">
-        <v>-1.0918841307162586E-3</v>
+        <v>-9.0836921516226042E-4</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8.8942640319156219E-4</v>
+        <v>5.5197276091386292E-4</v>
       </c>
       <c r="B45">
-        <v>6.5144788083970617E-4</v>
+        <v>2.3107894996420646E-4</v>
       </c>
       <c r="C45">
-        <v>-1.1577665089090861E-4</v>
+        <v>4.1112260649582845E-5</v>
       </c>
       <c r="D45">
-        <v>4.6538205779540487E-3</v>
+        <v>4.7382037721078176E-3</v>
       </c>
       <c r="E45">
-        <v>3.8056710612592859E-3</v>
+        <v>3.7271306987015302E-3</v>
       </c>
       <c r="F45">
-        <v>-2.803566689080772E-3</v>
+        <v>-2.9176989124467972E-3</v>
       </c>
       <c r="G45">
-        <v>0.21361325926834329</v>
+        <v>0.20416339894165433</v>
       </c>
       <c r="H45">
-        <v>0.17587022184005985</v>
+        <v>0.16380261863685378</v>
       </c>
       <c r="I45">
-        <v>-1.4621810440174077E-4</v>
+        <v>-7.3701702274365372E-4</v>
       </c>
       <c r="J45">
-        <v>2.4211734864301171E-3</v>
+        <v>3.1471949882178316E-3</v>
       </c>
       <c r="K45">
-        <v>-2.9303717788597972E-4</v>
+        <v>4.481123468610867E-4</v>
       </c>
       <c r="L45">
-        <v>5.7299415388866182E-3</v>
+        <v>5.7297244579195324E-3</v>
       </c>
       <c r="M45">
-        <v>-1.1308210514204831E-5</v>
+        <v>1.0443787633409584E-4</v>
       </c>
       <c r="N45">
-        <v>6.4610042115753608E-4</v>
+        <v>5.5429741294945917E-4</v>
       </c>
       <c r="O45">
-        <v>-1.5050607831044172E-3</v>
+        <v>-1.2008463164830889E-3</v>
       </c>
       <c r="P45">
-        <v>9.8962665178647935E-3</v>
+        <v>1.0884502188673737E-2</v>
       </c>
       <c r="Q45">
-        <v>5.0214182510859295E-3</v>
+        <v>6.0863822278438692E-3</v>
       </c>
       <c r="R45">
-        <v>3.6179418018674747E-3</v>
+        <v>3.5652315165271239E-3</v>
       </c>
       <c r="S45">
-        <v>2.0998699789918085E-3</v>
+        <v>2.0179286873072376E-3</v>
       </c>
       <c r="T45">
-        <v>1.7548664096977973E-3</v>
+        <v>1.5099668024867161E-3</v>
       </c>
       <c r="U45">
-        <v>-3.2853403786647917E-4</v>
+        <v>-4.7281479922011625E-4</v>
       </c>
       <c r="V45">
-        <v>4.1514810510379085E-4</v>
+        <v>4.7906541974767643E-4</v>
       </c>
       <c r="W45">
-        <v>7.7340921143886909E-4</v>
+        <v>6.9555333987688425E-4</v>
       </c>
       <c r="X45">
-        <v>-9.5502575108352694E-4</v>
+        <v>-8.165604759579364E-4</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8.8899161502387081E-4</v>
+        <v>5.8500626719726464E-4</v>
       </c>
       <c r="B46">
-        <v>6.8982837687925347E-4</v>
+        <v>2.9828330619086708E-4</v>
       </c>
       <c r="C46">
-        <v>-1.4685202608466508E-4</v>
+        <v>4.8609120313176336E-6</v>
       </c>
       <c r="D46">
-        <v>4.5188511468725601E-3</v>
+        <v>4.6213143416616049E-3</v>
       </c>
       <c r="E46">
-        <v>3.6926569533710651E-3</v>
+        <v>3.6363847684029592E-3</v>
       </c>
       <c r="F46">
-        <v>-2.7302524442187615E-3</v>
+        <v>-2.8542338528500244E-3</v>
       </c>
       <c r="G46">
-        <v>0.21243702670799802</v>
+        <v>0.20284408575211729</v>
       </c>
       <c r="H46">
-        <v>0.17494499862553647</v>
+        <v>0.16276091964581962</v>
       </c>
       <c r="I46">
-        <v>-2.9760955782665022E-4</v>
+        <v>-8.2729338986190469E-4</v>
       </c>
       <c r="J46">
-        <v>2.7498555496219268E-3</v>
+        <v>3.4450694622867647E-3</v>
       </c>
       <c r="K46">
-        <v>3.1865271974385045E-4</v>
+        <v>1.0212600335976259E-3</v>
       </c>
       <c r="L46">
-        <v>5.0461757691742104E-3</v>
+        <v>5.0610014486203508E-3</v>
       </c>
       <c r="M46">
-        <v>-1.1539196941678931E-4</v>
+        <v>1.1081980679920532E-5</v>
       </c>
       <c r="N46">
-        <v>4.9898087320809914E-4</v>
+        <v>4.4015163047408506E-4</v>
       </c>
       <c r="O46">
-        <v>-1.3049620158079867E-3</v>
+        <v>-1.0576185477187148E-3</v>
       </c>
       <c r="P46">
-        <v>9.2081780431747529E-3</v>
+        <v>1.0213059696079123E-2</v>
       </c>
       <c r="Q46">
-        <v>4.7687332549939399E-3</v>
+        <v>5.8057104182245951E-3</v>
       </c>
       <c r="R46">
-        <v>3.1325249081389783E-3</v>
+        <v>3.1474874701327188E-3</v>
       </c>
       <c r="S46">
-        <v>1.997625362500477E-3</v>
+        <v>1.911122953341574E-3</v>
       </c>
       <c r="T46">
-        <v>1.7061630383508053E-3</v>
+        <v>1.4628407526210718E-3</v>
       </c>
       <c r="U46">
-        <v>-3.6873085582100895E-4</v>
+        <v>-5.1908887155911081E-4</v>
       </c>
       <c r="V46">
-        <v>3.4206310130113771E-4</v>
+        <v>4.0542966935024668E-4</v>
       </c>
       <c r="W46">
-        <v>6.728144670373748E-4</v>
+        <v>6.1508522392470194E-4</v>
       </c>
       <c r="X46">
-        <v>-8.2444668369896501E-4</v>
+        <v>-7.266856070974548E-4</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8.8049451161453796E-4</v>
+        <v>6.0757610745344824E-4</v>
       </c>
       <c r="B47">
-        <v>7.171266714800506E-4</v>
+        <v>3.5352898144363565E-4</v>
       </c>
       <c r="C47">
-        <v>-1.7521203493964244E-4</v>
+        <v>-3.0340667818853996E-5</v>
       </c>
       <c r="D47">
-        <v>4.3880134842118057E-3</v>
+        <v>4.5073426055469617E-3</v>
       </c>
       <c r="E47">
-        <v>3.5830335587911932E-3</v>
+        <v>3.5476929548948701E-3</v>
       </c>
       <c r="F47">
-        <v>-2.6583582996396737E-3</v>
+        <v>-2.791708111172748E-3</v>
       </c>
       <c r="G47">
-        <v>0.21124864569373747</v>
+        <v>0.20152128715440532</v>
       </c>
       <c r="H47">
-        <v>0.17401119993931222</v>
+        <v>0.16171812067038888</v>
       </c>
       <c r="I47">
-        <v>-4.4181581106061962E-4</v>
+        <v>-9.142804943492143E-4</v>
       </c>
       <c r="J47">
-        <v>2.9953714083841287E-3</v>
+        <v>3.6592132652921881E-3</v>
       </c>
       <c r="K47">
-        <v>8.4362195465592649E-4</v>
+        <v>1.5077853508352337E-3</v>
       </c>
       <c r="L47">
-        <v>4.394734859291205E-3</v>
+        <v>4.4227965019087833E-3</v>
       </c>
       <c r="M47">
-        <v>-1.9689187352645021E-4</v>
+        <v>-6.4577820830660212E-5</v>
       </c>
       <c r="N47">
-        <v>3.7013174814504168E-4</v>
+        <v>3.3945632365438728E-4</v>
       </c>
       <c r="O47">
-        <v>-1.1163351972893754E-3</v>
+        <v>-9.2162051997824346E-4</v>
       </c>
       <c r="P47">
-        <v>8.5518963666673109E-3</v>
+        <v>9.5725132458293893E-3</v>
       </c>
       <c r="Q47">
-        <v>4.514179927394224E-3</v>
+        <v>5.526386680103859E-3</v>
       </c>
       <c r="R47">
-        <v>2.7047515940733513E-3</v>
+        <v>2.7772509872459861E-3</v>
       </c>
       <c r="S47">
-        <v>1.8994351900731843E-3</v>
+        <v>1.807323501366959E-3</v>
       </c>
       <c r="T47">
-        <v>1.6530582955822659E-3</v>
+        <v>1.4112738025777523E-3</v>
       </c>
       <c r="U47">
-        <v>-3.9281307624750017E-4</v>
+        <v>-5.4996149637659203E-4</v>
       </c>
       <c r="V47">
-        <v>2.8379173765591403E-4</v>
+        <v>3.4389206190031402E-4</v>
       </c>
       <c r="W47">
-        <v>5.8429989728336906E-4</v>
+        <v>5.4297903697655731E-4</v>
       </c>
       <c r="X47">
-        <v>-7.0160197813107228E-4</v>
+        <v>-6.4007454473231581E-4</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8.6530622630820453E-4</v>
+        <v>6.2108004866808441E-4</v>
       </c>
       <c r="B48">
-        <v>7.3468472906568216E-4</v>
+        <v>3.9800101640948031E-4</v>
       </c>
       <c r="C48">
-        <v>-2.0051572014057051E-4</v>
+        <v>-6.3806737923454619E-5</v>
       </c>
       <c r="D48">
-        <v>4.2612083046704718E-3</v>
+        <v>4.3962577280969228E-3</v>
       </c>
       <c r="E48">
-        <v>3.4767399615480699E-3</v>
+        <v>3.4610499152963564E-3</v>
       </c>
       <c r="F48">
-        <v>-2.5879149425518388E-3</v>
+        <v>-2.7301570349240584E-3</v>
       </c>
       <c r="G48">
-        <v>0.21005015381562453</v>
+        <v>0.20019630793124507</v>
       </c>
       <c r="H48">
-        <v>0.1730692799918073</v>
+        <v>0.16067442762144893</v>
       </c>
       <c r="I48">
-        <v>-5.7708271503931208E-4</v>
+        <v>-9.9664831330001044E-4</v>
       </c>
       <c r="J48">
-        <v>3.1668273668066238E-3</v>
+        <v>3.7988876564757682E-3</v>
       </c>
       <c r="K48">
-        <v>1.2874914724305686E-3</v>
+        <v>1.9135520460934557E-3</v>
       </c>
       <c r="L48">
-        <v>3.7810301707548177E-3</v>
+        <v>3.8202553040371265E-3</v>
       </c>
       <c r="M48">
-        <v>-2.584235463420903E-4</v>
+        <v>-1.2444739867967491E-4</v>
       </c>
       <c r="N48">
-        <v>2.587048053759311E-4</v>
+        <v>2.5159925153196017E-4</v>
       </c>
       <c r="O48">
-        <v>-9.408359884766071E-4</v>
+        <v>-7.940793909272933E-4</v>
       </c>
       <c r="P48">
-        <v>7.9281476691115405E-3</v>
+        <v>8.9631169241724627E-3</v>
       </c>
       <c r="Q48">
-        <v>4.2597840689306832E-3</v>
+        <v>5.2500294362824076E-3</v>
       </c>
       <c r="R48">
-        <v>2.3302087922920656E-3</v>
+        <v>2.4507096940145218E-3</v>
       </c>
       <c r="S48">
-        <v>1.8061449113959682E-3</v>
+        <v>1.7074353158417046E-3</v>
       </c>
       <c r="T48">
-        <v>1.5971464627642096E-3</v>
+        <v>1.3567107693460226E-3</v>
       </c>
       <c r="U48">
-        <v>-4.0335899146604071E-4</v>
+        <v>-5.6768230619986214E-4</v>
       </c>
       <c r="V48">
-        <v>2.385994559217508E-4</v>
+        <v>2.9324638631345935E-4</v>
       </c>
       <c r="W48">
-        <v>5.0727042695197788E-4</v>
+        <v>4.7895518685404616E-4</v>
       </c>
       <c r="X48">
-        <v>-5.8751423704272998E-4</v>
+        <v>-5.5774218670300837E-4</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8.4465835359703867E-4</v>
+        <v>6.2680250261480783E-4</v>
       </c>
       <c r="B49">
-        <v>7.4375020964501104E-4</v>
+        <v>4.3282590100822725E-4</v>
       </c>
       <c r="C49">
-        <v>-2.2256364404771301E-4</v>
+        <v>-9.5023923996369368E-5</v>
       </c>
       <c r="D49">
-        <v>4.1383321258769978E-3</v>
+        <v>4.2880225805847667E-3</v>
       </c>
       <c r="E49">
-        <v>3.3737104542812535E-3</v>
+        <v>3.3764457494909468E-3</v>
       </c>
       <c r="F49">
-        <v>-2.518950090651062E-3</v>
+        <v>-2.6696137081580755E-3</v>
       </c>
       <c r="G49">
-        <v>0.20884355146353251</v>
+        <v>0.19887044740624829</v>
       </c>
       <c r="H49">
-        <v>0.17211989019200047</v>
+        <v>0.15963018987649896</v>
       </c>
       <c r="I49">
-        <v>-7.0217349771051207E-4</v>
+        <v>-1.0734172446329555E-3</v>
       </c>
       <c r="J49">
-        <v>3.2730315029700918E-3</v>
+        <v>3.8730378770982857E-3</v>
       </c>
       <c r="K49">
-        <v>1.6561865412831889E-3</v>
+        <v>2.2446769938545947E-3</v>
       </c>
       <c r="L49">
-        <v>3.2089126193093342E-3</v>
+        <v>3.2570808197192802E-3</v>
       </c>
       <c r="M49">
-        <v>-3.0251649688728399E-4</v>
+        <v>-1.7037875589153882E-4</v>
       </c>
       <c r="N49">
-        <v>1.6365433912168825E-4</v>
+        <v>1.7583081210652043E-4</v>
       </c>
       <c r="O49">
-        <v>-7.7953516378914678E-4</v>
+        <v>-6.7582156757462755E-4</v>
       </c>
       <c r="P49">
-        <v>7.3373498277162774E-3</v>
+        <v>8.3848988599743574E-3</v>
       </c>
       <c r="Q49">
-        <v>4.0074454524854364E-3</v>
+        <v>4.9781241708742128E-3</v>
       </c>
       <c r="R49">
-        <v>2.0043986111160095E-3</v>
+        <v>2.1640623897551605E-3</v>
       </c>
       <c r="S49">
-        <v>1.7183460158247676E-3</v>
+        <v>1.6121305519353854E-3</v>
       </c>
       <c r="T49">
-        <v>1.539781859519751E-3</v>
+        <v>1.3003907281007702E-3</v>
       </c>
       <c r="U49">
-        <v>-4.0273330634743587E-4</v>
+        <v>-5.7432697437393603E-4</v>
       </c>
       <c r="V49">
-        <v>2.0481499397306813E-4</v>
+        <v>2.5230758292755086E-4</v>
       </c>
       <c r="W49">
-        <v>4.4101226698778362E-4</v>
+        <v>4.2263286285104164E-4</v>
       </c>
       <c r="X49">
-        <v>-4.8283528123460595E-4</v>
+        <v>-4.8042932918958286E-4</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8.1964995565919629E-4</v>
+        <v>6.2591689500776637E-4</v>
       </c>
       <c r="B50">
-        <v>7.4547684585546392E-4</v>
+        <v>4.5906815427890674E-4</v>
       </c>
       <c r="C50">
-        <v>-2.4127404339180369E-4</v>
+        <v>-1.2362768102108757E-4</v>
       </c>
       <c r="D50">
-        <v>4.0192781337244909E-3</v>
+        <v>4.1825944330767389E-3</v>
       </c>
       <c r="E50">
-        <v>3.2738749928213906E-3</v>
+        <v>3.2938662155428196E-3</v>
       </c>
       <c r="F50">
-        <v>-2.451487533423391E-3</v>
+        <v>-2.6101082634317598E-3</v>
       </c>
       <c r="G50">
-        <v>0.20763076688694504</v>
+        <v>0.19754497248338806</v>
       </c>
       <c r="H50">
-        <v>0.17116382689911167</v>
+        <v>0.15858586339083233</v>
       </c>
       <c r="I50">
-        <v>-8.1629463775145794E-4</v>
+        <v>-1.1439089298457582E-3</v>
       </c>
       <c r="J50">
-        <v>3.32239704906101E-3</v>
+        <v>3.8902017596971496E-3</v>
       </c>
       <c r="K50">
-        <v>1.9558013757585702E-3</v>
+        <v>2.5074034913393035E-3</v>
       </c>
       <c r="L50">
-        <v>2.6808655335349707E-3</v>
+        <v>2.7357099403945016E-3</v>
       </c>
       <c r="M50">
-        <v>-3.3157818563145369E-4</v>
+        <v>-2.0414342411697562E-4</v>
       </c>
       <c r="N50">
-        <v>8.3797685826114687E-5</v>
+        <v>1.1130647933255959E-4</v>
       </c>
       <c r="O50">
-        <v>-6.3300986177761143E-4</v>
+        <v>-5.6733483976095442E-4</v>
       </c>
       <c r="P50">
-        <v>6.7796254043148707E-3</v>
+        <v>7.837671941913385E-3</v>
       </c>
       <c r="Q50">
-        <v>3.7589027791642415E-3</v>
+        <v>4.7120022010448551E-3</v>
       </c>
       <c r="R50">
-        <v>1.7228350266301762E-3</v>
+        <v>1.9135824517525599E-3</v>
       </c>
       <c r="S50">
-        <v>1.636412102592022E-3</v>
+        <v>1.5218794006633246E-3</v>
       </c>
       <c r="T50">
-        <v>1.4820966538060532E-3</v>
+        <v>1.2433616855321114E-3</v>
       </c>
       <c r="U50">
-        <v>-3.9307948819233829E-4</v>
+        <v>-5.7179035706998022E-4</v>
       </c>
       <c r="V50">
-        <v>1.8085274336576695E-4</v>
+        <v>2.1993083322219753E-4</v>
       </c>
       <c r="W50">
-        <v>3.8473015774620478E-4</v>
+        <v>3.735568613571992E-4</v>
       </c>
       <c r="X50">
-        <v>-3.8790341377370474E-4</v>
+        <v>-4.0864087507524728E-4</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7.9125502556331995E-4</v>
+        <v>6.194888665542323E-4</v>
       </c>
       <c r="B51">
-        <v>7.4092561674166113E-4</v>
+        <v>4.777278531096618E-4</v>
       </c>
       <c r="C51">
-        <v>-2.5666122902345823E-4</v>
+        <v>-1.4938047689594646E-4</v>
       </c>
       <c r="D51">
-        <v>3.9039370381048766E-3</v>
+        <v>4.0799256572100632E-3</v>
       </c>
       <c r="E51">
-        <v>3.1771597200060953E-3</v>
+        <v>3.2132930012408072E-3</v>
       </c>
       <c r="F51">
-        <v>-2.3855464738042897E-3</v>
+        <v>-2.5516673902925471E-3</v>
       </c>
       <c r="G51">
-        <v>0.20641362946122221</v>
+        <v>0.1962210966455232</v>
       </c>
       <c r="H51">
-        <v>0.17020198648645998</v>
+        <v>0.15754197909781753</v>
       </c>
       <c r="I51">
-        <v>-9.1902720987868669E-4</v>
+        <v>-1.2077009500256577E-3</v>
       </c>
       <c r="J51">
-        <v>3.3228684885113768E-3</v>
+        <v>3.858439931714907E-3</v>
       </c>
       <c r="K51">
-        <v>2.1924816964460359E-3</v>
+        <v>2.7079916715741933E-3</v>
       </c>
       <c r="L51">
-        <v>2.1981909336792338E-3</v>
+        <v>2.2574834300563419E-3</v>
       </c>
       <c r="M51">
-        <v>-3.4786752039783764E-4</v>
+        <v>-2.2741264851230752E-4</v>
       </c>
       <c r="N51">
-        <v>1.7866465364724249E-5</v>
+        <v>5.7122527281365163E-5</v>
       </c>
       <c r="O51">
-        <v>-5.0142685181098212E-4</v>
+        <v>-4.6882468519780269E-4</v>
       </c>
       <c r="P51">
-        <v>6.2548210317869835E-3</v>
+        <v>7.3210492933742316E-3</v>
       </c>
       <c r="Q51">
-        <v>3.5157104099674541E-3</v>
+        <v>4.4528281617977018E-3</v>
       </c>
       <c r="R51">
-        <v>1.4811223754704894E-3</v>
+        <v>1.6956679548400277E-3</v>
       </c>
       <c r="S51">
-        <v>1.5605325220029442E-3</v>
+        <v>1.4369790073737931E-3</v>
       </c>
       <c r="T51">
-        <v>1.4250198277383497E-3</v>
+        <v>1.1864962215418595E-3</v>
       </c>
       <c r="U51">
-        <v>-3.7631808903859643E-4</v>
+        <v>-5.6178444985117515E-4</v>
       </c>
       <c r="V51">
-        <v>1.652290224380959E-4</v>
+        <v>1.950261485524025E-4</v>
       </c>
       <c r="W51">
-        <v>3.3757906252240844E-4</v>
+        <v>3.3122063150138359E-4</v>
       </c>
       <c r="X51">
-        <v>-3.0279603927241272E-4</v>
+        <v>-3.4268116949357148E-4</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7.6033028972921635E-4</v>
+        <v>6.0848019702873502E-4</v>
       </c>
       <c r="B52">
-        <v>7.3106666063837977E-4</v>
+        <v>4.89739072589086E-4</v>
       </c>
       <c r="C52">
-        <v>-2.6881623177099634E-4</v>
+        <v>-1.7215177134137592E-4</v>
       </c>
       <c r="D52">
-        <v>3.792197899294969E-3</v>
+        <v>3.9799644234023886E-3</v>
       </c>
       <c r="E52">
-        <v>3.0834875314835752E-3</v>
+        <v>3.1347040352046234E-3</v>
       </c>
       <c r="F52">
-        <v>-2.3211411215864342E-3</v>
+        <v>-2.494314009306798E-3</v>
       </c>
       <c r="G52">
-        <v>0.20519385013555658</v>
+        <v>0.19489996416763083</v>
       </c>
       <c r="H52">
-        <v>0.16923532714555956</v>
+        <v>0.15649911612498521</v>
       </c>
       <c r="I52">
-        <v>-1.010263934218214E-3</v>
+        <v>-1.2645854412802887E-3</v>
       </c>
       <c r="J52">
-        <v>3.2818679583885846E-3</v>
+        <v>3.7852852885793442E-3</v>
       </c>
       <c r="K52">
-        <v>2.3723245115780944E-3</v>
+        <v>2.8526252514996684E-3</v>
       </c>
       <c r="L52">
-        <v>1.7611865376698788E-3</v>
+        <v>1.8228069891950919E-3</v>
       </c>
       <c r="M52">
-        <v>-3.5347652715400635E-4</v>
+        <v>-2.4174344304934259E-4</v>
       </c>
       <c r="N52">
-        <v>-3.5450574067397156E-5</v>
+        <v>1.2345749634987056E-5</v>
       </c>
       <c r="O52">
-        <v>-3.8461783830667784E-4</v>
+        <v>-3.8026492015005202E-4</v>
       </c>
       <c r="P52">
-        <v>5.7625313656812782E-3</v>
+        <v>6.8344630671497916E-3</v>
       </c>
       <c r="Q52">
-        <v>3.2792248732771423E-3</v>
+        <v>4.2015945673433211E-3</v>
       </c>
       <c r="R52">
-        <v>1.2750176057805263E-3</v>
+        <v>1.5068801494790612E-3</v>
       </c>
       <c r="S52">
-        <v>1.4907433707338491E-3</v>
+        <v>1.3575802532428849E-3</v>
       </c>
       <c r="T52">
-        <v>1.3692966922309591E-3</v>
+        <v>1.1305076035355065E-3</v>
       </c>
       <c r="U52">
-        <v>-3.5414993674243167E-4</v>
+        <v>-5.4584027580215381E-4</v>
       </c>
       <c r="V52">
-        <v>1.5657310905825561E-4</v>
+        <v>1.7656905087615828E-4</v>
       </c>
       <c r="W52">
-        <v>2.9869077086264184E-4</v>
+        <v>2.9508585534260436E-4</v>
       </c>
       <c r="X52">
-        <v>-2.2737751016088659E-4</v>
+        <v>-2.8268637872902301E-4</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7.2762323331843071E-4</v>
+        <v>5.9375333730285874E-4</v>
       </c>
       <c r="B53">
-        <v>7.1678185293366781E-4</v>
+        <v>4.959691807296363E-4</v>
       </c>
       <c r="C53">
-        <v>-2.7788964977482067E-4</v>
+        <v>-1.9189981751775015E-4</v>
       </c>
       <c r="D53">
-        <v>3.6839489096491818E-3</v>
+        <v>3.8826553792799742E-3</v>
       </c>
       <c r="E53">
-        <v>2.9927786612082841E-3</v>
+        <v>3.0580738239140964E-3</v>
       </c>
       <c r="F53">
-        <v>-2.2582804954026647E-3</v>
+        <v>-2.4380670845252834E-3</v>
       </c>
       <c r="G53">
-        <v>0.20397300808398322</v>
+        <v>0.19358263883927224</v>
       </c>
       <c r="H53">
-        <v>0.16826483685400229</v>
+        <v>0.15545787936947575</v>
       </c>
       <c r="I53">
-        <v>-1.0901520341997095E-3</v>
+        <v>-1.314531617063165E-3</v>
       </c>
       <c r="J53">
-        <v>3.206259553543811E-3</v>
+        <v>3.677709439913504E-3</v>
       </c>
       <c r="K53">
-        <v>2.5012941856623616E-3</v>
+        <v>2.9473336547099524E-3</v>
       </c>
       <c r="L53">
-        <v>1.3693115069314254E-3</v>
+        <v>1.4313018495777502E-3</v>
       </c>
       <c r="M53">
-        <v>-3.5031900543325278E-4</v>
+        <v>-2.4856965401429929E-4</v>
       </c>
       <c r="N53">
-        <v>-7.7472267301814668E-5</v>
+        <v>-2.3962166075419359E-5</v>
       </c>
       <c r="O53">
-        <v>-2.8214693323691531E-4</v>
+        <v>-3.0144290577357807E-4</v>
       </c>
       <c r="P53">
-        <v>5.3021260377683621E-3</v>
+        <v>6.3771853495163148E-3</v>
       </c>
       <c r="Q53">
-        <v>3.0505993720937319E-3</v>
+        <v>3.9591220274707148E-3</v>
       </c>
       <c r="R53">
-        <v>1.1004781613196402E-3</v>
+        <v>1.3439718186674821E-3</v>
       </c>
       <c r="S53">
-        <v>1.4269557175814462E-3</v>
+        <v>1.2837122865532523E-3</v>
       </c>
       <c r="T53">
-        <v>1.315508447341518E-3</v>
+        <v>1.075965963194485E-3</v>
       </c>
       <c r="U53">
-        <v>-3.280632019871943E-4</v>
+        <v>-5.2531291492402446E-4</v>
       </c>
       <c r="V53">
-        <v>1.5363382073951826E-4</v>
+        <v>1.6360789876485577E-4</v>
       </c>
       <c r="W53">
-        <v>2.6719587252665988E-4</v>
+        <v>2.6459887134815395E-4</v>
       </c>
       <c r="X53">
-        <v>-1.6134217457086653E-4</v>
+        <v>-2.286538854924393E-4</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6.9378023693023039E-4</v>
+        <v>5.7607643282054255E-4</v>
       </c>
       <c r="B54">
-        <v>6.9886796395168815E-4</v>
+        <v>4.9721891623810493E-4</v>
       </c>
       <c r="C54">
-        <v>-2.8407661696439046E-4</v>
+        <v>-2.086552755096863E-4</v>
       </c>
       <c r="D54">
-        <v>3.5790781191911147E-3</v>
+        <v>3.7879402990334894E-3</v>
       </c>
       <c r="E54">
-        <v>2.9049512686136758E-3</v>
+        <v>2.9833738034669801E-3</v>
       </c>
       <c r="F54">
-        <v>-2.1969683950623375E-3</v>
+        <v>-2.3829415506360068E-3</v>
       </c>
       <c r="G54">
-        <v>0.20275254264002562</v>
+        <v>0.19227009653750393</v>
       </c>
       <c r="H54">
-        <v>0.16729150693376557</v>
+        <v>0.1544188809941546</v>
       </c>
       <c r="I54">
-        <v>-1.1590418944954495E-3</v>
+        <v>-1.3576521310826285E-3</v>
       </c>
       <c r="J54">
-        <v>3.1023291875353909E-3</v>
+        <v>3.5421039032252897E-3</v>
       </c>
       <c r="K54">
-        <v>2.5851536979679679E-3</v>
+        <v>2.9979284203233993E-3</v>
       </c>
       <c r="L54">
-        <v>1.021339557101042E-3</v>
+        <v>1.0819438231629652E-3</v>
       </c>
       <c r="M54">
-        <v>-3.4012505874736476E-4</v>
+        <v>-2.4919723437088971E-4</v>
       </c>
       <c r="N54">
-        <v>-1.0949649414726537E-4</v>
+        <v>-5.2724995630505211E-5</v>
       </c>
       <c r="O54">
-        <v>-1.9337052356693807E-4</v>
+        <v>-2.3199955456473719E-4</v>
       </c>
       <c r="P54">
-        <v>4.872778299390923E-3</v>
+        <v>5.9483501709015965E-3</v>
       </c>
       <c r="Q54">
-        <v>2.8307847237931671E-3</v>
+        <v>3.7260638900353435E-3</v>
       </c>
       <c r="R54">
-        <v>9.5369727949468075E-4</v>
+        <v>1.2039069151315353E-3</v>
       </c>
       <c r="S54">
-        <v>1.3689810144779102E-3</v>
+        <v>1.2153047554328048E-3</v>
       </c>
       <c r="T54">
-        <v>1.2640913798012132E-3</v>
+        <v>1.023314203125073E-3</v>
       </c>
       <c r="U54">
-        <v>-2.9934345853221966E-4</v>
+        <v>-5.0138897495761851E-4</v>
       </c>
       <c r="V54">
-        <v>1.5528236802642148E-4</v>
+        <v>1.552683691165857E-4</v>
       </c>
       <c r="W54">
-        <v>2.4224155849017492E-4</v>
+        <v>2.3920424286658448E-4</v>
       </c>
       <c r="X54">
-        <v>-1.0425268917468866E-4</v>
+        <v>-1.8046872476874562E-4</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6.5935472039080345E-4</v>
+        <v>5.5612872432295548E-4</v>
       </c>
       <c r="B55">
-        <v>6.7804030659179837E-4</v>
+        <v>4.9422316887824658E-4</v>
       </c>
       <c r="C55">
-        <v>-2.8760378531644815E-4</v>
+        <v>-2.2250659601432942E-4</v>
       </c>
       <c r="D55">
-        <v>3.477474097178801E-3</v>
+        <v>3.6957586959700298E-3</v>
       </c>
       <c r="E55">
-        <v>2.8199220131592817E-3</v>
+        <v>2.9105726969284604E-3</v>
       </c>
       <c r="F55">
-        <v>-2.1372035105348131E-3</v>
+        <v>-2.3289483339841606E-3</v>
       </c>
       <c r="G55">
-        <v>0.20153374966341131</v>
+        <v>0.19096322104294849</v>
       </c>
       <c r="H55">
-        <v>0.16631631063655661</v>
+        <v>0.15338272542478881</v>
       </c>
       <c r="I55">
-        <v>-1.2174414133543365E-3</v>
+        <v>-1.3941731670780097E-3</v>
       </c>
       <c r="J55">
-        <v>2.9757777631393978E-3</v>
+        <v>3.3842739226212322E-3</v>
       </c>
       <c r="K55">
-        <v>2.629409882492828E-3</v>
+        <v>3.0099527250045262E-3</v>
       </c>
       <c r="L55">
-        <v>7.1549858318920023E-4</v>
+        <v>7.7319016308695734E-4</v>
       </c>
       <c r="M55">
-        <v>-3.2444048066637698E-4</v>
+        <v>-2.4480300144899656E-4</v>
       </c>
       <c r="N55">
-        <v>-1.3277762472485577E-4</v>
+        <v>-7.4836496095648082E-5</v>
       </c>
       <c r="O55">
-        <v>-1.1748984184944966E-4</v>
+        <v>-1.714644121319177E-4</v>
       </c>
       <c r="P55">
-        <v>4.4734942726087912E-3</v>
+        <v>5.546975807319293E-3</v>
       </c>
       <c r="Q55">
-        <v>2.6205353591930436E-3</v>
+        <v>3.5029142535347294E-3</v>
       </c>
       <c r="R55">
-        <v>8.3112838003973621E-4</v>
+        <v>1.0838727648205307E-3</v>
       </c>
       <c r="S55">
-        <v>1.316553712410462E-3</v>
+        <v>1.152207747398196E-3</v>
       </c>
       <c r="T55">
-        <v>1.2153553743119438E-3</v>
+        <v>9.7288337009087441E-4</v>
       </c>
       <c r="U55">
-        <v>-2.6908596127539486E-4</v>
+        <v>-4.750958906063296E-4</v>
       </c>
       <c r="V55">
-        <v>1.6051214236756373E-4</v>
+        <v>1.5075556054703249E-4</v>
       </c>
       <c r="W55">
-        <v>2.2300569542976767E-4</v>
+        <v>2.183557645210004E-4</v>
       </c>
       <c r="X55">
-        <v>-5.5573734730862689E-5</v>
+        <v>-1.379271288606944E-4</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6.2481519882284786E-4</v>
+        <v>5.345062168439263E-4</v>
       </c>
       <c r="B56">
-        <v>6.5493678173611514E-4</v>
+        <v>4.8765237689615555E-4</v>
       </c>
       <c r="C56">
-        <v>-2.8871819396825149E-4</v>
+        <v>-2.3358710832128196E-4</v>
       </c>
       <c r="D56">
-        <v>3.379026524720663E-3</v>
+        <v>3.6060483927456426E-3</v>
       </c>
       <c r="E56">
-        <v>2.7376066051258974E-3</v>
+        <v>2.8396368698703173E-3</v>
       </c>
       <c r="F56">
-        <v>-2.0789796380125125E-3</v>
+        <v>-2.2760944492227074E-3</v>
       </c>
       <c r="G56">
-        <v>0.20031778156015267</v>
+        <v>0.18966280254578524</v>
       </c>
       <c r="H56">
-        <v>0.16534018620890287</v>
+        <v>0.15234999744923744</v>
       </c>
       <c r="I56">
-        <v>-1.2659758624293804E-3</v>
+        <v>-1.4244081015823884E-3</v>
       </c>
       <c r="J56">
-        <v>2.83172553270572E-3</v>
+        <v>3.2094429174603129E-3</v>
       </c>
       <c r="K56">
-        <v>2.6392713740597262E-3</v>
+        <v>2.9886427981561056E-3</v>
       </c>
       <c r="L56">
-        <v>4.4959639114894312E-4</v>
+        <v>5.030939593713413E-4</v>
       </c>
       <c r="M56">
-        <v>-3.0463007262326869E-4</v>
+        <v>-2.3643622210327438E-4</v>
       </c>
       <c r="N56">
-        <v>-1.4850922271936184E-4</v>
+        <v>-9.1148555675612771E-5</v>
       </c>
       <c r="O56">
-        <v>-5.3596614988049573E-5</v>
+        <v>-1.1928611508028566E-4</v>
       </c>
       <c r="P56">
-        <v>4.1031419349750742E-3</v>
+        <v>5.1719867229448784E-3</v>
       </c>
       <c r="Q56">
-        <v>2.4204191871153302E-3</v>
+        <v>3.2900184487364838E-3</v>
       </c>
       <c r="R56">
-        <v>7.2950010929073716E-4</v>
+        <v>9.8128601027527049E-4</v>
       </c>
       <c r="S56">
-        <v>1.2693511542671843E-3</v>
+        <v>1.0942094845270668E-3</v>
       </c>
       <c r="T56">
-        <v>1.1695014907762147E-3</v>
+        <v>9.2490729279121021E-4</v>
       </c>
       <c r="U56">
-        <v>-2.3820946935493303E-4</v>
+        <v>-4.4731252024396602E-4</v>
       </c>
       <c r="V56">
-        <v>1.6843603409877339E-4</v>
+        <v>1.4935413966936777E-4</v>
       </c>
       <c r="W56">
-        <v>2.0870760526858767E-4</v>
+        <v>2.0152518871778888E-4</v>
       </c>
       <c r="X56">
-        <v>-1.4701332440192338E-5</v>
+        <v>-1.0075728744232507E-4</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5.9055316686684733E-4</v>
+        <v>5.1172751534778378E-4</v>
       </c>
       <c r="B57">
-        <v>6.3012223091529762E-4</v>
+        <v>4.7811445418235072E-4</v>
       </c>
       <c r="C57">
-        <v>-2.8767788505656977E-4</v>
+        <v>-2.4206372815877486E-4</v>
       </c>
       <c r="D57">
-        <v>3.2836267160509802E-3</v>
+        <v>3.5187460456525938E-3</v>
       </c>
       <c r="E57">
-        <v>2.6579203242644844E-3</v>
+        <v>2.770530678172812E-3</v>
       </c>
       <c r="F57">
-        <v>-2.0222859772859314E-3</v>
+        <v>-2.2243831556591795E-3</v>
       </c>
       <c r="G57">
-        <v>0.19910565025244079</v>
+        <v>0.18836953834313025</v>
       </c>
       <c r="H57">
-        <v>0.16436402391107885</v>
+        <v>0.15132125304169267</v>
       </c>
       <c r="I57">
-        <v>-1.3053530014575099E-3</v>
+        <v>-1.4487345532155445E-3</v>
       </c>
       <c r="J57">
-        <v>2.6747256773052008E-3</v>
+        <v>3.0222657101906325E-3</v>
       </c>
       <c r="K57">
-        <v>2.6196179557897992E-3</v>
+        <v>2.9388999950108081E-3</v>
       </c>
       <c r="L57">
-        <v>2.2113249468369567E-4</v>
+        <v>2.6940609297627271E-4</v>
       </c>
       <c r="M57">
-        <v>-2.8188406636009411E-4</v>
+        <v>-2.2502244084443823E-4</v>
       </c>
       <c r="N57">
-        <v>-1.5781132555159338E-4</v>
+        <v>-1.024624869942427E-4</v>
       </c>
       <c r="O57">
-        <v>-7.1221827124823278E-7</v>
+        <v>-7.4858545359903132E-5</v>
       </c>
       <c r="P57">
-        <v>3.7604791490724043E-3</v>
+        <v>4.8222346501832674E-3</v>
       </c>
       <c r="Q57">
-        <v>2.230830295725017E-3</v>
+        <v>3.0875852270976336E-3</v>
       </c>
       <c r="R57">
-        <v>6.4582348766095699E-4</v>
+        <v>8.9379335798378285E-4</v>
       </c>
       <c r="S57">
-        <v>1.2270108577847605E-3</v>
+        <v>1.0410518574196954E-3</v>
       </c>
       <c r="T57">
-        <v>1.1266384259256412E-3</v>
+        <v>8.7953633564611105E-4</v>
       </c>
       <c r="U57">
-        <v>-2.0747103832063907E-4</v>
+        <v>-4.187805858860002E-4</v>
       </c>
       <c r="V57">
-        <v>1.7828181124146525E-4</v>
+        <v>1.5042690734882086E-4</v>
       </c>
       <c r="W57">
-        <v>1.9861596226955491E-4</v>
+        <v>1.8820894181241016E-4</v>
       </c>
       <c r="X57">
-        <v>1.9011993772966029E-5</v>
+        <v>-6.8637458344839513E-5</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5.5689073834552794E-4</v>
+        <v>4.8823973422514906E-4</v>
       </c>
       <c r="B58">
-        <v>6.0409300959962664E-4</v>
+        <v>4.6615716065867373E-4</v>
       </c>
       <c r="C58">
-        <v>-2.8474411830525792E-4</v>
+        <v>-2.4812718744259877E-4</v>
       </c>
       <c r="D58">
-        <v>3.191168068186423E-3</v>
+        <v>3.4337876209263383E-3</v>
       </c>
       <c r="E58">
-        <v>2.5807785002263106E-3</v>
+        <v>2.7032168034169819E-3</v>
       </c>
       <c r="F58">
-        <v>-1.9671074881449924E-3</v>
+        <v>-2.1738141594262704E-3</v>
       </c>
       <c r="G58">
-        <v>0.19789823247000463</v>
+        <v>0.1870840352833564</v>
       </c>
       <c r="H58">
-        <v>0.16338865648979528</v>
+        <v>0.15029701255840192</v>
       </c>
       <c r="I58">
-        <v>-1.3363331441500481E-3</v>
+        <v>-1.4675746070167018E-3</v>
       </c>
       <c r="J58">
-        <v>2.5087852963394663E-3</v>
+        <v>2.8268488377274715E-3</v>
       </c>
       <c r="K58">
-        <v>2.5749800052299321E-3</v>
+        <v>2.8652723034210195E-3</v>
       </c>
       <c r="L58">
-        <v>2.7396234250409712E-5</v>
+        <v>6.9665015281789822E-5</v>
       </c>
       <c r="M58">
-        <v>-2.5722691959306765E-4</v>
+        <v>-2.1136903584612985E-4</v>
       </c>
       <c r="N58">
-        <v>-1.6172166702954627E-4</v>
+        <v>-1.0952301486105423E-4</v>
       </c>
       <c r="O58">
-        <v>4.2179200249403692E-5</v>
+        <v>-3.7543014634699366E-5</v>
       </c>
       <c r="P58">
-        <v>3.4441802109956843E-3</v>
+        <v>4.4965184302765797E-3</v>
       </c>
       <c r="Q58">
-        <v>2.0520036129982877E-3</v>
+        <v>2.8957000176708624E-3</v>
       </c>
       <c r="R58">
-        <v>5.7739248721511149E-4</v>
+        <v>8.1926808767961341E-4</v>
       </c>
       <c r="S58">
-        <v>1.189145332987307E-3</v>
+        <v>9.9244390734695687E-4</v>
       </c>
       <c r="T58">
-        <v>1.0867977352020386E-3</v>
+        <v>8.3685016620378412E-4</v>
       </c>
       <c r="U58">
-        <v>-1.7748129546102387E-4</v>
+        <v>-3.9011657300645758E-4</v>
       </c>
       <c r="V58">
-        <v>1.8938602677165406E-4</v>
+        <v>1.5341211926736875E-4</v>
       </c>
       <c r="W58">
-        <v>1.9205419759793507E-4</v>
+        <v>1.7793308508940088E-4</v>
       </c>
       <c r="X58">
-        <v>4.6235929257010255E-5</v>
+        <v>-4.1211587696888024E-5</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5.2408798033054538E-4</v>
+        <v>4.64424397647601E-4</v>
       </c>
       <c r="B59">
-        <v>5.7728170009085922E-4</v>
+        <v>4.5227083221572684E-4</v>
       </c>
       <c r="C59">
-        <v>-2.8017503299015978E-4</v>
+        <v>-2.5198367870175013E-4</v>
       </c>
       <c r="D59">
-        <v>3.1015464403787441E-3</v>
+        <v>3.3511088223550471E-3</v>
       </c>
       <c r="E59">
-        <v>2.5060969506771613E-3</v>
+        <v>2.6376565722680098E-3</v>
       </c>
       <c r="F59">
-        <v>-1.9134252867111234E-3</v>
+        <v>-2.1243838494630924E-3</v>
       </c>
       <c r="G59">
-        <v>0.19669627680819243</v>
+        <v>0.18580681356527476</v>
       </c>
       <c r="H59">
-        <v>0.16241485263393049</v>
+        <v>0.14927775597581283</v>
       </c>
       <c r="I59">
-        <v>-1.3597038342902934E-3</v>
+        <v>-1.4813779844969233E-3</v>
       </c>
       <c r="J59">
-        <v>2.3373921698968125E-3</v>
+        <v>2.6267764114369005E-3</v>
       </c>
       <c r="K59">
-        <v>2.5095267641530583E-3</v>
+        <v>2.7719440926719458E-3</v>
       </c>
       <c r="L59">
-        <v>-1.3444828849240587E-4</v>
+        <v>-9.8725187827202509E-5</v>
       </c>
       <c r="M59">
-        <v>-2.3152784591884412E-4</v>
+        <v>-1.961720539938762E-4</v>
       </c>
       <c r="N59">
-        <v>-1.6119025602501225E-4</v>
+        <v>-1.1301454821138534E-4</v>
       </c>
       <c r="O59">
-        <v>7.6103135185134896E-5</v>
+        <v>-6.6868191515328284E-6</v>
       </c>
       <c r="P59">
-        <v>3.1528605337067805E-3</v>
+        <v>4.193602346127959E-3</v>
       </c>
       <c r="Q59">
-        <v>1.8840307861383021E-3</v>
+        <v>2.714338724520894E-3</v>
       </c>
       <c r="R59">
-        <v>5.2177924424745559E-4</v>
+        <v>7.558031791553121E-4</v>
       </c>
       <c r="S59">
-        <v>1.1553546009481774E-3</v>
+        <v>9.4807338512267031E-4</v>
       </c>
       <c r="T59">
-        <v>1.0499477397440948E-3</v>
+        <v>7.9686947308024801E-4</v>
       </c>
       <c r="U59">
-        <v>-1.4871979514641254E-4</v>
+        <v>-3.6182377144322342E-4</v>
       </c>
       <c r="V59">
-        <v>2.0118686174241951E-4</v>
+        <v>1.5781985430752852E-4</v>
       </c>
       <c r="W59">
-        <v>1.8840377601159197E-4</v>
+        <v>1.7025675987842817E-4</v>
       </c>
       <c r="X59">
-        <v>6.7644651574383374E-5</v>
+        <v>-1.8102614425481126E-5</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.9234989211277558E-4</v>
+        <v>4.40603258049911E-4</v>
       </c>
       <c r="B60">
-        <v>5.5006188982975601E-4</v>
+        <v>4.3689139089927667E-4</v>
       </c>
       <c r="C60">
-        <v>-2.7422060616377752E-4</v>
+        <v>-2.5384780133536414E-4</v>
       </c>
       <c r="D60">
-        <v>3.0146604661207554E-3</v>
+        <v>3.2706454705505716E-3</v>
       </c>
       <c r="E60">
-        <v>2.4337923746489132E-3</v>
+        <v>2.5738102571662776E-3</v>
       </c>
       <c r="F60">
-        <v>-1.8612170655167848E-3</v>
+        <v>-2.0760855569716963E-3</v>
       </c>
       <c r="G60">
-        <v>0.19550041206878888</v>
+        <v>0.1845383115500133</v>
       </c>
       <c r="H60">
-        <v>0.16144331297464923</v>
+        <v>0.14826391986731263</v>
       </c>
       <c r="I60">
-        <v>-1.3762587660330894E-3</v>
+        <v>-1.4906079189049664E-3</v>
       </c>
       <c r="J60">
-        <v>2.1635458295519161E-3</v>
+        <v>2.4251401527713616E-3</v>
       </c>
       <c r="K60">
-        <v>2.4270622053290669E-3</v>
+        <v>2.6627329621774858E-3</v>
       </c>
       <c r="L60">
-        <v>-2.6728978621559651E-4</v>
+        <v>-2.3842784140009257E-4</v>
       </c>
       <c r="M60">
-        <v>-2.0551252779243967E-4</v>
+        <v>-1.8002393846475886E-4</v>
       </c>
       <c r="N60">
-        <v>-1.5707677345422333E-4</v>
+        <v>-1.1355936357895224E-4</v>
       </c>
       <c r="O60">
-        <v>1.0207217641311495E-4</v>
+        <v>1.83614934138987E-5</v>
       </c>
       <c r="P60">
-        <v>2.8850992027240618E-3</v>
+        <v>3.9122327709626807E-3</v>
       </c>
       <c r="Q60">
-        <v>1.7268766640019528E-3</v>
+        <v>2.5433816344359217E-3</v>
       </c>
       <c r="R60">
-        <v>4.7682499044454651E-4</v>
+        <v>7.0170181411793842E-4</v>
       </c>
       <c r="S60">
-        <v>1.125236595599155E-3</v>
+        <v>9.0761652824627016E-4</v>
       </c>
       <c r="T60">
-        <v>1.0160060845219032E-3</v>
+        <v>7.595666043151108E-4</v>
       </c>
       <c r="U60">
-        <v>-1.215501262243901E-4</v>
+        <v>-3.3430419707026793E-4</v>
       </c>
       <c r="V60">
-        <v>2.1321625481984796E-4</v>
+        <v>1.632276857543261E-4</v>
       </c>
       <c r="W60">
-        <v>1.8710568213475831E-4</v>
+        <v>1.6477433919257045E-4</v>
       </c>
       <c r="X60">
-        <v>8.390236734212575E-5</v>
+        <v>1.0763553808157411E-6</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.6183299068691674E-4</v>
+        <v>4.170439703960506E-4</v>
       </c>
       <c r="B61">
-        <v>5.2275294855497201E-4</v>
+        <v>4.2040356152379157E-4</v>
       </c>
       <c r="C61">
-        <v>-2.6711875921459072E-4</v>
+        <v>-2.5393669429830902E-4</v>
       </c>
       <c r="D61">
-        <v>2.9304118014827907E-3</v>
+        <v>3.1923338350969615E-3</v>
       </c>
       <c r="E61">
-        <v>2.363782700065542E-3</v>
+        <v>2.5116373564261591E-3</v>
       </c>
       <c r="F61">
-        <v>-1.8104575237936071E-3</v>
+        <v>-2.0289098295307407E-3</v>
       </c>
       <c r="G61">
-        <v>0.19431115646653607</v>
+        <v>0.18327889129038222</v>
       </c>
       <c r="H61">
-        <v>0.16047466822512582</v>
+        <v>0.14725589584039564</v>
       </c>
       <c r="I61">
-        <v>-1.3867805683404066E-3</v>
+        <v>-1.4957294899731208E-3</v>
       </c>
       <c r="J61">
-        <v>1.9897916453086584E-3</v>
+        <v>2.2245723913518083E-3</v>
       </c>
       <c r="K61">
-        <v>2.3310273336925036E-3</v>
+        <v>2.5410926104855016E-3</v>
       </c>
       <c r="L61">
-        <v>-3.7400906379680965E-4</v>
+        <v>-3.5211712348749013E-4</v>
       </c>
       <c r="M61">
-        <v>-1.797755435721804E-4</v>
+        <v>-1.6342182016980392E-4</v>
       </c>
       <c r="N61">
-        <v>-1.5015029867138097E-4</v>
+        <v>-1.1171736403967688E-4</v>
       </c>
       <c r="O61">
-        <v>1.2106799406796931E-4</v>
+        <v>3.8239808020354027E-5</v>
       </c>
       <c r="P61">
-        <v>2.6394592444358711E-3</v>
+        <v>3.6511530331669218E-3</v>
       </c>
       <c r="Q61">
-        <v>1.58039587814085E-3</v>
+        <v>2.3826270908598613E-3</v>
       </c>
       <c r="R61">
-        <v>4.4062766728458769E-4</v>
+        <v>6.5546591745987135E-4</v>
       </c>
       <c r="S61">
-        <v>1.0983956387329297E-3</v>
+        <v>8.7074620563683681E-4</v>
       </c>
       <c r="T61">
-        <v>9.848509476928502E-4</v>
+        <v>7.2487512323695844E-4</v>
       </c>
       <c r="U61">
-        <v>-9.6234511015924618E-5</v>
+        <v>-3.0787018618719383E-4</v>
       </c>
       <c r="V61">
-        <v>2.2509161587214166E-4</v>
+        <v>1.6927587440093562E-4</v>
       </c>
       <c r="W61">
-        <v>1.8766042536744187E-4</v>
+        <v>1.6111649059446747E-4</v>
       </c>
       <c r="X61">
-        <v>9.5651780707139977E-5</v>
+        <v>1.671281342893151E-5</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4.3265147481452715E-4</v>
+        <v>3.9396557008766715E-4</v>
       </c>
       <c r="B62">
-        <v>4.9562474576880788E-4</v>
+        <v>4.0314422712556789E-4</v>
       </c>
       <c r="C62">
-        <v>-2.590924703266273E-4</v>
+        <v>-2.524652398000482E-4</v>
       </c>
       <c r="D62">
-        <v>2.8487053142878249E-3</v>
+        <v>3.1161109214642431E-3</v>
       </c>
       <c r="E62">
-        <v>2.2959873855084023E-3</v>
+        <v>2.4510968525094253E-3</v>
       </c>
       <c r="F62">
-        <v>-1.7611187968217257E-3</v>
+        <v>-1.9828447124188679E-3</v>
       </c>
       <c r="G62">
-        <v>0.19312892734685785</v>
+        <v>0.18202884452608867</v>
       </c>
       <c r="H62">
-        <v>0.15950947909003554</v>
+        <v>0.14625403018175848</v>
       </c>
       <c r="I62">
-        <v>-1.3920270689106173E-3</v>
+        <v>-1.4972001723808459E-3</v>
       </c>
       <c r="J62">
-        <v>1.8182568036364533E-3</v>
+        <v>2.0272809670026869E-3</v>
       </c>
       <c r="K62">
-        <v>2.224507835175249E-3</v>
+        <v>2.4101207170923555E-3</v>
       </c>
       <c r="L62">
-        <v>-4.574290997308994E-4</v>
+        <v>-4.4243111818253832E-4</v>
       </c>
       <c r="M62">
-        <v>-1.547931155125859E-4</v>
+        <v>-1.4677609745887641E-4</v>
       </c>
       <c r="N62">
-        <v>-1.4109092468350681E-4</v>
+        <v>-1.0798711286988917E-4</v>
       </c>
       <c r="O62">
-        <v>1.3402735815415401E-4</v>
+        <v>5.3562749156541577E-5</v>
       </c>
       <c r="P62">
-        <v>2.4145055329165555E-3</v>
+        <v>3.4091164606478304E-3</v>
       </c>
       <c r="Q62">
-        <v>1.4443491174001011E-3</v>
+        <v>2.2318046653732734E-3</v>
       </c>
       <c r="R62">
-        <v>4.1152707331815197E-4</v>
+        <v>6.1578331456421708E-4</v>
       </c>
       <c r="S62">
-        <v>1.0744491813454715E-3</v>
+        <v>8.3713858266349283E-4</v>
       </c>
       <c r="T62">
-        <v>9.5633092878011361E-4</v>
+        <v>6.9269830095155594E-4</v>
       </c>
       <c r="U62">
-        <v>-7.2947695386904599E-5</v>
+        <v>-2.8275550085012097E-4</v>
       </c>
       <c r="V62">
-        <v>2.3650737253566589E-4</v>
+        <v>1.756622694877993E-4</v>
       </c>
       <c r="W62">
-        <v>1.8962684351198078E-4</v>
+        <v>1.5895033693531004E-4</v>
       </c>
       <c r="X62">
-        <v>1.035051731411718E-4</v>
+        <v>2.9187361813492859E-5</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4.0488294935436819E-4</v>
+        <v>3.7154371217063952E-4</v>
       </c>
       <c r="B63">
-        <v>4.6890225811968556E-4</v>
+        <v>3.854058623600728E-4</v>
       </c>
       <c r="C63">
-        <v>-2.5034775765309103E-4</v>
+        <v>-2.4964222466307867E-4</v>
       </c>
       <c r="D63">
-        <v>2.7694492191288056E-3</v>
+        <v>3.0419147150757982E-3</v>
       </c>
       <c r="E63">
-        <v>2.2303276772055458E-3</v>
+        <v>2.3921474478035927E-3</v>
       </c>
       <c r="F63">
-        <v>-1.7131708753375108E-3</v>
+        <v>-1.9378760309331643E-3</v>
       </c>
       <c r="G63">
-        <v>0.19195405111796893</v>
+        <v>0.18078839893322046</v>
       </c>
       <c r="H63">
-        <v>0.15854823761025871</v>
+        <v>0.1452586244831913</v>
       </c>
       <c r="I63">
-        <v>-1.3927206564177119E-3</v>
+        <v>-1.4954623565451813E-3</v>
       </c>
       <c r="J63">
-        <v>1.6506872114210314E-3</v>
+        <v>1.8350851247616047E-3</v>
       </c>
       <c r="K63">
-        <v>2.1102460704012227E-3</v>
+        <v>2.2725709080751414E-3</v>
       </c>
       <c r="L63">
-        <v>-5.2027497687723301E-4</v>
+        <v>-5.1193365044309306E-4</v>
       </c>
       <c r="M63">
-        <v>-1.3093585483558989E-4</v>
+        <v>-1.3041907663998613E-4</v>
       </c>
       <c r="N63">
-        <v>-1.3049286878552557E-4</v>
+        <v>-1.0280787499148783E-4</v>
       </c>
       <c r="O63">
-        <v>1.4183170969972458E-4</v>
+        <v>6.4914295449077945E-5</v>
       </c>
       <c r="P63">
-        <v>2.2088203311512178E-3</v>
+        <v>3.184897618816187E-3</v>
       </c>
       <c r="Q63">
-        <v>1.3184187787795842E-3</v>
+        <v>2.0905876235469828E-3</v>
       </c>
       <c r="R63">
-        <v>3.8808828413050556E-4</v>
+        <v>5.815139993249227E-4</v>
       </c>
       <c r="S63">
-        <v>1.0530330030156243E-3</v>
+        <v>8.0647845892856758E-4</v>
       </c>
       <c r="T63">
-        <v>9.3027366500519904E-4</v>
+        <v>6.6291658195937538E-4</v>
       </c>
       <c r="U63">
-        <v>-5.1789981961314346E-5</v>
+        <v>-2.5912582390034419E-4</v>
       </c>
       <c r="V63">
-        <v>2.4722655432563023E-4</v>
+        <v>1.8213707310745089E-4</v>
       </c>
       <c r="W63">
-        <v>1.9261995625940997E-4</v>
+        <v>1.5797888350093991E-4</v>
       </c>
       <c r="X63">
-        <v>1.0803778207879589E-4</v>
+        <v>3.8867784413756693E-5</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3.7857370025595749E-4</v>
+        <v>3.499156387120068E-4</v>
       </c>
       <c r="B64">
-        <v>4.4277002434589541E-4</v>
+        <v>3.6743999085030806E-4</v>
       </c>
       <c r="C64">
-        <v>-2.4107240654258622E-4</v>
+        <v>-2.4566734970639674E-4</v>
       </c>
       <c r="D64">
-        <v>2.6925551635188505E-3</v>
+        <v>2.9696843852841134E-3</v>
       </c>
       <c r="E64">
-        <v>2.1667268229532688E-3</v>
+        <v>2.3347477777115192E-3</v>
       </c>
       <c r="F64">
-        <v>-1.6665820079049265E-3</v>
+        <v>-1.8939876685959353E-3</v>
       </c>
       <c r="G64">
-        <v>0.19078677315315451</v>
+        <v>0.17955772445280127</v>
       </c>
       <c r="H64">
-        <v>0.15759136964324125</v>
+        <v>0.14426993704585406</v>
       </c>
       <c r="I64">
-        <v>-1.3895403699606401E-3</v>
+        <v>-1.4909376083447397E-3</v>
       </c>
       <c r="J64">
-        <v>1.4884845111946543E-3</v>
+        <v>1.649451630590669E-3</v>
       </c>
       <c r="K64">
-        <v>1.9906564992924203E-3</v>
+        <v>2.1308679588427416E-3</v>
       </c>
       <c r="L64">
-        <v>-5.6514268314189486E-4</v>
+        <v>-5.6308405450870619E-4</v>
       </c>
       <c r="M64">
-        <v>-1.0848124248430402E-4</v>
+        <v>-1.1461348910773646E-4</v>
       </c>
       <c r="N64">
-        <v>-1.1886873078492677E-4</v>
+        <v>-9.6562431434381901E-5</v>
       </c>
       <c r="O64">
-        <v>1.4529982130784269E-4</v>
+        <v>7.2842402977507501E-5</v>
       </c>
       <c r="P64">
-        <v>2.0210165186138607E-3</v>
+        <v>2.9773017962451817E-3</v>
       </c>
       <c r="Q64">
-        <v>1.2022237540840752E-3</v>
+        <v>1.9586045383757356E-3</v>
       </c>
       <c r="R64">
-        <v>3.6908398112711627E-4</v>
+        <v>5.5167593175016124E-4</v>
       </c>
       <c r="S64">
-        <v>1.0338050559488554E-3</v>
+        <v>7.7846342807975737E-4</v>
       </c>
       <c r="T64">
-        <v>9.0649324166758305E-4</v>
+        <v>6.3539407271964482E-4</v>
       </c>
       <c r="U64">
-        <v>-3.2799304109154548E-5</v>
+        <v>-2.3708855755166664E-4</v>
       </c>
       <c r="V64">
-        <v>2.570725788888506E-4</v>
+        <v>1.8849759627320877E-4</v>
       </c>
       <c r="W64">
-        <v>1.9630809128790006E-4</v>
+        <v>1.5793986224263979E-4</v>
       </c>
       <c r="X64">
-        <v>1.0978317847842867E-4</v>
+        <v>4.6104494144072792E-5</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3.5374351830830264E-4</v>
+        <v>3.2918484973662438E-4</v>
       </c>
       <c r="B65">
-        <v>4.1737641315586771E-4</v>
+        <v>3.4946061941270478E-4</v>
       </c>
       <c r="C65">
-        <v>-2.3143532354941154E-4</v>
+        <v>-2.407289825250628E-4</v>
       </c>
       <c r="D65">
-        <v>2.617938270579323E-3</v>
+        <v>2.8993604522476193E-3</v>
       </c>
       <c r="E65">
-        <v>2.1051102452334103E-3</v>
+        <v>2.2788566012524689E-3</v>
       </c>
       <c r="F65">
-        <v>-1.6213190808478384E-3</v>
+        <v>-1.8511618371308432E-3</v>
       </c>
       <c r="G65">
-        <v>0.18962726746644298</v>
+        <v>0.17833693955596144</v>
       </c>
       <c r="H65">
-        <v>0.15663923821360917</v>
+        <v>0.14328818488433673</v>
       </c>
       <c r="I65">
-        <v>-1.3831163600165342E-3</v>
+        <v>-1.4840224452569188E-3</v>
       </c>
       <c r="J65">
-        <v>1.3327425328095721E-3</v>
+        <v>1.4715304642878393E-3</v>
       </c>
       <c r="K65">
-        <v>1.8678437137731319E-3</v>
+        <v>1.9871254711376573E-3</v>
       </c>
       <c r="L65">
-        <v>-5.9447580245886034E-4</v>
+        <v>-5.9821402902301133E-4</v>
       </c>
       <c r="M65">
-        <v>-8.7625639899613361E-5</v>
+        <v>-9.9560739311241881E-5</v>
       </c>
       <c r="N65">
-        <v>-1.0665459450343029E-4</v>
+        <v>-8.9580462361299617E-5</v>
       </c>
       <c r="O65">
-        <v>1.4518311074862567E-4</v>
+        <v>7.7855356815339502E-5</v>
       </c>
       <c r="P65">
-        <v>1.8497486008219877E-3</v>
+        <v>2.7851728225766399E-3</v>
       </c>
       <c r="Q65">
-        <v>1.0953331784371301E-3</v>
+        <v>1.8354499525409481E-3</v>
       </c>
       <c r="R65">
-        <v>3.5347622855586014E-4</v>
+        <v>5.2543071452530569E-4</v>
       </c>
       <c r="S65">
-        <v>1.0164481324470565E-3</v>
+        <v>7.5280700343171626E-4</v>
       </c>
       <c r="T65">
-        <v>8.8479647453776344E-4</v>
+        <v>6.0998411273698819E-4</v>
       </c>
       <c r="U65">
-        <v>-1.5962277318370965E-5</v>
+        <v>-2.167018694364607E-4</v>
       </c>
       <c r="V65">
-        <v>2.6592136938852207E-4</v>
+        <v>1.945831102513854E-4</v>
       </c>
       <c r="W65">
-        <v>2.0040947826482913E-4</v>
+        <v>1.5860412642316747E-4</v>
       </c>
       <c r="X65">
-        <v>1.0923035955989757E-4</v>
+        <v>5.1227181370554801E-5</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3.3039007643531626E-4</v>
+        <v>3.0942546085160796E-4</v>
       </c>
       <c r="B66">
-        <v>3.9283767673836678E-4</v>
+        <v>3.3164760885639956E-4</v>
       </c>
       <c r="C66">
-        <v>-2.2158640987279821E-4</v>
+        <v>-2.35002555006523E-4</v>
       </c>
       <c r="D66">
-        <v>2.5455171436468138E-3</v>
+        <v>2.8308849198447244E-3</v>
       </c>
       <c r="E66">
-        <v>2.045405676207368E-3</v>
+        <v>2.2244329696980225E-3</v>
       </c>
       <c r="F66">
-        <v>-1.5773479718069749E-3</v>
+        <v>-1.8093793349663199E-3</v>
       </c>
       <c r="G66">
-        <v>0.18847564600721434</v>
+        <v>0.1771261173324287</v>
       </c>
       <c r="H66">
-        <v>0.15569214750154078</v>
+        <v>0.14231354617455938</v>
       </c>
       <c r="I66">
-        <v>-1.3740263846805378E-3</v>
+        <v>-1.4750854194455197E-3</v>
       </c>
       <c r="J66">
-        <v>1.1842826349011126E-3</v>
+        <v>1.3021895642105997E-3</v>
       </c>
       <c r="K66">
-        <v>1.743622346932483E-3</v>
+        <v>1.8431653449126077E-3</v>
       </c>
       <c r="L66">
-        <v>-6.1054913645175457E-4</v>
+        <v>-6.1951074970038834E-4</v>
       </c>
       <c r="M66">
-        <v>-6.8495673334556528E-5</v>
+        <v>-8.5408771601433686E-5</v>
       </c>
       <c r="N66">
-        <v>-9.4215709355083277E-5</v>
+        <v>-8.2142322527904992E-5</v>
       </c>
       <c r="O66">
-        <v>1.4216320060556065E-4</v>
+        <v>8.041959055132925E-5</v>
       </c>
       <c r="P66">
-        <v>1.6937216293240187E-3</v>
+        <v>2.607399325606506E-3</v>
       </c>
       <c r="Q66">
-        <v>9.97279023782216E-4</v>
+        <v>1.7206940312010813E-3</v>
       </c>
       <c r="R66">
-        <v>3.4039814892039555E-4</v>
+        <v>5.0206943482034277E-4</v>
       </c>
       <c r="S66">
-        <v>1.0006715245565179E-3</v>
+        <v>7.2924084591465183E-4</v>
       </c>
       <c r="T66">
-        <v>8.6498815039748322E-4</v>
+        <v>5.8653399443864523E-4</v>
       </c>
       <c r="U66">
-        <v>-1.2241974032267677E-6</v>
+        <v>-1.979829553735327E-4</v>
       </c>
       <c r="V66">
-        <v>2.7369390061093846E-4</v>
+        <v>2.0026987491211123E-4</v>
       </c>
       <c r="W66">
-        <v>2.0468847989829619E-4</v>
+        <v>1.5977371238829616E-4</v>
       </c>
       <c r="X66">
-        <v>1.0682229180314362E-4</v>
+        <v>5.454249886297407E-5</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3.0849287101153422E-4</v>
+        <v>2.906862376041034E-4</v>
       </c>
       <c r="B67">
-        <v>3.6924176936148356E-4</v>
+        <v>3.1414994755805877E-4</v>
       </c>
       <c r="C67">
-        <v>-2.116568570079691E-4</v>
+        <v>-2.2864951357087865E-4</v>
       </c>
       <c r="D67">
-        <v>2.4752138380423894E-3</v>
+        <v>2.7642013778139659E-3</v>
       </c>
       <c r="E67">
-        <v>1.9875432575460206E-3</v>
+        <v>2.1714363740273201E-3</v>
       </c>
       <c r="F67">
-        <v>-1.5346338742661114E-3</v>
+        <v>-1.7686197917965174E-3</v>
       </c>
       <c r="G67">
-        <v>0.1873319674566146</v>
+        <v>0.17592529131474985</v>
       </c>
       <c r="H67">
-        <v>0.15475034726762305</v>
+        <v>0.14134616301090139</v>
       </c>
       <c r="I67">
-        <v>-1.3627940274555383E-3</v>
+        <v>-1.4644653129516686E-3</v>
       </c>
       <c r="J67">
-        <v>1.0436875055350736E-3</v>
+        <v>1.1420482055197274E-3</v>
       </c>
       <c r="K67">
-        <v>1.6195382163848304E-3</v>
+        <v>1.7005384473325717E-3</v>
       </c>
       <c r="L67">
-        <v>-6.1545833318876753E-4</v>
+        <v>-6.2900544109207809E-4</v>
       </c>
       <c r="M67">
-        <v>-5.1158878101587035E-5</v>
+        <v>-7.2259473422463369E-5</v>
       </c>
       <c r="N67">
-        <v>-8.1852527221037974E-5</v>
+        <v>-7.4483059288060923E-5</v>
       </c>
       <c r="O67">
-        <v>1.3685134880270233E-4</v>
+        <v>8.095873485601082E-5</v>
       </c>
       <c r="P67">
-        <v>1.5516981840442146E-3</v>
+        <v>2.4429195498823475E-3</v>
       </c>
       <c r="Q67">
-        <v>9.0756746872555638E-4</v>
+        <v>1.6138911805856702E-3</v>
       </c>
       <c r="R67">
-        <v>3.2913586546068352E-4</v>
+        <v>4.8099890090608124E-4</v>
       </c>
       <c r="S67">
-        <v>9.8621183311875527E-4</v>
+        <v>7.0751622231893002E-4</v>
       </c>
       <c r="T67">
-        <v>8.4687531673433014E-4</v>
+        <v>5.6488890219937189E-4</v>
       </c>
       <c r="U67">
-        <v>1.1502017783326934E-5</v>
+        <v>-1.8091550921247177E-4</v>
       </c>
       <c r="V67">
-        <v>2.8034924402131622E-4</v>
+        <v>2.0546640664340896E-4</v>
       </c>
       <c r="W67">
-        <v>2.0895160457401474E-4</v>
+        <v>1.6127966945034012E-4</v>
       </c>
       <c r="X67">
-        <v>1.0295565991036426E-4</v>
+        <v>5.6332629984185345E-5</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2.8801674237799446E-4</v>
+        <v>2.7299430269964859E-4</v>
       </c>
       <c r="B68">
-        <v>3.4665191671412465E-4</v>
+        <v>2.9708890015355227E-4</v>
       </c>
       <c r="C68">
-        <v>-2.0175977752834307E-4</v>
+        <v>-2.2181673720778506E-4</v>
       </c>
       <c r="D68">
-        <v>2.4069538050210948E-3</v>
+        <v>2.6992550762970284E-3</v>
       </c>
       <c r="E68">
-        <v>1.9314556082352663E-3</v>
+        <v>2.1198268721887782E-3</v>
       </c>
       <c r="F68">
-        <v>-1.4931415914748447E-3</v>
+        <v>-1.7288618974047321E-3</v>
       </c>
       <c r="G68">
-        <v>0.18619624544119961</v>
+        <v>0.17473446097306261</v>
       </c>
       <c r="H68">
-        <v>0.15381403754226008</v>
+        <v>0.14038614435779823</v>
       </c>
       <c r="I68">
-        <v>-1.3498883473614942E-3</v>
+        <v>-1.452470265760277E-3</v>
       </c>
       <c r="J68">
-        <v>9.1133309520841088E-4</v>
+        <v>9.9150868963798419E-4</v>
       </c>
       <c r="K68">
-        <v>1.496890145711971E-3</v>
+        <v>1.5605459596882648E-3</v>
       </c>
       <c r="L68">
-        <v>-6.1111464771690382E-4</v>
+        <v>-6.2856664965655891E-4</v>
       </c>
       <c r="M68">
-        <v>-3.5633526088707512E-5</v>
+        <v>-6.0175557627477619E-5</v>
       </c>
       <c r="N68">
-        <v>-6.980690539037937E-5</v>
+        <v>-6.6796547333461176E-5</v>
       </c>
       <c r="O68">
-        <v>1.2978940806052108E-4</v>
+        <v>7.9853677980295599E-5</v>
       </c>
       <c r="P68">
-        <v>1.4225035853414614E-3</v>
+        <v>2.2907248686748639E-3</v>
       </c>
       <c r="Q68">
-        <v>8.2568901630408753E-4</v>
+        <v>1.5145876350795646E-3</v>
       </c>
       <c r="R68">
-        <v>3.1911100680137583E-4</v>
+        <v>4.6172845266670377E-4</v>
       </c>
       <c r="S68">
-        <v>9.7283307091777793E-4</v>
+        <v>6.8740481238063896E-4</v>
       </c>
       <c r="T68">
-        <v>8.3027071366581495E-4</v>
+        <v>5.4489514277865673E-4</v>
       </c>
       <c r="U68">
-        <v>2.2327924363296781E-5</v>
+        <v>-1.6545640734037066E-4</v>
       </c>
       <c r="V68">
-        <v>2.8587815845759756E-4</v>
+        <v>2.1010903165799962E-4</v>
       </c>
       <c r="W68">
-        <v>2.1304342225025863E-4</v>
+        <v>1.6297974416703301E-4</v>
       </c>
       <c r="X68">
-        <v>9.7981599110341655E-5</v>
+        <v>5.6854598970451798E-5</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2.6891499352732495E-4</v>
+        <v>2.5635851746014335E-4</v>
       </c>
       <c r="B69">
-        <v>3.2510992718837173E-4</v>
+        <v>2.8056100940255125E-4</v>
       </c>
       <c r="C69">
-        <v>-1.9199109383727375E-4</v>
+        <v>-2.1463634569412042E-4</v>
       </c>
       <c r="D69">
-        <v>2.3406658126301494E-3</v>
+        <v>2.635992975891838E-3</v>
       </c>
       <c r="E69">
-        <v>1.8770778635845975E-3</v>
+        <v>2.0695651973113246E-3</v>
       </c>
       <c r="F69">
-        <v>-1.4528357991168139E-3</v>
+        <v>-1.6900836135387129E-3</v>
       </c>
       <c r="G69">
-        <v>0.18506845610726344</v>
+        <v>0.17355359683458529</v>
       </c>
       <c r="H69">
-        <v>0.15288337343489466</v>
+        <v>0.13943356909933993</v>
       </c>
       <c r="I69">
-        <v>-1.3357246978187298E-3</v>
+        <v>-1.4393776736535552E-3</v>
       </c>
       <c r="J69">
-        <v>7.8741844703267283E-4</v>
+        <v>8.5078610766131722E-4</v>
       </c>
       <c r="K69">
-        <v>1.3767519896372704E-3</v>
+        <v>1.4242609575145883E-3</v>
       </c>
       <c r="L69">
-        <v>-5.9924401626565427E-4</v>
+        <v>-6.1989750825866693E-4</v>
       </c>
       <c r="M69">
-        <v>-2.1897591272912464E-5</v>
+        <v>-4.9186888208276561E-5</v>
       </c>
       <c r="N69">
-        <v>-5.8268318885223991E-5</v>
+        <v>-5.923963625161756E-5</v>
       </c>
       <c r="O69">
-        <v>1.2145200609692264E-4</v>
+        <v>7.7443442921762971E-5</v>
       </c>
       <c r="P69">
-        <v>1.3050295118435251E-3</v>
+        <v>2.149862125837797E-3</v>
       </c>
       <c r="Q69">
-        <v>7.5112736420757109E-4</v>
+        <v>1.4223280373989854E-3</v>
       </c>
       <c r="R69">
-        <v>3.0986400317056795E-4</v>
+        <v>4.438574806563882E-4</v>
       </c>
       <c r="S69">
-        <v>9.6032619152763843E-4</v>
+        <v>6.6869897330947838E-4</v>
       </c>
       <c r="T69">
-        <v>8.1499544096441667E-4</v>
+        <v>5.264027395383053E-4</v>
       </c>
       <c r="U69">
-        <v>3.1382649874123203E-5</v>
+        <v>-1.5154162921331935E-4</v>
       </c>
       <c r="V69">
-        <v>2.9029725314400068E-4</v>
+        <v>2.1415775614414275E-4</v>
       </c>
       <c r="W69">
-        <v>2.1684248428610609E-4</v>
+        <v>1.6475599170943068E-4</v>
       </c>
       <c r="X69">
-        <v>9.220721027469736E-5</v>
+        <v>5.6340194738830258E-5</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2.5113212885430336E-4</v>
+        <v>2.4077254335406196E-4</v>
       </c>
       <c r="B70">
-        <v>3.0463924121182373E-4</v>
+        <v>2.6464093451882627E-4</v>
       </c>
       <c r="C70">
-        <v>-1.82430617292062E-4</v>
+        <v>-2.0722582774598803E-4</v>
       </c>
       <c r="D70">
-        <v>2.2762818478669899E-3</v>
+        <v>2.574363776208977E-3</v>
       </c>
       <c r="E70">
-        <v>1.8243476886681265E-3</v>
+        <v>2.0206128481173456E-3</v>
       </c>
       <c r="F70">
-        <v>-1.4136812768232865E-3</v>
+        <v>-1.6522623681275053E-3</v>
       </c>
       <c r="G70">
-        <v>0.18394854502311628</v>
+        <v>0.17238264519844221</v>
       </c>
       <c r="H70">
-        <v>0.15195846994326237</v>
+        <v>0.13848848910708481</v>
       </c>
       <c r="I70">
-        <v>-1.320666476900545E-3</v>
+        <v>-1.425434709021615E-3</v>
       </c>
       <c r="J70">
-        <v>6.7199326879419097E-4</v>
+        <v>7.1993601489263445E-4</v>
       </c>
       <c r="K70">
-        <v>1.2599944651379147E-3</v>
+        <v>1.2925498489876964E-3</v>
       </c>
       <c r="L70">
-        <v>-5.8138968929632995E-4</v>
+        <v>-6.0453633509813048E-4</v>
       </c>
       <c r="M70">
-        <v>-9.8968342516769781E-6</v>
+        <v>-3.929623175608045E-5</v>
       </c>
       <c r="N70">
-        <v>-4.7379954976056737E-5</v>
+        <v>-5.1936226705399264E-5</v>
       </c>
       <c r="O70">
-        <v>1.1224967195011537E-4</v>
+        <v>7.402670745975877E-5</v>
       </c>
       <c r="P70">
-        <v>1.1982362031910387E-3</v>
+        <v>2.0194349447356431E-3</v>
       </c>
       <c r="Q70">
-        <v>6.8336705841387513E-4</v>
+        <v>1.3366610535246932E-3</v>
       </c>
       <c r="R70">
-        <v>3.0103834557793085E-4</v>
+        <v>4.2706374966146803E-4</v>
       </c>
       <c r="S70">
-        <v>9.4850816217517675E-4</v>
+        <v>6.5121156018760123E-4</v>
       </c>
       <c r="T70">
-        <v>8.0088095098762579E-4</v>
+        <v>5.0926746146329324E-4</v>
       </c>
       <c r="U70">
-        <v>3.8806942390001709E-5</v>
+        <v>-1.39091445992831E-4</v>
       </c>
       <c r="V70">
-        <v>2.9364373299722857E-4</v>
+        <v>2.1759247248966877E-4</v>
       </c>
       <c r="W70">
-        <v>2.2025732880615045E-4</v>
+        <v>1.6651237458477678E-4</v>
       </c>
       <c r="X70">
-        <v>8.5897679310997788E-5</v>
+        <v>5.4996392343285654E-5</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2.3460623700444216E-4</v>
+        <v>2.2621759312143575E-4</v>
       </c>
       <c r="B71">
-        <v>2.852477189951852E-4</v>
+        <v>2.4938411399873597E-4</v>
       </c>
       <c r="C71">
-        <v>-1.7314325918982298E-4</v>
+        <v>-1.99688426138149E-4</v>
       </c>
       <c r="D71">
-        <v>2.2137370041586113E-3</v>
+        <v>2.5143179257794009E-3</v>
       </c>
       <c r="E71">
-        <v>1.7732052693772982E-3</v>
+        <v>1.9729321628636433E-3</v>
       </c>
       <c r="F71">
-        <v>-1.3756431092523114E-3</v>
+        <v>-1.6153752315522134E-3</v>
       </c>
       <c r="G71">
-        <v>0.18283643339651867</v>
+        <v>0.17122153243029742</v>
       </c>
       <c r="H71">
-        <v>0.15103940666554758</v>
+        <v>0.13755093226134824</v>
       </c>
       <c r="I71">
-        <v>-1.3050275975456938E-3</v>
+        <v>-1.4108593338297297E-3</v>
       </c>
       <c r="J71">
-        <v>5.6498316024677919E-4</v>
+        <v>5.9887991798908077E-4</v>
       </c>
       <c r="K71">
-        <v>1.1473064614690998E-3</v>
+        <v>1.1660933612518726E-3</v>
       </c>
       <c r="L71">
-        <v>-5.5891773547500634E-4</v>
+        <v>-5.8385996593733928E-4</v>
       </c>
       <c r="M71">
-        <v>4.4799156362351766E-7</v>
+        <v>-3.0484431833685782E-5</v>
       </c>
       <c r="N71">
-        <v>-3.7244589150553509E-5</v>
+        <v>-4.4981208624265611E-5</v>
       </c>
       <c r="O71">
-        <v>1.0253266653958981E-4</v>
+        <v>6.9863814012463953E-5</v>
       </c>
       <c r="P71">
-        <v>1.1011534253626554E-3</v>
+        <v>1.8986041388921659E-3</v>
       </c>
       <c r="Q71">
-        <v>6.2189998182549111E-4</v>
+        <v>1.2571440768781247E-3</v>
       </c>
       <c r="R71">
-        <v>2.9236592874148926E-4</v>
+        <v>4.1109258946708517E-4</v>
       </c>
       <c r="S71">
-        <v>9.3722068578028228E-4</v>
+        <v>6.3477539051407742E-4</v>
       </c>
       <c r="T71">
-        <v>7.8777045479427876E-4</v>
+        <v>4.9335235551130287E-4</v>
       </c>
       <c r="U71">
-        <v>4.4748111682757497E-5</v>
+        <v>-1.2801491740341398E-4</v>
       </c>
       <c r="V71">
-        <v>2.959707224565733E-4</v>
+        <v>2.2040951057179672E-4</v>
       </c>
       <c r="W71">
-        <v>2.2322263608320903E-4</v>
+        <v>1.6817239773737709E-4</v>
       </c>
       <c r="X71">
-        <v>7.92788437612435E-5</v>
+        <v>5.3006168724237646E-5</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2.1927104329666491E-4</v>
+        <v>2.1266488399745826E-4</v>
       </c>
       <c r="B72">
-        <v>2.6693017069967517E-4</v>
+        <v>2.3482924520853781E-4</v>
       </c>
       <c r="C72">
-        <v>-1.6418032361864565E-4</v>
+        <v>-1.9211372390202477E-4</v>
       </c>
       <c r="D72">
-        <v>2.1529693578037357E-3</v>
+        <v>2.4558076159892956E-3</v>
       </c>
       <c r="E72">
-        <v>1.7235932841588308E-3</v>
+        <v>1.926486378175468E-3</v>
       </c>
       <c r="F72">
-        <v>-1.3386868579359223E-3</v>
+        <v>-1.5793990750375393E-3</v>
       </c>
       <c r="G72">
-        <v>0.18173202361085039</v>
+        <v>0.17007016883269863</v>
       </c>
       <c r="H72">
-        <v>0.15012623233861433</v>
+        <v>0.13662090537467117</v>
       </c>
       <c r="I72">
-        <v>-1.2890754916888847E-3</v>
+        <v>-1.3958416894829329E-3</v>
       </c>
       <c r="J72">
-        <v>4.6621246706601838E-4</v>
+        <v>4.8742853100922827E-4</v>
       </c>
       <c r="K72">
-        <v>1.0392155667022784E-3</v>
+        <v>1.0454068234061723E-3</v>
       </c>
       <c r="L72">
-        <v>-5.3302479712791229E-4</v>
+        <v>-5.5908927569888584E-4</v>
       </c>
       <c r="M72">
-        <v>9.2347920088720059E-6</v>
+        <v>-2.2715015465652703E-5</v>
       </c>
       <c r="N72">
-        <v>-2.7930165253042816E-5</v>
+        <v>-3.8444210319459012E-5</v>
       </c>
       <c r="O72">
-        <v>9.2595307023657369E-5</v>
+        <v>6.5179136044207929E-5</v>
       </c>
       <c r="P72">
-        <v>1.0128803711308976E-3</v>
+        <v>1.7865873539920113E-3</v>
       </c>
       <c r="Q72">
-        <v>5.6623074504136284E-4</v>
+        <v>1.1833470853771777E-3</v>
       </c>
       <c r="R72">
-        <v>2.8365355497850242E-4</v>
+        <v>3.9574698731359692E-4</v>
       </c>
       <c r="S72">
-        <v>9.2632866451802798E-4</v>
+        <v>6.1924243122692449E-4</v>
       </c>
       <c r="T72">
-        <v>7.7551982410306586E-4</v>
+        <v>4.7852884744562093E-4</v>
       </c>
       <c r="U72">
-        <v>4.9355795985639439E-5</v>
+        <v>-1.1821374264304359E-4</v>
       </c>
       <c r="V72">
-        <v>2.9734315303442393E-4</v>
+        <v>2.2261853466008143E-4</v>
       </c>
       <c r="W72">
-        <v>2.2569558322960148E-4</v>
+        <v>1.6967681898822029E-4</v>
       </c>
       <c r="X72">
-        <v>7.2540070137794288E-5</v>
+        <v>5.0529621539214177E-5</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.0505765800060693E-4</v>
+        <v>2.0007780786347493E-4</v>
       </c>
       <c r="B73">
-        <v>2.4967063605907391E-4</v>
+        <v>2.2100057670945233E-4</v>
       </c>
       <c r="C73">
-        <v>-1.5558084007527562E-4</v>
+        <v>-1.8457838249549434E-4</v>
       </c>
       <c r="D73">
-        <v>2.0939198366229927E-3</v>
+        <v>2.3987867615304051E-3</v>
       </c>
       <c r="E73">
-        <v>1.6754568593639885E-3</v>
+        <v>1.8812396741510794E-3</v>
       </c>
       <c r="F73">
-        <v>-1.3027787054712414E-3</v>
+        <v>-1.5443107115186631E-3</v>
       </c>
       <c r="G73">
-        <v>0.18063520409677825</v>
+        <v>0.16892845209633442</v>
       </c>
       <c r="H73">
-        <v>0.14921896914352503</v>
+        <v>0.13569839697803976</v>
       </c>
       <c r="I73">
-        <v>-1.2730344865967691E-3</v>
+        <v>-1.3805457631570616E-3</v>
       </c>
       <c r="J73">
-        <v>3.7542478119356737E-4</v>
+        <v>3.8530280260115672E-4</v>
       </c>
       <c r="K73">
-        <v>9.361076066851659E-4</v>
+        <v>9.3085954832705273E-4</v>
       </c>
       <c r="L73">
-        <v>-5.0474754607998662E-4</v>
+        <v>-5.3129640266937387E-4</v>
       </c>
       <c r="M73">
-        <v>1.6574608725505868E-5</v>
+        <v>-1.5938250458546069E-5</v>
       </c>
       <c r="N73">
-        <v>-1.9475023092407895E-5</v>
+        <v>-3.2373120988755029E-5</v>
       </c>
       <c r="O73">
-        <v>8.2680604253426715E-5</v>
+        <v>6.0163686353011948E-5</v>
       </c>
       <c r="P73">
-        <v>9.3258466029255693E-4</v>
+        <v>1.6826580639649575E-3</v>
       </c>
       <c r="Q73">
-        <v>5.1588105750366431E-4</v>
+        <v>1.1148557210196414E-3</v>
       </c>
       <c r="R73">
-        <v>2.747706392811633E-4</v>
+        <v>3.8087859296172293E-4</v>
       </c>
       <c r="S73">
-        <v>9.1571848500882069E-4</v>
+        <v>6.0448277696235203E-4</v>
       </c>
       <c r="T73">
-        <v>7.6399806631455291E-4</v>
+        <v>4.6467747229273192E-4</v>
       </c>
       <c r="U73">
-        <v>5.2778483762394579E-5</v>
+        <v>-1.0958551490437023E-4</v>
       </c>
       <c r="V73">
-        <v>2.9783419114237653E-4</v>
+        <v>2.2423977965389545E-4</v>
       </c>
       <c r="W73">
-        <v>2.2765243415556746E-4</v>
+        <v>1.7098146486524144E-4</v>
       </c>
       <c r="X73">
-        <v>6.5837325008200054E-5</v>
+        <v>4.7705311461322558E-5</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1.9189604702196661E-4</v>
+        <v>1.8841383489008021E-4</v>
       </c>
       <c r="B74">
-        <v>2.3344442296524548E-4</v>
+        <v>2.0791001252390068E-4</v>
       </c>
       <c r="C74">
-        <v>-1.4737290097477374E-4</v>
+        <v>-1.7714698925814788E-4</v>
       </c>
       <c r="D74">
-        <v>2.0365320836832623E-3</v>
+        <v>2.3432109696568532E-3</v>
       </c>
       <c r="E74">
-        <v>1.6287435109589854E-3</v>
+        <v>1.8371572071021346E-3</v>
       </c>
       <c r="F74">
-        <v>-1.2678855739002293E-3</v>
+        <v>-1.5100870195718702E-3</v>
       </c>
       <c r="G74">
-        <v>0.17954585356652242</v>
+        <v>0.16779627034478073</v>
       </c>
       <c r="H74">
-        <v>0.14831761673536262</v>
+        <v>0.13478337994079834</v>
       </c>
       <c r="I74">
-        <v>-1.2570894147232448E-3</v>
+        <v>-1.365111244130795E-3</v>
       </c>
       <c r="J74">
-        <v>2.9230114659073436E-4</v>
+        <v>2.9215275439971805E-4</v>
       </c>
       <c r="K74">
-        <v>8.3824504431162516E-4</v>
+        <v>8.2269316331284046E-4</v>
       </c>
       <c r="L74">
-        <v>-4.749733556141944E-4</v>
+        <v>-5.0141324456376933E-4</v>
       </c>
       <c r="M74">
-        <v>2.2586876063490635E-5</v>
+        <v>-1.009467954344296E-5</v>
       </c>
       <c r="N74">
-        <v>-1.1892734642637848E-5</v>
+        <v>-2.6797360771959918E-5</v>
       </c>
       <c r="O74">
-        <v>7.2985060417418701E-5</v>
+        <v>5.4977869857588044E-5</v>
       </c>
       <c r="P74">
-        <v>8.5950059429440451E-4</v>
+        <v>1.5861440356234179E-3</v>
       </c>
       <c r="Q74">
-        <v>4.703931645761994E-4</v>
+        <v>1.0512736650076418E-3</v>
       </c>
       <c r="R74">
-        <v>2.6563812490631999E-4</v>
+        <v>3.6637962795302021E-4</v>
       </c>
       <c r="S74">
-        <v>9.0529619367396563E-4</v>
+        <v>5.9038347922045096E-4</v>
       </c>
       <c r="T74">
-        <v>7.53087443852829E-4</v>
+        <v>4.5168829111699298E-4</v>
       </c>
       <c r="U74">
-        <v>5.5160717945756943E-5</v>
+        <v>-1.0202643111271455E-4</v>
       </c>
       <c r="V74">
-        <v>2.9752217622558419E-4</v>
+        <v>2.2530161498200688E-4</v>
       </c>
       <c r="W74">
-        <v>2.2908538921662114E-4</v>
+        <v>1.7205517407601473E-4</v>
       </c>
       <c r="X74">
-        <v>5.9296341024195343E-5</v>
+        <v>4.4651759261811514E-5</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.7971625135126956E-4</v>
+        <v>1.7762616844033653E-4</v>
       </c>
       <c r="B75">
-        <v>2.1821991647552608E-4</v>
+        <v>1.955590302941904E-4</v>
       </c>
       <c r="C75">
-        <v>-1.3957497573424682E-4</v>
+        <v>-1.6987297747107468E-4</v>
       </c>
       <c r="D75">
-        <v>1.9807523185813025E-3</v>
+        <v>2.2890375003351555E-3</v>
       </c>
       <c r="E75">
-        <v>1.5834030751542549E-3</v>
+        <v>1.7942051312646421E-3</v>
       </c>
       <c r="F75">
-        <v>-1.2339752193076814E-3</v>
+        <v>-1.4767050511775466E-3</v>
       </c>
       <c r="G75">
-        <v>0.17846384464562748</v>
+        <v>0.16667350479099649</v>
       </c>
       <c r="H75">
-        <v>0.14742215596805641</v>
+        <v>0.13387581390415532</v>
       </c>
       <c r="I75">
-        <v>-1.2413893398669495E-3</v>
+        <v>-1.3496554966393028E-3</v>
       </c>
       <c r="J75">
-        <v>2.1647606061447888E-4</v>
+        <v>2.0757420115374687E-4</v>
       </c>
       <c r="K75">
-        <v>7.457841327656034E-4</v>
+        <v>7.2103878181525849E-4</v>
       </c>
       <c r="L75">
-        <v>-4.444517685346927E-4</v>
+        <v>-4.7024084969503327E-4</v>
       </c>
       <c r="M75">
-        <v>2.7395406693164759E-5</v>
+        <v>-5.1181626885465901E-6</v>
       </c>
       <c r="N75">
-        <v>-5.1765252044866372E-6</v>
+        <v>-2.1730882480396501E-5</v>
       </c>
       <c r="O75">
-        <v>6.3663499598409778E-5</v>
+        <v>4.9754299390420338E-5</v>
       </c>
       <c r="P75">
-        <v>7.9292680841103191E-4</v>
+        <v>1.4964253671586824E-3</v>
       </c>
       <c r="Q75">
-        <v>4.2933244019160988E-4</v>
+        <v>9.922243825906227E-4</v>
       </c>
       <c r="R75">
-        <v>2.5621859347546572E-4</v>
+        <v>3.5217567513184977E-4</v>
       </c>
       <c r="S75">
-        <v>8.9498562005063675E-4</v>
+        <v>5.7684727759212324E-4</v>
       </c>
       <c r="T75">
-        <v>7.4268330278881578E-4</v>
+        <v>4.3946104608792524E-4</v>
       </c>
       <c r="U75">
-        <v>5.6640910015226531E-5</v>
+        <v>-9.5433509138401922E-5</v>
       </c>
       <c r="V75">
-        <v>2.9648803457305029E-4</v>
+        <v>2.2583842036589681E-4</v>
       </c>
       <c r="W75">
-        <v>2.2999970911641299E-4</v>
+        <v>1.7287788412790535E-4</v>
       </c>
       <c r="X75">
-        <v>5.3015795834610024E-5</v>
+        <v>4.1469039166786329E-5</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1.6844938105675666E-4</v>
+        <v>1.6766516973936796E-4</v>
       </c>
       <c r="B76">
-        <v>2.0396017117740861E-4</v>
+        <v>1.8394041758315144E-4</v>
       </c>
       <c r="C76">
-        <v>-1.321971789797205E-4</v>
+        <v>-1.627995879007495E-4</v>
       </c>
       <c r="D76">
-        <v>1.9265291984162936E-3</v>
+        <v>2.2362252191719901E-3</v>
       </c>
       <c r="E76">
-        <v>1.5393876302942644E-3</v>
+        <v>1.7523506107672037E-3</v>
       </c>
       <c r="F76">
-        <v>-1.2010163047760924E-3</v>
+        <v>-1.4441421242215511E-3</v>
       </c>
       <c r="G76">
-        <v>0.17738904694275895</v>
+        <v>0.16556003202803835</v>
       </c>
       <c r="H76">
-        <v>0.14653255229662074</v>
+        <v>0.13297564751579039</v>
       </c>
       <c r="I76">
-        <v>-1.2260513022206432E-3</v>
+        <v>-1.3342755877068921E-3</v>
       </c>
       <c r="J76">
-        <v>1.475513851241228E-4</v>
+        <v>1.3112344693401771E-4</v>
       </c>
       <c r="K76">
-        <v>6.5879075617281124E-4</v>
+        <v>6.2593294546159015E-4</v>
       </c>
       <c r="L76">
-        <v>-4.1380640213972697E-4</v>
+        <v>-4.3845937778331059E-4</v>
       </c>
       <c r="M76">
-        <v>3.1125049257951787E-5</v>
+        <v>-9.3846261578711681E-7</v>
       </c>
       <c r="N76">
-        <v>6.9673126290581422E-7</v>
+        <v>-1.7174897489565642E-5</v>
       </c>
       <c r="O76">
-        <v>5.4833827340727836E-5</v>
+        <v>4.4600607445730259E-5</v>
       </c>
       <c r="P76">
-        <v>7.32223452207581E-4</v>
+        <v>1.4129321961069748E-3</v>
       </c>
       <c r="Q76">
-        <v>3.9228922611567185E-4</v>
+        <v>9.3735231117611582E-4</v>
       </c>
       <c r="R76">
-        <v>2.4650753329968911E-4</v>
+        <v>3.382193123719038E-4</v>
       </c>
       <c r="S76">
-        <v>8.8472649595439101E-4</v>
+        <v>5.637912763129942E-4</v>
       </c>
       <c r="T76">
-        <v>7.3269366930239777E-4</v>
+        <v>4.2790510098122833E-4</v>
       </c>
       <c r="U76">
-        <v>5.7349692677344244E-5</v>
+        <v>-8.9706364251472664E-5</v>
       </c>
       <c r="V76">
-        <v>2.9481313108226104E-4</v>
+        <v>2.2588875462075997E-4</v>
       </c>
       <c r="W76">
-        <v>2.3041111932942115E-4</v>
+        <v>1.7343887083750469E-4</v>
       </c>
       <c r="X76">
-        <v>4.7070437078411409E-5</v>
+        <v>3.8240419340794646E-5</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1.5802840869261203E-4</v>
+        <v>1.584795711504177E-4</v>
       </c>
       <c r="B77">
-        <v>1.9062430089400451E-4</v>
+        <v>1.7303983244768784E-4</v>
       </c>
       <c r="C77">
-        <v>-1.2524247562994972E-4</v>
+        <v>-1.5596084580042594E-4</v>
       </c>
       <c r="D77">
-        <v>1.8738136802458616E-3</v>
+        <v>2.1847345448043993E-3</v>
       </c>
       <c r="E77">
-        <v>1.4966514121337315E-3</v>
+        <v>1.7115618230842745E-3</v>
       </c>
       <c r="F77">
-        <v>-1.1689784538795323E-3</v>
+        <v>-1.4123759007376125E-3</v>
       </c>
       <c r="G77">
-        <v>0.17632132960177596</v>
+        <v>0.16445572597940608</v>
       </c>
       <c r="H77">
-        <v>0.14564875884904804</v>
+        <v>0.1320828204594931</v>
       </c>
       <c r="I77">
-        <v>-1.2111640029273119E-3</v>
+        <v>-1.319050319268362E-3</v>
       </c>
       <c r="J77">
-        <v>8.5108298925939962E-5</v>
+        <v>6.2330069721657614E-5</v>
       </c>
       <c r="K77">
-        <v>5.7725492518168053E-4</v>
+        <v>5.3733229742858454E-4</v>
       </c>
       <c r="L77">
-        <v>-3.8354698771347895E-4</v>
+        <v>-4.0663835303305973E-4</v>
       </c>
       <c r="M77">
-        <v>3.3898958504696708E-5</v>
+        <v>2.5165891676502485E-6</v>
       </c>
       <c r="N77">
-        <v>5.7629428014127626E-6</v>
+        <v>-1.3120325191962679E-5</v>
       </c>
       <c r="O77">
-        <v>4.6581636386044956E-5</v>
+        <v>3.9602199818005171E-5</v>
       </c>
       <c r="P77">
-        <v>6.7680901612598987E-4</v>
+        <v>1.3351421624872664E-3</v>
       </c>
       <c r="Q77">
-        <v>3.5888000807693388E-4</v>
+        <v>8.86323563197705E-4</v>
       </c>
       <c r="R77">
-        <v>2.365257138521315E-4</v>
+        <v>3.2448454531831318E-4</v>
       </c>
       <c r="S77">
-        <v>8.7447260940298754E-4</v>
+        <v>5.5114560218759683E-4</v>
       </c>
       <c r="T77">
-        <v>7.2303866614764623E-4</v>
+        <v>4.1693920941740308E-4</v>
       </c>
       <c r="U77">
-        <v>5.7408742488607167E-5</v>
+        <v>-8.4748595185314888E-5</v>
       </c>
       <c r="V77">
-        <v>2.9257751952704858E-4</v>
+        <v>2.2549379659442766E-4</v>
       </c>
       <c r="W77">
-        <v>2.3034349446593438E-4</v>
+        <v>1.7373514561955605E-4</v>
       </c>
       <c r="X77">
-        <v>4.1514100373118978E-5</v>
+        <v>3.5034008873197231E-5</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1.4838878586220794E-4</v>
+        <v>1.5001749688502207E-4</v>
       </c>
       <c r="B78">
-        <v>1.7816868038189604E-4</v>
+        <v>1.6283719591231094E-4</v>
       </c>
       <c r="C78">
-        <v>-1.1870781017253584E-4</v>
+        <v>-1.4938253196342772E-4</v>
       </c>
       <c r="D78">
-        <v>1.8225588865030673E-3</v>
+        <v>2.134527392242183E-3</v>
       </c>
       <c r="E78">
-        <v>1.4551507244071615E-3</v>
+        <v>1.6718079551332104E-3</v>
       </c>
       <c r="F78">
-        <v>-1.137832286894791E-3</v>
+        <v>-1.3813844519564179E-3</v>
       </c>
       <c r="G78">
-        <v>0.17526056338244075</v>
+        <v>0.16336045953628586</v>
       </c>
       <c r="H78">
-        <v>0.14477071916824505</v>
+        <v>0.13119726527903075</v>
       </c>
       <c r="I78">
-        <v>-1.1967913649949535E-3</v>
+        <v>-1.3040422236456984E-3</v>
       </c>
       <c r="J78">
-        <v>2.8717435043512651E-5</v>
+        <v>7.0791946785751596E-7</v>
       </c>
       <c r="K78">
-        <v>5.0110392373681201E-4</v>
+        <v>4.5512697531466359E-4</v>
       </c>
       <c r="L78">
-        <v>-3.5408129452685344E-4</v>
+        <v>-3.7524697666503127E-4</v>
       </c>
       <c r="M78">
-        <v>3.5836417178858326E-5</v>
+        <v>5.3193074179182432E-6</v>
       </c>
       <c r="N78">
-        <v>1.0067647625122689E-5</v>
+        <v>-9.54997099977119E-6</v>
       </c>
       <c r="O78">
-        <v>3.8964594502366445E-5</v>
+        <v>3.482490862255145E-5</v>
       </c>
       <c r="P78">
-        <v>6.2615690900269527E-4</v>
+        <v>1.2625777029455928E-3</v>
       </c>
       <c r="Q78">
-        <v>3.2874801645732532E-4</v>
+        <v>8.3882621205956466E-4</v>
       </c>
       <c r="R78">
-        <v>2.2631260250471907E-4</v>
+        <v>3.1096198743053996E-4</v>
       </c>
       <c r="S78">
-        <v>8.6419002412752022E-4</v>
+        <v>5.3885207338216746E-4</v>
       </c>
       <c r="T78">
-        <v>7.1364979505572634E-4</v>
+        <v>4.0649114839833353E-4</v>
       </c>
       <c r="U78">
-        <v>5.6930007241495773E-5</v>
+        <v>-8.0468828063480526E-5</v>
       </c>
       <c r="V78">
-        <v>2.8985855127872107E-4</v>
+        <v>2.2469603607101898E-4</v>
       </c>
       <c r="W78">
-        <v>2.298268164413475E-4</v>
+        <v>1.7377001142606334E-4</v>
       </c>
       <c r="X78">
-        <v>3.6382579427840511E-5</v>
+        <v>3.1904378320734798E-5</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1.394689053220155E-4</v>
+        <v>1.4222730967468827E-4</v>
       </c>
       <c r="B79">
-        <v>1.6654797401693955E-4</v>
+        <v>1.5330792511705025E-4</v>
       </c>
       <c r="C79">
-        <v>-1.125851513928966E-4</v>
+        <v>-1.4308313057491125E-4</v>
       </c>
       <c r="D79">
-        <v>1.7727199745680711E-3</v>
+        <v>2.0855671134696759E-3</v>
       </c>
       <c r="E79">
-        <v>1.4148438463748025E-3</v>
+        <v>1.6330591930978989E-3</v>
       </c>
       <c r="F79">
-        <v>-1.1075494418570919E-3</v>
+        <v>-1.3511463112625328E-3</v>
       </c>
       <c r="G79">
-        <v>0.17420662231690529</v>
+        <v>0.16227410590991165</v>
       </c>
       <c r="H79">
-        <v>0.14389836963099745</v>
+        <v>0.13031890899972817</v>
       </c>
       <c r="I79">
-        <v>-1.1829759218653368E-3</v>
+        <v>-1.2892994901296546E-3</v>
       </c>
       <c r="J79">
-        <v>-2.2052646626802286E-5</v>
+        <v>-5.4235536964791619E-5</v>
       </c>
       <c r="K79">
-        <v>4.3021412711952145E-4</v>
+        <v>3.7915273431091086E-4</v>
       </c>
       <c r="L79">
-        <v>-3.2572673604736035E-4</v>
+        <v>-3.4466430690855532E-4</v>
       </c>
       <c r="M79">
-        <v>3.7051149285538543E-5</v>
+        <v>7.5407107632979072E-6</v>
       </c>
       <c r="N79">
-        <v>1.3663264509577999E-5</v>
+        <v>-6.4404423053789268E-6</v>
       </c>
       <c r="O79">
-        <v>3.2016566845705086E-5</v>
+        <v>3.0317512357812072E-5</v>
       </c>
       <c r="P79">
-        <v>5.7979187849466207E-4</v>
+        <v>1.1948032421152137E-3</v>
       </c>
       <c r="Q79">
-        <v>3.0156333531250468E-4</v>
+        <v>7.9457022548110599E-4</v>
       </c>
       <c r="R79">
-        <v>2.1592075130338895E-4</v>
+        <v>2.9765473132272797E-4</v>
       </c>
       <c r="S79">
-        <v>8.5385538833482322E-4</v>
+        <v>5.2686290271750709E-4</v>
       </c>
       <c r="T79">
-        <v>7.0446912502086789E-4</v>
+        <v>3.9649725013196668E-4</v>
       </c>
       <c r="U79">
-        <v>5.6015277079768389E-5</v>
+        <v>-7.6781463800446991E-5</v>
       </c>
       <c r="V79">
-        <v>2.8672980274668802E-4</v>
+        <v>2.2353819187399663E-4</v>
       </c>
       <c r="W79">
-        <v>2.2889539594106445E-4</v>
+        <v>1.7355177493912942E-4</v>
       </c>
       <c r="X79">
-        <v>3.1696318130602918E-5</v>
+        <v>2.8894127703231424E-5</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1.3121042955255291E-4</v>
+        <v>1.3505830139085923E-4</v>
       </c>
       <c r="B80">
-        <v>1.5571600651442807E-4</v>
+        <v>1.4442401675018171E-4</v>
       </c>
       <c r="C80">
-        <v>-1.0686244719226856E-4</v>
+        <v>-1.3707474029994249E-4</v>
       </c>
       <c r="D80">
-        <v>1.7242540114290605E-3</v>
+        <v>2.0378184364364138E-3</v>
       </c>
       <c r="E80">
-        <v>1.3756909388280558E-3</v>
+        <v>1.5952867069818494E-3</v>
       </c>
       <c r="F80">
-        <v>-1.0781025825054025E-3</v>
+        <v>-1.3216405161681939E-3</v>
       </c>
       <c r="G80">
-        <v>0.173159384988783</v>
+        <v>0.16119653972745421</v>
       </c>
       <c r="H80">
-        <v>0.143031641556155</v>
+        <v>0.12944767455462172</v>
       </c>
       <c r="I80">
-        <v>-1.1697419976364198E-3</v>
+        <v>-1.2748577980520499E-3</v>
       </c>
       <c r="J80">
-        <v>-6.7628497725902292E-5</v>
+        <v>-1.0299138607426071E-4</v>
       </c>
       <c r="K80">
-        <v>3.6442153060578519E-4</v>
+        <v>3.0920183006299631E-4</v>
       </c>
       <c r="L80">
-        <v>-2.9872149901721823E-4</v>
+        <v>-3.1518915144276833E-4</v>
       </c>
       <c r="M80">
-        <v>3.7650065796812626E-5</v>
+        <v>9.2493840220824499E-6</v>
       </c>
       <c r="N80">
-        <v>1.6606724856815802E-5</v>
+        <v>-3.7638151897961032E-6</v>
       </c>
       <c r="O80">
-        <v>2.5751439659882358E-5</v>
+        <v>2.6114099517451044E-5</v>
       </c>
       <c r="P80">
-        <v>5.3728635396699254E-4</v>
+        <v>1.1314223381821164E-3</v>
       </c>
       <c r="Q80">
-        <v>2.7702259854112121E-4</v>
+        <v>7.5328710598426222E-4</v>
       </c>
       <c r="R80">
-        <v>2.0541107620486443E-4</v>
+        <v>2.8457485300954489E-4</v>
       </c>
       <c r="S80">
-        <v>8.4345435009147707E-4</v>
+        <v>5.151394538876503E-4</v>
       </c>
       <c r="T80">
-        <v>6.9544842075641711E-4</v>
+        <v>3.8690186079002128E-4</v>
       </c>
       <c r="U80">
-        <v>5.4756042902504021E-5</v>
+        <v>-7.3607171563969359E-5</v>
       </c>
       <c r="V80">
-        <v>2.8326028288105931E-4</v>
+        <v>2.2206233436921708E-4</v>
       </c>
       <c r="W80">
-        <v>2.2758634333253092E-4</v>
+        <v>1.7309261002865941E-4</v>
       </c>
       <c r="X80">
-        <v>2.7462903778974201E-5</v>
+        <v>2.6035381885008185E-5</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1.2355850514822464E-4</v>
+        <v>1.2846124487398748E-4</v>
       </c>
       <c r="B81">
-        <v>1.4562649054505883E-4</v>
+        <v>1.3615499093326631E-4</v>
       </c>
       <c r="C81">
-        <v>-1.0152448696809646E-4</v>
+        <v>-1.3136393829777746E-4</v>
       </c>
       <c r="D81">
-        <v>1.677119854131659E-3</v>
+        <v>1.9912474034052114E-3</v>
       </c>
       <c r="E81">
-        <v>1.3376539498195505E-3</v>
+        <v>1.5584626308103987E-3</v>
       </c>
       <c r="F81">
-        <v>-1.0494653950537947E-3</v>
+        <v>-1.2928466404040302E-3</v>
       </c>
       <c r="G81">
-        <v>0.1721187354803925</v>
+        <v>0.16012763789945475</v>
       </c>
       <c r="H81">
-        <v>0.14217046301820987</v>
+        <v>0.12858348202463488</v>
       </c>
       <c r="I81">
-        <v>-1.1570986539685135E-3</v>
+        <v>-1.260742038380776E-3</v>
       </c>
       <c r="J81">
-        <v>-1.0842617777639951E-4</v>
+        <v>-1.4604281402451211E-4</v>
       </c>
       <c r="K81">
-        <v>3.0353104331659608E-4</v>
+        <v>2.4503270551916209E-4</v>
       </c>
       <c r="L81">
-        <v>-2.7323507426457727E-4</v>
+        <v>-2.8704955042004114E-4</v>
       </c>
       <c r="M81">
-        <v>3.7732386280131536E-5</v>
+        <v>1.0510608674001125E-5</v>
       </c>
       <c r="N81">
-        <v>1.8957462080804177E-5</v>
+        <v>-1.4890671431081312E-6</v>
       </c>
       <c r="O81">
-        <v>2.0166624437045755E-5</v>
+        <v>2.2236259865080804E-5</v>
       </c>
       <c r="P81">
-        <v>4.982567795785986E-4</v>
+        <v>1.0720748309446789E-3</v>
       </c>
       <c r="Q81">
-        <v>2.5484834634292852E-4</v>
+        <v>7.1472929331209813E-4</v>
       </c>
       <c r="R81">
-        <v>1.9484894837551447E-4</v>
+        <v>2.7174048985906788E-4</v>
       </c>
       <c r="S81">
-        <v>8.3298009124033179E-4</v>
+        <v>5.0365106446466714E-4</v>
       </c>
       <c r="T81">
-        <v>6.8654824032576833E-4</v>
+        <v>3.7765675077116955E-4</v>
       </c>
       <c r="U81">
-        <v>5.3233590486256865E-5</v>
+        <v>-7.087316761734463E-5</v>
       </c>
       <c r="V81">
-        <v>2.7951388372216002E-4</v>
+        <v>2.2030918998118234E-4</v>
       </c>
       <c r="W81">
-        <v>2.2593827274675071E-4</v>
+        <v>1.7240756548732886E-4</v>
       </c>
       <c r="X81">
-        <v>2.3679348588379057E-5</v>
+        <v>2.3351198539954663E-5</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1.1646188077829578E-4</v>
+        <v>1.223888233558057E-4</v>
       </c>
       <c r="B82">
-        <v>1.3623362572579012E-4</v>
+        <v>1.2846870604360993E-4</v>
       </c>
       <c r="C82">
-        <v>-9.6553671383614592E-5</v>
+        <v>-1.2595258968237655E-4</v>
       </c>
       <c r="D82">
-        <v>1.6312780365157487E-3</v>
+        <v>1.9458213094740082E-3</v>
       </c>
       <c r="E82">
-        <v>1.3006965212045696E-3</v>
+        <v>1.5225600393193428E-3</v>
       </c>
       <c r="F82">
-        <v>-1.0216125756008498E-3</v>
+        <v>-1.2647448171989183E-3</v>
       </c>
       <c r="G82">
-        <v>0.17108456403185723</v>
+        <v>0.15906728028591183</v>
       </c>
       <c r="H82">
-        <v>0.14131476038533819</v>
+        <v>0.12772624970411223</v>
       </c>
       <c r="I82">
-        <v>-1.1450423881509408E-3</v>
+        <v>-1.2469679115792527E-3</v>
       </c>
       <c r="J82">
-        <v>-1.4484685852256263E-4</v>
+        <v>-1.8385989119711025E-4</v>
       </c>
       <c r="K82">
-        <v>2.4732461338272671E-4</v>
+        <v>1.8637853765133969E-4</v>
       </c>
       <c r="L82">
-        <v>-2.4937810169312069E-4</v>
+        <v>-2.604117575883556E-4</v>
       </c>
       <c r="M82">
-        <v>3.7389083011873936E-5</v>
+        <v>1.1385726697379996E-5</v>
       </c>
       <c r="N82">
-        <v>2.0775731331523772E-5</v>
+        <v>4.1670724211176741E-7</v>
       </c>
       <c r="O82">
-        <v>1.524623207893594E-5</v>
+        <v>1.8695093935829909E-5</v>
       </c>
       <c r="P82">
-        <v>4.6235999423127616E-4</v>
+        <v>1.0164340325606184E-3</v>
       </c>
       <c r="Q82">
-        <v>2.3478810896104818E-4</v>
+        <v>6.7866937841274593E-4</v>
       </c>
       <c r="R82">
-        <v>1.8430101645894315E-4</v>
+        <v>2.5917343354832058E-4</v>
       </c>
       <c r="S82">
-        <v>8.2243198711196008E-4</v>
+        <v>4.9237394558767765E-4</v>
       </c>
       <c r="T82">
-        <v>6.7773702607487607E-4</v>
+        <v>3.6872049726756031E-4</v>
       </c>
       <c r="U82">
-        <v>5.1519283750245393E-5</v>
+        <v>-6.8513315454616597E-5</v>
       </c>
       <c r="V82">
-        <v>2.7554903907445194E-4</v>
+        <v>2.1831760611047381E-4</v>
       </c>
       <c r="W82">
-        <v>2.2399022141494918E-4</v>
+        <v>1.7151370857863542E-4</v>
       </c>
       <c r="X82">
-        <v>2.0334153342016492E-5</v>
+        <v>2.0856878437611112E-5</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1.098729448361091E-4</v>
+        <v>1.1679595287798098E-4</v>
       </c>
       <c r="B83">
-        <v>1.2749258292044097E-4</v>
+        <v>1.2133205506773009E-4</v>
       </c>
       <c r="C83">
-        <v>-9.1930691260344588E-5</v>
+        <v>-1.2083859738797935E-4</v>
       </c>
       <c r="D83">
-        <v>1.5866906625543464E-3</v>
+        <v>1.9015086419493089E-3</v>
       </c>
       <c r="E83">
-        <v>1.2647838968953273E-3</v>
+        <v>1.4875529218835234E-3</v>
       </c>
       <c r="F83">
-        <v>-9.9451980984255339E-4</v>
+        <v>-1.2373157547812409E-3</v>
       </c>
       <c r="G83">
-        <v>0.17005676745329668</v>
+        <v>0.15801535018688254</v>
       </c>
       <c r="H83">
-        <v>0.14046445960294543</v>
+        <v>0.1268758950043547</v>
       </c>
       <c r="I83">
-        <v>-1.1335595747908878E-3</v>
+        <v>-1.2335433943159297E-3</v>
       </c>
       <c r="J83">
-        <v>-1.7727349172580453E-4</v>
+        <v>-2.1689546076062756E-4</v>
       </c>
       <c r="K83">
-        <v>1.9556825890543195E-4</v>
+        <v>1.3295470859272677E-4</v>
       </c>
       <c r="L83">
-        <v>-2.2721147102777728E-4</v>
+        <v>-2.3538865277827575E-4</v>
       </c>
       <c r="M83">
-        <v>3.6702597729032505E-5</v>
+        <v>1.1931705103184039E-5</v>
       </c>
       <c r="N83">
-        <v>2.212123100830965E-5</v>
+        <v>1.9872796150004797E-6</v>
       </c>
       <c r="O83">
-        <v>1.0963915259898371E-5</v>
+        <v>1.5493036720046761E-5</v>
       </c>
       <c r="P83">
-        <v>4.292897048079336E-4</v>
+        <v>9.64203993739412E-4</v>
       </c>
       <c r="Q83">
-        <v>2.166132782990271E-4</v>
+        <v>6.448991734176948E-4</v>
       </c>
       <c r="R83">
-        <v>1.7383267974535599E-4</v>
+        <v>2.4689718085101308E-4</v>
       </c>
       <c r="S83">
-        <v>8.118143953566026E-4</v>
+        <v>4.8129016483917778E-4</v>
       </c>
       <c r="T83">
-        <v>6.68990208567255E-4</v>
+        <v>3.6005785647426895E-4</v>
       </c>
       <c r="U83">
-        <v>4.9674995576176606E-5</v>
+        <v>-6.6468079692839162E-5</v>
       </c>
       <c r="V83">
-        <v>2.7141855877732546E-4</v>
+        <v>2.1612415588425068E-4</v>
       </c>
       <c r="W83">
-        <v>2.2178076537793245E-4</v>
+        <v>1.7042939490711451E-4</v>
       </c>
       <c r="X83">
-        <v>1.7409152621272739E-5</v>
+        <v>1.8561171652941814E-5</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1.0374769730159272E-4</v>
+        <v>1.1164001205275069E-4</v>
       </c>
       <c r="B84">
-        <v>1.1935988711253565E-4</v>
+        <v>1.1471155401206229E-4</v>
       </c>
       <c r="C84">
-        <v>-8.763511884102293E-5</v>
+        <v>-1.1601658947075702E-4</v>
       </c>
       <c r="D84">
-        <v>1.5433213064592888E-3</v>
+        <v>1.8582790211242844E-3</v>
       </c>
       <c r="E84">
-        <v>1.229882833566398E-3</v>
+        <v>1.4534161543593995E-3</v>
       </c>
       <c r="F84">
-        <v>-9.6816374661601312E-4</v>
+        <v>-1.2105407450828773E-3</v>
       </c>
       <c r="G84">
-        <v>0.16903524932854821</v>
+        <v>0.15697173468192022</v>
       </c>
       <c r="H84">
-        <v>0.13961948724491968</v>
+        <v>0.12603233520857995</v>
       </c>
       <c r="I84">
-        <v>-1.122628650200852E-3</v>
+        <v>-1.2204700716569544E-3</v>
       </c>
       <c r="J84">
-        <v>-2.0606840299453033E-4</v>
+        <v>-2.45582002294806E-4</v>
       </c>
       <c r="K84">
-        <v>1.4801808473574596E-4</v>
+        <v>8.4465271811864993E-5</v>
       </c>
       <c r="L84">
-        <v>-2.0675464481534345E-4</v>
+        <v>-2.1204754131964304E-4</v>
       </c>
       <c r="M84">
-        <v>3.5746785088885957E-5</v>
+        <v>1.2200870852541814E-5</v>
       </c>
       <c r="N84">
-        <v>2.3051996807854636E-5</v>
+        <v>3.2564517846322971E-6</v>
       </c>
       <c r="O84">
-        <v>7.2853842457698548E-6</v>
+        <v>1.262549591440898E-5</v>
       </c>
       <c r="P84">
-        <v>3.9877308976654646E-4</v>
+        <v>9.1511687139096286E-4</v>
       </c>
       <c r="Q84">
-        <v>2.0011782154161217E-4</v>
+        <v>6.1322867690227387E-4</v>
       </c>
       <c r="R84">
-        <v>1.6350613460358598E-4</v>
+        <v>2.3493538743393406E-4</v>
       </c>
       <c r="S84">
-        <v>8.0113557398187041E-4</v>
+        <v>4.7038671594347442E-4</v>
       </c>
       <c r="T84">
-        <v>6.6028933921469246E-4</v>
+        <v>3.5163913964650269E-4</v>
       </c>
       <c r="U84">
-        <v>4.7753649485282601E-5</v>
+        <v>-6.4684362770047271E-5</v>
       </c>
       <c r="V84">
-        <v>2.6716960865358352E-4</v>
+        <v>2.1376286341678177E-4</v>
       </c>
       <c r="W84">
-        <v>2.1934731228467896E-4</v>
+        <v>1.6917365447618936E-4</v>
       </c>
       <c r="X84">
-        <v>1.4881145588563349E-5</v>
+        <v>1.6467376547260366E-5</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>9.8045668764257243E-5</v>
+        <v>1.0688099241302825E-4</v>
       </c>
       <c r="B85">
-        <v>1.1179371134795169E-4</v>
+        <v>1.0857383268281419E-4</v>
       </c>
       <c r="C85">
-        <v>-8.3645915824770434E-5</v>
+        <v>-1.1147854261551959E-4</v>
       </c>
       <c r="D85">
-        <v>1.501134919588365E-3</v>
+        <v>1.8161031429010663E-3</v>
       </c>
       <c r="E85">
-        <v>1.1959615144003788E-3</v>
+        <v>1.4201254694369218E-3</v>
       </c>
       <c r="F85">
-        <v>-9.4252196664179611E-4</v>
+        <v>-1.1844016665703641E-3</v>
       </c>
       <c r="G85">
-        <v>0.16801992004579333</v>
+        <v>0.15593632484094824</v>
       </c>
       <c r="H85">
-        <v>0.13877977135529829</v>
+        <v>0.12519548809210643</v>
       </c>
       <c r="I85">
-        <v>-1.1122220439535591E-3</v>
+        <v>-1.2077443347018812E-3</v>
       </c>
       <c r="J85">
-        <v>-2.3157168259313465E-4</v>
+        <v>-2.7032934808640061E-4</v>
       </c>
       <c r="K85">
-        <v>1.044253682422891E-4</v>
+        <v>4.0608487787953911E-5</v>
       </c>
       <c r="L85">
-        <v>-1.879931911831223E-4</v>
+        <v>-1.9041731500985711E-4</v>
       </c>
       <c r="M85">
-        <v>3.4587041017886122E-5</v>
+        <v>1.2240788347126496E-5</v>
       </c>
       <c r="N85">
-        <v>2.3623539080253053E-5</v>
+        <v>4.2573817355411639E-6</v>
       </c>
       <c r="O85">
-        <v>4.1706070480485025E-6</v>
+        <v>1.0082308690290935E-5</v>
       </c>
       <c r="P85">
-        <v>3.7056756174314032E-4</v>
+        <v>8.6893041769683216E-4</v>
       </c>
       <c r="Q85">
-        <v>1.8511688450595365E-4</v>
+        <v>5.8348496873675726E-4</v>
       </c>
       <c r="R85">
-        <v>1.5337892003652875E-4</v>
+        <v>2.2331067279618327E-4</v>
       </c>
       <c r="S85">
-        <v>7.9040672603891693E-4</v>
+        <v>4.5965467653053362E-4</v>
       </c>
       <c r="T85">
-        <v>6.5162126375239993E-4</v>
+        <v>3.434396043991469E-4</v>
       </c>
       <c r="U85">
-        <v>4.5799840182603191E-5</v>
+        <v>-6.3115250173048559E-5</v>
       </c>
       <c r="V85">
-        <v>2.6284380892938053E-4</v>
+        <v>2.1126503163962189E-4</v>
       </c>
       <c r="W85">
-        <v>2.167255520604261E-4</v>
+        <v>1.6776568347939819E-4</v>
       </c>
       <c r="X85">
-        <v>1.2723319888996443E-5</v>
+        <v>1.4574331048621428E-5</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>9.2729798062629598E-5</v>
+        <v>1.0248158147843967E-4</v>
       </c>
       <c r="B86">
-        <v>1.0475409342247666E-4</v>
+        <v>1.0288603781434702E-4</v>
       </c>
       <c r="C86">
-        <v>-7.9941863433519167E-5</v>
+        <v>-1.0721434204863188E-4</v>
       </c>
       <c r="D86">
-        <v>1.4600977440746288E-3</v>
+        <v>1.7749527235961058E-3</v>
       </c>
       <c r="E86">
-        <v>1.1629894663256479E-3</v>
+        <v>1.387657426022916E-3</v>
       </c>
       <c r="F86">
-        <v>-9.1757294768879394E-4</v>
+        <v>-1.1588809820633976E-3</v>
       </c>
       <c r="G86">
-        <v>0.16701069668726598</v>
+        <v>0.15490901582733912</v>
       </c>
       <c r="H86">
-        <v>0.1379452421029983</v>
+        <v>0.12436527242157223</v>
       </c>
       <c r="I86">
-        <v>-1.1023078663470187E-3</v>
+        <v>-1.1953584462997765E-3</v>
       </c>
       <c r="J86">
-        <v>-2.5410025342953446E-4</v>
+        <v>-2.9152313724261904E-4</v>
       </c>
       <c r="K86">
-        <v>6.4540798334178362E-5</v>
+        <v>1.0815055848891117E-6</v>
       </c>
       <c r="L86">
-        <v>-1.7088553123856265E-4</v>
+        <v>-1.7049496530847704E-4</v>
       </c>
       <c r="M86">
-        <v>3.3280578301209118E-5</v>
+        <v>1.2094254250301718E-5</v>
       </c>
       <c r="N86">
-        <v>2.388819486998095E-5</v>
+        <v>5.0220536220387961E-6</v>
       </c>
       <c r="O86">
-        <v>1.5757091186285876E-6</v>
+        <v>7.8490237268447066E-6</v>
       </c>
       <c r="P86">
-        <v>3.4445771029933958E-4</v>
+        <v>8.2542560521305043E-4</v>
       </c>
       <c r="Q86">
-        <v>1.7144532625845699E-4</v>
+        <v>5.5551106408908578E-4</v>
       </c>
       <c r="R86">
-        <v>1.4350289253195481E-4</v>
+        <v>2.1204372787970082E-4</v>
       </c>
       <c r="S86">
-        <v>7.7964116632256442E-4</v>
+        <v>4.4908845325619673E-4</v>
       </c>
       <c r="T86">
-        <v>6.4297734556428843E-4</v>
+        <v>3.354388701478157E-4</v>
       </c>
       <c r="U86">
-        <v>4.3850505436759946E-5</v>
+        <v>-6.1719686736284426E-5</v>
       </c>
       <c r="V86">
-        <v>2.5847742667695073E-4</v>
+        <v>2.0865915622539762E-4</v>
       </c>
       <c r="W86">
-        <v>2.1394904666749426E-4</v>
+        <v>1.6622443131717203E-4</v>
       </c>
       <c r="X86">
-        <v>1.0906478998040647E-5</v>
+        <v>1.2877297933338662E-5</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8.7766278558776278E-5</v>
+        <v>9.8407189550239039E-5</v>
       </c>
       <c r="B87">
-        <v>9.82030861034211E-5</v>
+        <v>9.7616158097448512E-5</v>
       </c>
       <c r="C87">
-        <v>-7.6501920345917185E-5</v>
+        <v>-1.032122792175302E-4</v>
       </c>
       <c r="D87">
-        <v>1.4201772330182383E-3</v>
+        <v>1.7348004471793108E-3</v>
       </c>
       <c r="E87">
-        <v>1.1309374810806183E-3</v>
+        <v>1.3559893781075764E-3</v>
       </c>
       <c r="F87">
-        <v>-8.9329602723509094E-4</v>
+        <v>-1.1339617323353885E-3</v>
       </c>
       <c r="G87">
-        <v>0.16600750280698953</v>
+        <v>0.15388970691205675</v>
       </c>
       <c r="H87">
-        <v>0.13711583227175536</v>
+        <v>0.12354160834673572</v>
       </c>
       <c r="I87">
-        <v>-1.0928513638143178E-3</v>
+        <v>-1.1833014795856682E-3</v>
       </c>
       <c r="J87">
-        <v>-2.7394750618991992E-4</v>
+        <v>-3.0952390094820663E-4</v>
       </c>
       <c r="K87">
-        <v>2.8117951419437404E-5</v>
+        <v>-3.4415732952030837E-5</v>
       </c>
       <c r="L87">
-        <v>-1.5536892008161107E-4</v>
+        <v>-1.5225145272990253E-4</v>
       </c>
       <c r="M87">
-        <v>3.1876815923093105E-5</v>
+        <v>1.1799386970589814E-5</v>
       </c>
       <c r="N87">
-        <v>2.3894667097179578E-5</v>
+        <v>5.580874271519574E-6</v>
       </c>
       <c r="O87">
-        <v>-5.4540899407928833E-7</v>
+        <v>5.9080173786193617E-6</v>
       </c>
       <c r="P87">
-        <v>3.2025243936462111E-4</v>
+        <v>7.8440439793326202E-4</v>
       </c>
       <c r="Q87">
-        <v>1.5895622062345183E-4</v>
+        <v>5.2916475168017876E-4</v>
       </c>
       <c r="R87">
-        <v>1.3392356525909754E-4</v>
+        <v>2.0115268055885275E-4</v>
       </c>
       <c r="S87">
-        <v>7.6885360385259283E-4</v>
+        <v>4.3868511200314766E-4</v>
       </c>
       <c r="T87">
-        <v>6.3435274515977191E-4</v>
+        <v>3.276203644027412E-4</v>
       </c>
       <c r="U87">
-        <v>4.1935625945566102E-5</v>
+        <v>-6.0462103543500615E-5</v>
       </c>
       <c r="V87">
-        <v>2.5410164055394979E-4</v>
+        <v>2.0597091063493295E-4</v>
       </c>
       <c r="W87">
-        <v>2.1104894091727999E-4</v>
+        <v>1.6456827249535281E-4</v>
       </c>
       <c r="X87">
-        <v>9.400085369093425E-6</v>
+        <v>1.1368747530981414E-5</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8.3124381736965347E-5</v>
+        <v>9.4625930150870222E-5</v>
       </c>
       <c r="B88">
-        <v>9.2104850800023286E-5</v>
+        <v>9.2733280159112497E-5</v>
       </c>
       <c r="C88">
-        <v>-7.3305514695198859E-5</v>
+        <v>-9.945948951075082E-5</v>
       </c>
       <c r="D88">
-        <v>1.3813419770027924E-3</v>
+        <v>1.6956199151204488E-3</v>
       </c>
       <c r="E88">
-        <v>1.0997775403318588E-3</v>
+        <v>1.3250994435012524E-3</v>
       </c>
       <c r="F88">
-        <v>-8.6967136355886598E-4</v>
+        <v>-1.1096275262222433E-3</v>
       </c>
       <c r="G88">
-        <v>0.1650102681222593</v>
+        <v>0.15287830141583292</v>
       </c>
       <c r="H88">
-        <v>0.1362914776065649</v>
+        <v>0.12272441769792167</v>
       </c>
       <c r="I88">
-        <v>-1.0838161567372495E-3</v>
+        <v>-1.1715601356758747E-3</v>
       </c>
       <c r="J88">
-        <v>-2.9138340164092114E-4</v>
+        <v>-3.2466668075523483E-4</v>
       </c>
       <c r="K88">
-        <v>-5.0839139911218467E-6</v>
+        <v>-6.6177290662119726E-5</v>
       </c>
       <c r="L88">
-        <v>-1.4136469152969955E-4</v>
+        <v>-1.3563694720285799E-4</v>
       </c>
       <c r="M88">
-        <v>3.0417852700415082E-5</v>
+        <v>1.1389790662805765E-5</v>
       </c>
       <c r="N88">
-        <v>2.3687724757914808E-5</v>
+        <v>5.9623796002128412E-6</v>
       </c>
       <c r="O88">
-        <v>-2.2397153875974851E-6</v>
+        <v>4.2394543833777581E-6</v>
       </c>
       <c r="P88">
-        <v>2.9778230819865747E-4</v>
+        <v>7.4568767420023208E-4</v>
       </c>
       <c r="Q88">
-        <v>1.4751935465473487E-4</v>
+        <v>5.0431743725645696E-4</v>
       </c>
       <c r="R88">
-        <v>1.2467975190921798E-4</v>
+        <v>1.9065267805580012E-4</v>
       </c>
       <c r="S88">
-        <v>7.5805953273322402E-4</v>
+        <v>4.2844378966981774E-4</v>
       </c>
       <c r="T88">
-        <v>6.2574575976093172E-4</v>
+        <v>3.1997080472574751E-4</v>
       </c>
       <c r="U88">
-        <v>4.0078933689624563E-5</v>
+        <v>-5.9312012155005508E-5</v>
       </c>
       <c r="V88">
-        <v>2.4974285876955271E-4</v>
+        <v>2.0322318882383782E-4</v>
       </c>
       <c r="W88">
-        <v>2.080537772612967E-4</v>
+        <v>1.6281475339591456E-4</v>
       </c>
       <c r="X88">
-        <v>8.1731331325052281E-6</v>
+        <v>1.0039042597732743E-5</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>7.8776265557634062E-5</v>
+        <v>9.1108562964823395E-5</v>
       </c>
       <c r="B89">
-        <v>8.6425703684112065E-5</v>
+        <v>8.8207783994337214E-5</v>
       </c>
       <c r="C89">
-        <v>-7.0332776486159432E-5</v>
+        <v>-9.5942332991810609E-5</v>
       </c>
       <c r="D89">
-        <v>1.3435616366521685E-3</v>
+        <v>1.657385598948174E-3</v>
       </c>
       <c r="E89">
-        <v>1.0694827449770905E-3</v>
+        <v>1.2949664727678403E-3</v>
       </c>
       <c r="F89">
-        <v>-8.4667989605935468E-4</v>
+        <v>-1.08586252789809E-3</v>
       </c>
       <c r="G89">
-        <v>0.16401892814147612</v>
+        <v>0.15187470659445904</v>
       </c>
       <c r="H89">
-        <v>0.13547211703678386</v>
+        <v>0.12191362420151342</v>
       </c>
       <c r="I89">
-        <v>-1.0751652757935437E-3</v>
+        <v>-1.1601194480187133E-3</v>
       </c>
       <c r="J89">
-        <v>-3.0665495015647082E-4</v>
+        <v>-3.3726109051706031E-4</v>
       </c>
       <c r="K89">
-        <v>-3.529766540122381E-5</v>
+        <v>-9.448866057003157E-5</v>
       </c>
       <c r="L89">
-        <v>-1.2878280514205809E-4</v>
+        <v>-1.205854627208439E-4</v>
       </c>
       <c r="M89">
-        <v>2.8938999630634399E-5</v>
+        <v>1.0894776036430694E-5</v>
       </c>
       <c r="N89">
-        <v>2.3308039712288675E-5</v>
+        <v>6.1930353801877201E-6</v>
       </c>
       <c r="O89">
-        <v>-3.5539299145792569E-6</v>
+        <v>2.8221045487564212E-6</v>
       </c>
       <c r="P89">
-        <v>2.7689707981282119E-4</v>
+        <v>7.0911330391645064E-4</v>
       </c>
       <c r="Q89">
-        <v>1.3701974898894242E-4</v>
+        <v>4.8085300945535918E-4</v>
       </c>
       <c r="R89">
-        <v>1.15803460913666E-4</v>
+        <v>1.8055564921865092E-4</v>
       </c>
       <c r="S89">
-        <v>7.4727472320201827E-4</v>
+        <v>4.1836518313691251E-4</v>
       </c>
       <c r="T89">
-        <v>6.1715722499466885E-4</v>
+        <v>3.1247971953427098E-4</v>
       </c>
       <c r="U89">
-        <v>3.8298612802911691E-5</v>
+        <v>-5.8243580290862391E-5</v>
       </c>
       <c r="V89">
-        <v>2.4542307374031402E-4</v>
+        <v>2.0043619362297197E-4</v>
       </c>
       <c r="W89">
-        <v>2.0498939860957854E-4</v>
+        <v>1.6098040437880038E-4</v>
       </c>
       <c r="X89">
-        <v>7.1948649424946609E-6</v>
+        <v>8.8770310783019869E-6</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7.469677386917617E-5</v>
+        <v>8.7828407123376556E-5</v>
       </c>
       <c r="B90">
-        <v>8.1134122397630293E-5</v>
+        <v>8.4011485763283594E-5</v>
       </c>
       <c r="C90">
-        <v>-6.7564716795476265E-5</v>
+        <v>-9.2646721630372327E-5</v>
       </c>
       <c r="D90">
-        <v>1.3068068808945732E-3</v>
+        <v>1.6200727955729478E-3</v>
       </c>
       <c r="E90">
-        <v>1.0400272486925655E-3</v>
+        <v>1.2655700186264055E-3</v>
       </c>
       <c r="F90">
-        <v>-8.2430330548100006E-4</v>
+        <v>-1.0626514419092153E-3</v>
       </c>
       <c r="G90">
-        <v>0.16303342374793228</v>
+        <v>0.15087883348048059</v>
       </c>
       <c r="H90">
-        <v>0.13465769279474513</v>
+        <v>0.12110915362512913</v>
       </c>
       <c r="I90">
-        <v>-1.066862013996972E-3</v>
+        <v>-1.148963381680343E-3</v>
       </c>
       <c r="J90">
-        <v>-3.1998698840984829E-4</v>
+        <v>-3.4759174127787568E-4</v>
       </c>
       <c r="K90">
-        <v>-6.2746632446541994E-5</v>
+        <v>-1.1962474873593555E-4</v>
       </c>
       <c r="L90">
-        <v>-1.1752574030676755E-4</v>
+        <v>-1.0701891617105235E-4</v>
       </c>
       <c r="M90">
-        <v>2.7469349029196621E-5</v>
+        <v>1.033962257558458E-5</v>
       </c>
       <c r="N90">
-        <v>2.2792137484239916E-5</v>
+        <v>6.297117940943231E-6</v>
       </c>
       <c r="O90">
-        <v>-4.5336239492543839E-6</v>
+        <v>1.6340274629847836E-6</v>
       </c>
       <c r="P90">
-        <v>2.574634766849826E-4</v>
+        <v>6.7453437963126389E-4</v>
       </c>
       <c r="Q90">
-        <v>1.2735622029391713E-4</v>
+        <v>4.5866674181079529E-4</v>
       </c>
       <c r="R90">
-        <v>1.0731999125701552E-4</v>
+        <v>1.7087021345804247E-4</v>
       </c>
       <c r="S90">
-        <v>7.3651480418956972E-4</v>
+        <v>4.0845111034862851E-4</v>
       </c>
       <c r="T90">
-        <v>6.0858997904467138E-4</v>
+        <v>3.0513900955794299E-4</v>
       </c>
       <c r="U90">
-        <v>3.6607980164027332E-5</v>
+        <v>-5.7235200732411253E-5</v>
       </c>
       <c r="V90">
-        <v>2.4116023928466568E-4</v>
+        <v>1.9762756023426777E-4</v>
       </c>
       <c r="W90">
-        <v>2.0187892446665856E-4</v>
+        <v>1.5908060823709212E-4</v>
       </c>
       <c r="X90">
-        <v>6.435347969069305E-6</v>
+        <v>7.8705531518328905E-6</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>7.0863232118911768E-5</v>
+        <v>8.4761231715783887E-5</v>
       </c>
       <c r="B91">
-        <v>7.6200720614982842E-5</v>
+        <v>8.0117735261299645E-5</v>
       </c>
       <c r="C91">
-        <v>-6.4983359989834177E-5</v>
+        <v>-8.9558396863494188E-5</v>
       </c>
       <c r="D91">
-        <v>1.2710493305816417E-3</v>
+        <v>1.5836575853735838E-3</v>
       </c>
       <c r="E91">
-        <v>1.0113861957128378E-3</v>
+        <v>1.2368903060425852E-3</v>
       </c>
       <c r="F91">
-        <v>-8.025239746023427E-4</v>
+        <v>-1.0399794964927216E-3</v>
       </c>
       <c r="G91">
-        <v>0.16205370075633926</v>
+        <v>0.1498905966928418</v>
       </c>
       <c r="H91">
-        <v>0.13384815044726858</v>
+        <v>0.12031093386324136</v>
       </c>
       <c r="I91">
-        <v>-1.0588706120726599E-3</v>
+        <v>-1.1380753363101188E-3</v>
       </c>
       <c r="J91">
-        <v>-3.3158318271064857E-4</v>
+        <v>-3.5591895695362473E-4</v>
       </c>
       <c r="K91">
-        <v>-8.7643400829673368E-5</v>
+        <v>-1.4184834736378373E-4</v>
       </c>
       <c r="L91">
-        <v>-1.0749178631830336E-4</v>
+        <v>-9.4850645046151707E-5</v>
       </c>
       <c r="M91">
-        <v>2.603236194542724E-5</v>
+        <v>9.7458689450987831E-6</v>
       </c>
       <c r="N91">
-        <v>2.2172441470846849E-5</v>
+        <v>6.2966615994821036E-6</v>
       </c>
       <c r="O91">
-        <v>-5.2225140148021154E-6</v>
+        <v>6.5313752617043469E-7</v>
       </c>
       <c r="P91">
-        <v>2.3936314020689409E-4</v>
+        <v>6.418175987186217E-4</v>
       </c>
       <c r="Q91">
-        <v>1.1844000174865421E-4</v>
+        <v>4.3766424157693163E-4</v>
       </c>
       <c r="R91">
-        <v>9.9248186520517478E-5</v>
+        <v>1.6160170689039522E-4</v>
       </c>
       <c r="S91">
-        <v>7.2579492850621818E-4</v>
+        <v>3.9870413801792207E-4</v>
       </c>
       <c r="T91">
-        <v>6.000483882888652E-4</v>
+        <v>2.9794255060757341E-4</v>
       </c>
       <c r="U91">
-        <v>3.5016135750076671E-5</v>
+        <v>-5.6269063064573467E-5</v>
       </c>
       <c r="V91">
-        <v>2.3696865843780834E-4</v>
+        <v>1.9481250564203149E-4</v>
       </c>
       <c r="W91">
-        <v>1.9874278697740166E-4</v>
+        <v>1.5712951666081474E-4</v>
       </c>
       <c r="X91">
-        <v>5.865924042169901E-6</v>
+        <v>7.0068693787079487E-6</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6.7255243679564813E-5</v>
+        <v>8.1885129512605358E-5</v>
       </c>
       <c r="B92">
-        <v>7.1598196911271117E-5</v>
+        <v>7.6501474756663431E-5</v>
       </c>
       <c r="C92">
-        <v>-6.257183497238028E-5</v>
+        <v>-8.6663161530273444E-5</v>
       </c>
       <c r="D92">
-        <v>1.2362615070924399E-3</v>
+        <v>1.5481167930114445E-3</v>
       </c>
       <c r="E92">
-        <v>9.8353566277187277E-4</v>
+        <v>1.2089082031858428E-3</v>
       </c>
       <c r="F92">
-        <v>-7.8132494984173295E-4</v>
+        <v>-1.0178324256438654E-3</v>
       </c>
       <c r="G92">
-        <v>0.16107970945624558</v>
+        <v>0.14890991422442715</v>
       </c>
       <c r="H92">
-        <v>0.13304343885593717</v>
+        <v>0.11951889497310686</v>
       </c>
       <c r="I92">
-        <v>-1.0511567948503497E-3</v>
+        <v>-1.1274385617289833E-3</v>
       </c>
       <c r="J92">
-        <v>-3.4162719755070903E-4</v>
+        <v>-3.6247971686694642E-4</v>
       </c>
       <c r="K92">
-        <v>-1.1018899885284483E-4</v>
+        <v>-1.6140903514664146E-4</v>
       </c>
       <c r="L92">
-        <v>-9.8577779819142286E-5</v>
+        <v>-8.398842204369674E-5</v>
       </c>
       <c r="M92">
-        <v>2.4646458476773603E-5</v>
+        <v>9.1316203705993359E-6</v>
       </c>
       <c r="N92">
-        <v>2.147739196090015E-5</v>
+        <v>6.2114608539896664E-6</v>
       </c>
       <c r="O92">
-        <v>-5.6619268605784256E-6</v>
+        <v>-1.4233844216044694E-7</v>
       </c>
       <c r="P92">
-        <v>2.2249078757519136E-4</v>
+        <v>6.1084179196783136E-4</v>
       </c>
       <c r="Q92">
-        <v>1.1019343369156331E-4</v>
+        <v>4.1776045333565383E-4</v>
       </c>
       <c r="R92">
-        <v>9.1600809033032249E-5</v>
+        <v>1.5275229983461981E-4</v>
       </c>
       <c r="S92">
-        <v>7.151295117815426E-4</v>
+        <v>3.8912727022576707E-4</v>
       </c>
       <c r="T92">
-        <v>5.9153793237953778E-4</v>
+        <v>2.9088583737750615E-4</v>
       </c>
       <c r="U92">
-        <v>3.3528575295038721E-5</v>
+        <v>-5.5330735968110369E-5</v>
       </c>
       <c r="V92">
-        <v>2.3285937200467899E-4</v>
+        <v>1.9200399601419424E-4</v>
       </c>
       <c r="W92">
-        <v>1.9559881479236374E-4</v>
+        <v>1.551400070376482E-4</v>
       </c>
       <c r="X92">
-        <v>5.4595486663755466E-6</v>
+        <v>6.273016972331926E-6</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6.3854490250925267E-5</v>
+        <v>7.9180379051750909E-5</v>
       </c>
       <c r="B93">
-        <v>6.7301263609209627E-5</v>
+        <v>7.3139265281422391E-5</v>
       </c>
       <c r="C93">
-        <v>-6.0314431163721594E-5</v>
+        <v>-8.3947070317640682E-5</v>
       </c>
       <c r="D93">
-        <v>1.2024167855366752E-3</v>
+        <v>1.5134279509016553E-3</v>
       </c>
       <c r="E93">
-        <v>9.5645260510135444E-4</v>
+        <v>1.1816051933886732E-3</v>
       </c>
       <c r="F93">
-        <v>-7.606899041395776E-4</v>
+        <v>-9.9619645033770135E-4</v>
       </c>
       <c r="G93">
-        <v>0.16011140415409045</v>
+        <v>0.14793670721593266</v>
       </c>
       <c r="H93">
-        <v>0.13224351008043397</v>
+        <v>0.11873296916993041</v>
       </c>
       <c r="I93">
-        <v>-1.0436881760256256E-3</v>
+        <v>-1.1170364950663077E-3</v>
       </c>
       <c r="J93">
-        <v>-3.5028397647796083E-4</v>
+        <v>-3.6748876903899179E-4</v>
       </c>
       <c r="K93">
-        <v>-1.3057241655922702E-4</v>
+        <v>-1.7854244621740391E-4</v>
       </c>
       <c r="L93">
-        <v>-9.0681341977760788E-5</v>
+        <v>-7.433700656009584E-5</v>
       </c>
       <c r="M93">
-        <v>2.3325598461854113E-5</v>
+        <v>8.5118636214609458E-6</v>
       </c>
       <c r="N93">
-        <v>2.0731623378233976E-5</v>
+        <v>6.0591166123018832E-6</v>
       </c>
       <c r="O93">
-        <v>-5.8904143506177675E-6</v>
+        <v>-7.7349903725336999E-7</v>
       </c>
       <c r="P93">
-        <v>2.0675255769564416E-4</v>
+        <v>5.8149659243018621E-4</v>
       </c>
       <c r="Q93">
-        <v>1.0254873320558744E-4</v>
+        <v>3.9887872298435172E-4</v>
       </c>
       <c r="R93">
-        <v>8.4385001020703676E-5</v>
+        <v>1.4432118320741808E-4</v>
       </c>
       <c r="S93">
-        <v>7.0453203646092533E-4</v>
+        <v>3.7972369210527695E-4</v>
       </c>
       <c r="T93">
-        <v>5.8306484590819885E-4</v>
+        <v>2.8396566725103791E-4</v>
       </c>
       <c r="U93">
-        <v>3.2147759971068446E-5</v>
+        <v>-5.4408766075858062E-5</v>
       </c>
       <c r="V93">
-        <v>2.2884053982941133E-4</v>
+        <v>1.8921292535184264E-4</v>
       </c>
       <c r="W93">
-        <v>1.924623539948378E-4</v>
+        <v>1.5312367261370672E-4</v>
       </c>
       <c r="X93">
-        <v>5.1910330866045129E-6</v>
+        <v>5.6561012507908408E-6</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6.0644539064513836E-5</v>
+        <v>7.6629299473894062E-5</v>
       </c>
       <c r="B94">
-        <v>6.3286560538999836E-5</v>
+        <v>7.0009285865867883E-5</v>
       </c>
       <c r="C94">
-        <v>-5.8196624557638188E-5</v>
+        <v>-8.1396582854558201E-5</v>
       </c>
       <c r="D94">
-        <v>1.169489352187858E-3</v>
+        <v>1.4795692652459014E-3</v>
       </c>
       <c r="E94">
-        <v>9.3011480632987364E-4</v>
+        <v>1.154963348209268E-3</v>
       </c>
       <c r="F94">
-        <v>-7.4060310139167917E-4</v>
+        <v>-9.7505825925411828E-4</v>
       </c>
       <c r="G94">
-        <v>0.15914874272343171</v>
+        <v>0.14697089972312849</v>
       </c>
       <c r="H94">
-        <v>0.1314483192376894</v>
+        <v>0.11795309078926584</v>
       </c>
       <c r="I94">
-        <v>-1.0364345480217141E-3</v>
+        <v>-1.1068530281775476E-3</v>
       </c>
       <c r="J94">
-        <v>-3.5770109035304642E-4</v>
+        <v>-3.7113986552215778E-4</v>
       </c>
       <c r="K94">
-        <v>-1.4897040282102481E-4</v>
+        <v>-1.9346985365310766E-4</v>
       </c>
       <c r="L94">
-        <v>-8.3702667572294054E-5</v>
+        <v>-6.5800273991814941E-5</v>
       </c>
       <c r="M94">
-        <v>2.2079842600719601E-5</v>
+        <v>7.8987819018561106E-6</v>
       </c>
       <c r="N94">
-        <v>1.9956185121072778E-5</v>
+        <v>5.8551169398781053E-6</v>
       </c>
       <c r="O94">
-        <v>-5.943497587201918E-6</v>
+        <v>-1.2604900214568156E-6</v>
       </c>
       <c r="P94">
-        <v>1.9206453605469243E-4</v>
+        <v>5.5368123726014847E-4</v>
       </c>
       <c r="Q94">
-        <v>9.5446848479063817E-5</v>
+        <v>3.8094992565658307E-4</v>
       </c>
       <c r="R94">
-        <v>7.7602804358756217E-5</v>
+        <v>1.3630480453654924E-4</v>
       </c>
       <c r="S94">
-        <v>6.9401491250098424E-4</v>
+        <v>3.704965628505124E-4</v>
       </c>
       <c r="T94">
-        <v>5.7463581319550094E-4</v>
+        <v>2.7717986249193227E-4</v>
       </c>
       <c r="U94">
-        <v>3.0873639683459686E-5</v>
+        <v>-5.3494297923308839E-5</v>
       </c>
       <c r="V94">
-        <v>2.2491780842859299E-4</v>
+        <v>1.8644829973117386E-4</v>
       </c>
       <c r="W94">
-        <v>1.8934641661094709E-4</v>
+        <v>1.5109083973487283E-4</v>
       </c>
       <c r="X94">
-        <v>5.0372028678191683E-6</v>
+        <v>5.143529211562026E-6</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5.7610658954043714E-5</v>
+        <v>7.4216101794575911E-5</v>
       </c>
       <c r="B95">
-        <v>5.953255797686019E-5</v>
+        <v>6.7091310630394493E-5</v>
       </c>
       <c r="C95">
-        <v>-5.6205078795001917E-5</v>
+        <v>-7.899868351283233E-5</v>
       </c>
       <c r="D95">
-        <v>1.1374541657649395E-3</v>
+        <v>1.4465195845136591E-3</v>
       </c>
       <c r="E95">
-        <v>9.0450083211601751E-4</v>
+        <v>1.1289653016660654E-3</v>
       </c>
       <c r="F95">
-        <v>-7.210493626332859E-4</v>
+        <v>-9.5440498930518015E-4</v>
       </c>
       <c r="G95">
-        <v>0.15819168617091414</v>
+        <v>0.14601241848332866</v>
       </c>
       <c r="H95">
-        <v>0.13065782432806186</v>
+        <v>0.11717919622374412</v>
       </c>
       <c r="I95">
-        <v>-1.0293680728447052E-3</v>
+        <v>-1.0968727137471816E-3</v>
       </c>
       <c r="J95">
-        <v>-3.6401011534814565E-4</v>
+        <v>-3.7360707793362329E-4</v>
       </c>
       <c r="K95">
-        <v>-1.6554749106290068E-4</v>
+        <v>-2.0639801813517814E-4</v>
       </c>
       <c r="L95">
-        <v>-7.7545916975507723E-5</v>
+        <v>-5.8282963750828642E-5</v>
       </c>
       <c r="M95">
-        <v>2.0915886330019617E-5</v>
+        <v>7.3020634503733511E-6</v>
       </c>
       <c r="N95">
-        <v>1.916879325847276E-5</v>
+        <v>5.6129439772619905E-6</v>
       </c>
       <c r="O95">
-        <v>-5.8535209691568113E-6</v>
+        <v>-1.6222990664578013E-6</v>
       </c>
       <c r="P95">
-        <v>1.7835144736522146E-4</v>
+        <v>5.2730349450383688E-4</v>
       </c>
       <c r="Q95">
-        <v>8.8836401263669984E-5</v>
+        <v>3.6391165939162346E-4</v>
       </c>
       <c r="R95">
-        <v>7.1251714910514075E-5</v>
+        <v>1.286971372391234E-4</v>
       </c>
       <c r="S95">
-        <v>6.8358938683488191E-4</v>
+        <v>3.6144885244175537E-4</v>
       </c>
       <c r="T95">
-        <v>5.6625771231533228E-4</v>
+        <v>2.7052702876491976E-4</v>
       </c>
       <c r="U95">
-        <v>2.9704128159058207E-5</v>
+        <v>-5.2580718237891235E-5</v>
       </c>
       <c r="V95">
-        <v>2.2109466011310808E-4</v>
+        <v>1.8371742246964601E-4</v>
       </c>
       <c r="W95">
-        <v>1.8626184846115557E-4</v>
+        <v>1.4905060657448058E-4</v>
       </c>
       <c r="X95">
-        <v>4.9769855903214477E-6</v>
+        <v>4.7231919473793891E-6</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5.473964679780785E-5</v>
+        <v>7.1926739669150313E-5</v>
       </c>
       <c r="B96">
-        <v>5.6019452387312541E-5</v>
+        <v>6.4366668099962479E-5</v>
       </c>
       <c r="C96">
-        <v>-5.4327625771954935E-5</v>
+        <v>-7.6740971832806517E-5</v>
       </c>
       <c r="D96">
-        <v>1.1062869222111527E-3</v>
+        <v>1.4142583702417724E-3</v>
       </c>
       <c r="E96">
-        <v>8.795899873141888E-4</v>
+        <v>1.1035942256883416E-3</v>
       </c>
       <c r="F96">
-        <v>-7.0201403410830032E-4</v>
+        <v>-9.3422420621569913E-4</v>
       </c>
       <c r="G96">
-        <v>0.15724019822379631</v>
+        <v>0.14506119268574988</v>
       </c>
       <c r="H96">
-        <v>0.12987198603832154</v>
+        <v>0.11641122384034769</v>
       </c>
       <c r="I96">
-        <v>-1.0224633888195056E-3</v>
+        <v>-1.0870809180477251E-3</v>
       </c>
       <c r="J96">
-        <v>-3.6932800968281221E-4</v>
+        <v>-3.7504615768994219E-4</v>
       </c>
       <c r="K96">
-        <v>-1.8045620953555108E-4</v>
+        <v>-2.1751925700705499E-4</v>
       </c>
       <c r="L96">
-        <v>-7.2120260089847399E-5</v>
+        <v>-5.1692086152047091E-5</v>
       </c>
       <c r="M96">
-        <v>1.9837560791824416E-5</v>
+        <v>6.7291989834458325E-6</v>
       </c>
       <c r="N96">
-        <v>1.8384102137281033E-5</v>
+        <v>5.3441997844951217E-6</v>
       </c>
       <c r="O96">
-        <v>-5.6495983166149344E-6</v>
+        <v>-1.876613253088014E-6</v>
       </c>
       <c r="P96">
-        <v>1.6554550403879986E-4</v>
+        <v>5.0227870628510201E-4</v>
       </c>
       <c r="Q96">
-        <v>8.2672718620946384E-5</v>
+        <v>3.4770750491473762E-4</v>
       </c>
       <c r="R96">
-        <v>6.5325251464298795E-5</v>
+        <v>1.2148996948623798E-4</v>
       </c>
       <c r="S96">
-        <v>6.732654941909999E-4</v>
+        <v>3.5258321671309951E-4</v>
       </c>
       <c r="T96">
-        <v>5.5793740421239413E-4</v>
+        <v>2.6400634761266164E-4</v>
       </c>
       <c r="U96">
-        <v>2.8635529326970222E-5</v>
+        <v>-5.1663326712023988E-5</v>
       </c>
       <c r="V96">
-        <v>2.1737274002608942E-4</v>
+        <v>1.8102607643429128E-4</v>
       </c>
       <c r="W96">
-        <v>1.8321750928596003E-4</v>
+        <v>1.4701089841653175E-4</v>
       </c>
       <c r="X96">
-        <v>4.9914393133176915E-6</v>
+        <v>4.3836023089984165E-6</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5.201966534529312E-5</v>
+        <v>6.9748762143032452E-5</v>
       </c>
       <c r="B97">
-        <v>5.2729058036549148E-5</v>
+        <v>6.1818186585588082E-5</v>
       </c>
       <c r="C97">
-        <v>-5.2553229860974326E-5</v>
+        <v>-7.4611727304416678E-5</v>
       </c>
       <c r="D97">
-        <v>1.0759640226203349E-3</v>
+        <v>1.3827656700151358E-3</v>
       </c>
       <c r="E97">
-        <v>8.5536227646820784E-4</v>
+        <v>1.0788338068021793E-3</v>
       </c>
       <c r="F97">
-        <v>-6.83482957304693E-4</v>
+        <v>-9.1450388536527176E-4</v>
       </c>
       <c r="G97">
-        <v>0.15629424494330899</v>
+        <v>0.14411715374946465</v>
       </c>
       <c r="H97">
-        <v>0.1290907675298234</v>
+        <v>0.11564911388362077</v>
       </c>
       <c r="I97">
-        <v>-1.0156976469811729E-3</v>
+        <v>-1.0774639278207149E-3</v>
       </c>
       <c r="J97">
-        <v>-3.7375846406484392E-4</v>
+        <v>-3.7559591123331894E-4</v>
       </c>
       <c r="K97">
-        <v>-1.9383743712242385E-4</v>
+        <v>-2.27011693514669E-4</v>
       </c>
       <c r="L97">
-        <v>-6.734061875013353E-5</v>
+        <v>-4.5938026990220192E-5</v>
       </c>
       <c r="M97">
-        <v>1.8846296969021736E-5</v>
+        <v>6.185764284632863E-6</v>
       </c>
       <c r="N97">
-        <v>1.7613986614151145E-5</v>
+        <v>5.058744904253842E-6</v>
       </c>
       <c r="O97">
-        <v>-5.3576347078809761E-6</v>
+        <v>-2.0397298587785226E-6</v>
       </c>
       <c r="P97">
-        <v>1.5358539814624983E-4</v>
+        <v>4.7852893957286264E-4</v>
       </c>
       <c r="Q97">
-        <v>7.6916953376304775E-5</v>
+        <v>3.3228635069530743E-4</v>
       </c>
       <c r="R97">
-        <v>5.9813522932050667E-5</v>
+        <v>1.1467320138963455E-4</v>
       </c>
       <c r="S97">
-        <v>6.6305204242045335E-4</v>
+        <v>3.4390190567969674E-4</v>
       </c>
       <c r="T97">
-        <v>5.4968156263290879E-4</v>
+        <v>2.5761740030902478E-4</v>
       </c>
       <c r="U97">
-        <v>2.7662915574100388E-5</v>
+        <v>-5.0739034474645323E-5</v>
       </c>
       <c r="V97">
-        <v>2.1375215864360975E-4</v>
+        <v>1.7837870049894076E-4</v>
       </c>
       <c r="W97">
-        <v>1.8022045916299412E-4</v>
+        <v>1.4497853519557173E-4</v>
       </c>
       <c r="X97">
-        <v>5.063732454013703E-6</v>
+        <v>4.1139938456697629E-6</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4.9440093038422006E-5</v>
+        <v>6.7671170376771674E-5</v>
       </c>
       <c r="B98">
-        <v>4.9644697017292572E-5</v>
+        <v>5.9430128991168853E-5</v>
       </c>
       <c r="C98">
-        <v>-5.0871939394125931E-5</v>
+        <v>-7.2599952012946748E-5</v>
       </c>
       <c r="D98">
-        <v>1.0464625439858821E-3</v>
+        <v>1.3520220924841831E-3</v>
       </c>
       <c r="E98">
-        <v>8.3179836741642532E-4</v>
+        <v>1.0546682240529235E-3</v>
       </c>
       <c r="F98">
-        <v>-6.6544244098565297E-4</v>
+        <v>-8.9523239306062445E-4</v>
       </c>
       <c r="G98">
-        <v>0.15535379436678479</v>
+        <v>0.14318023511175776</v>
       </c>
       <c r="H98">
-        <v>0.12831413421896576</v>
+        <v>0.11489280836942861</v>
       </c>
       <c r="I98">
-        <v>-1.0090504897104502E-3</v>
+        <v>-1.0680090181892478E-3</v>
       </c>
       <c r="J98">
-        <v>-3.773932061190699E-4</v>
+        <v>-3.7537956577706692E-4</v>
       </c>
       <c r="K98">
-        <v>-2.0582087047849029E-4</v>
+        <v>-2.3503965040579277E-4</v>
       </c>
       <c r="L98">
-        <v>-6.3128151149394185E-5</v>
+        <v>-4.0935386824916263E-5</v>
       </c>
       <c r="M98">
-        <v>1.7941550558120412E-5</v>
+        <v>5.6756852579756667E-6</v>
       </c>
       <c r="N98">
-        <v>1.6867827181243911E-5</v>
+        <v>4.7648443957497884E-6</v>
       </c>
       <c r="O98">
-        <v>-5.0004092413402645E-6</v>
+        <v>-2.1265117628667595E-6</v>
       </c>
       <c r="P98">
-        <v>1.424154243971909E-4</v>
+        <v>4.5598223564597974E-4</v>
       </c>
       <c r="Q98">
-        <v>7.1535291251256794E-5</v>
+        <v>3.1760178148948525E-4</v>
       </c>
       <c r="R98">
-        <v>5.4703780755893661E-5</v>
+        <v>1.0823514140629811E-4</v>
       </c>
       <c r="S98">
-        <v>6.5295662608066962E-4</v>
+        <v>3.354067003800587E-4</v>
       </c>
       <c r="T98">
-        <v>5.4149654057855656E-4</v>
+        <v>2.5136002039310453E-4</v>
       </c>
       <c r="U98">
-        <v>2.6780459327024886E-5</v>
+        <v>-4.9806090704384179E-5</v>
       </c>
       <c r="V98">
-        <v>2.1023176825685219E-4</v>
+        <v>1.7577855785383685E-4</v>
       </c>
       <c r="W98">
-        <v>1.7727614624329924E-4</v>
+        <v>1.4295930758694413E-4</v>
       </c>
       <c r="X98">
-        <v>5.1790846943289282E-6</v>
+        <v>3.9043866331832178E-6</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4.6991386084105358E-5</v>
+        <v>6.5684279893574168E-5</v>
       </c>
       <c r="B99">
-        <v>4.6751089768370946E-5</v>
+        <v>5.7188119952276446E-5</v>
       </c>
       <c r="C99">
-        <v>-4.9274828624046307E-5</v>
+        <v>-7.0695394411577671E-5</v>
       </c>
       <c r="D99">
-        <v>1.0177602124716856E-3</v>
+        <v>1.3220087842726817E-3</v>
       </c>
       <c r="E99">
-        <v>8.0887955778807807E-4</v>
+        <v>1.0310821281485736E-3</v>
       </c>
       <c r="F99">
-        <v>-6.4787923521270052E-4</v>
+        <v>-8.7639846837284791E-4</v>
       </c>
       <c r="G99">
-        <v>0.15441881618036213</v>
+        <v>0.14225037202895358</v>
       </c>
       <c r="H99">
-        <v>0.12754205355584736</v>
+        <v>0.11414225097317007</v>
       </c>
       <c r="I99">
-        <v>-1.0025039829897331E-3</v>
+        <v>-1.0587044879264715E-3</v>
       </c>
       <c r="J99">
-        <v>-3.8031324377385545E-4</v>
+        <v>-3.7450610579339231E-4</v>
       </c>
       <c r="K99">
-        <v>-2.1652557284435048E-4</v>
+        <v>-2.4175415625364468E-4</v>
       </c>
       <c r="L99">
-        <v>-5.9410518588709493E-5</v>
+        <v>-3.6603589853288251E-5</v>
       </c>
       <c r="M99">
-        <v>1.7121186401958255E-5</v>
+        <v>5.2014836338378142E-6</v>
       </c>
       <c r="N99">
-        <v>1.6152791654455712E-5</v>
+        <v>4.4693169657688308E-6</v>
       </c>
       <c r="O99">
-        <v>-4.5977055002088818E-6</v>
+        <v>-2.1503796157633965E-6</v>
       </c>
       <c r="P99">
-        <v>1.3198472181508158E-4</v>
+        <v>4.3457194946976482E-4</v>
       </c>
       <c r="Q99">
-        <v>6.649824150528616E-5</v>
+        <v>3.0361152782221499E-4</v>
       </c>
       <c r="R99">
-        <v>4.9980946380756563E-5</v>
+        <v>1.0216279476779975E-4</v>
       </c>
       <c r="S99">
-        <v>6.4298566263953916E-4</v>
+        <v>3.2709887385135185E-4</v>
       </c>
       <c r="T99">
-        <v>5.3338826906434988E-4</v>
+        <v>2.4523417214714245E-4</v>
       </c>
       <c r="U99">
-        <v>2.5981720075951564E-5</v>
+        <v>-4.8863837194237366E-5</v>
       </c>
       <c r="V99">
-        <v>2.0680941275053044E-4</v>
+        <v>1.7322789447313168E-4</v>
       </c>
       <c r="W99">
-        <v>1.7438859174601085E-4</v>
+        <v>1.4095805849393756E-4</v>
       </c>
       <c r="X99">
-        <v>5.3246774979198719E-6</v>
+        <v>3.7456251524194329E-6</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4.466495276478355E-5</v>
+        <v>6.3779589513393017E-5</v>
       </c>
       <c r="B100">
-        <v>4.4034247756563616E-5</v>
+        <v>5.5079067797535305E-5</v>
       </c>
       <c r="C100">
-        <v>-4.775393297162811E-5</v>
+        <v>-6.8888557223164402E-5</v>
       </c>
       <c r="D100">
-        <v>9.8983537891617068E-4</v>
+        <v>1.2927074086297248E-3</v>
       </c>
       <c r="E100">
-        <v>7.8658774417106336E-4</v>
+        <v>1.0080606217965197E-3</v>
       </c>
       <c r="F100">
-        <v>-6.3078050731946167E-4</v>
+        <v>-8.5799120564268973E-4</v>
       </c>
       <c r="G100">
-        <v>0.15348928142309948</v>
+        <v>0.14132750139111608</v>
       </c>
       <c r="H100">
-        <v>0.1267744948059466</v>
+        <v>0.11339738691568421</v>
       </c>
       <c r="I100">
-        <v>-9.9604251243901043E-4</v>
+        <v>-1.0495396678105319E-3</v>
       </c>
       <c r="J100">
-        <v>-3.8259003664409263E-4</v>
+        <v>-3.7307156463202852E-4</v>
       </c>
       <c r="K100">
-        <v>-2.2606057909935195E-4</v>
+        <v>-2.4729353682180526E-4</v>
       </c>
       <c r="L100">
-        <v>-5.6121971427236517E-5</v>
+        <v>-3.2867294874632567E-5</v>
       </c>
       <c r="M100">
-        <v>1.6381822350419739E-5</v>
+        <v>4.7645022523504616E-6</v>
       </c>
       <c r="N100">
-        <v>1.547410836200136E-5</v>
+        <v>4.1776836180159754E-6</v>
       </c>
       <c r="O100">
-        <v>-4.1664780353611874E-6</v>
+        <v>-2.1233337297792736E-6</v>
       </c>
       <c r="P100">
-        <v>1.2224662209026071E-4</v>
+        <v>4.1423617042960712E-4</v>
       </c>
       <c r="Q100">
-        <v>6.1780007026612793E-5</v>
+        <v>2.9027697329818598E-4</v>
       </c>
       <c r="R100">
-        <v>4.5628106207118435E-5</v>
+        <v>9.6442138414655045E-5</v>
       </c>
       <c r="S100">
-        <v>6.3314444626727528E-4</v>
+        <v>3.1897917223551681E-4</v>
       </c>
       <c r="T100">
-        <v>5.2536218410237367E-4</v>
+        <v>2.3923985230326001E-4</v>
       </c>
       <c r="U100">
-        <v>2.5259889466555663E-5</v>
+        <v>-4.7912490172872884E-5</v>
       </c>
       <c r="V100">
-        <v>2.0348215067556019E-4</v>
+        <v>1.7072808656961211E-4</v>
       </c>
       <c r="W100">
-        <v>1.7156056898004479E-4</v>
+        <v>1.3897876728432822E-4</v>
       </c>
       <c r="X100">
-        <v>5.4895418116762684E-6</v>
+        <v>3.6293929199158825E-6</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4.245303973848813E-5</v>
+        <v>6.1949657802422558E-5</v>
       </c>
       <c r="B101">
-        <v>4.1481369627227593E-5</v>
+        <v>5.3091083444194761E-5</v>
       </c>
       <c r="C101">
-        <v>-4.6302179980806102E-5</v>
+        <v>-6.7170692205123267E-5</v>
       </c>
       <c r="D101">
-        <v>9.6266699631430974E-4</v>
+        <v>1.2641001256826292E-3</v>
       </c>
       <c r="E101">
-        <v>7.6490539373996747E-4</v>
+        <v>9.8558924119438005E-4</v>
       </c>
       <c r="F101">
-        <v>-6.1413381977304393E-4</v>
+        <v>-8.4000003773018349E-4</v>
       </c>
       <c r="G101">
-        <v>0.15256516222254499</v>
+        <v>0.14041156155147791</v>
       </c>
       <c r="H101">
-        <v>0.12601142883867242</v>
+        <v>0.11265816284950866</v>
       </c>
       <c r="I101">
-        <v>-9.8965265210304576E-4</v>
+        <v>-1.0405049072015934E-3</v>
       </c>
       <c r="J101">
-        <v>-3.8428658796907378E-4</v>
+        <v>-3.7116025932343788E-4</v>
       </c>
       <c r="K101">
-        <v>-2.3452553551783772E-4</v>
+        <v>-2.5178406747814657E-4</v>
       </c>
       <c r="L101">
-        <v>-5.3203287605829708E-5</v>
+        <v>-2.9656638325292433E-5</v>
       </c>
       <c r="M101">
-        <v>1.5719133261482554E-5</v>
+        <v>4.36510946499372E-6</v>
       </c>
       <c r="N101">
-        <v>1.4835326906492696E-5</v>
+        <v>3.8943129499445311E-6</v>
       </c>
       <c r="O101">
-        <v>-3.7210446668378694E-6</v>
+        <v>-2.055999441203303E-6</v>
       </c>
       <c r="P101">
-        <v>1.1315809307954616E-4</v>
+        <v>3.9491721619778222E-4</v>
       </c>
       <c r="Q101">
-        <v>5.7357929169610244E-5</v>
+        <v>2.7756271622449982E-4</v>
       </c>
       <c r="R101">
-        <v>4.1626968655839036E-5</v>
+        <v>9.1058378365336574E-5</v>
       </c>
       <c r="S101">
-        <v>6.2343721478885783E-4</v>
+        <v>3.1104781239943104E-4</v>
       </c>
       <c r="T101">
-        <v>5.174231780384897E-4</v>
+        <v>2.3337701233488834E-4</v>
       </c>
       <c r="U101">
-        <v>2.4607997434311635E-5</v>
+        <v>-4.6952948292966796E-5</v>
       </c>
       <c r="V101">
-        <v>2.0024645214600234E-4</v>
+        <v>1.6827977630670281E-4</v>
       </c>
       <c r="W101">
-        <v>1.6879377388923089E-4</v>
+        <v>1.3702463458897617E-4</v>
       </c>
       <c r="X101">
-        <v>5.6644295501895314E-6</v>
+        <v>3.5482081094695415E-6</v>
       </c>
     </row>
   </sheetData>
